--- a/Eksplorasi.xlsx
+++ b/Eksplorasi.xlsx
@@ -1,39 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PhD\Semester 3\Pebelejaran Mesin Lanjut\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A84091-7A30-48DA-9437-FEC2BC1F40D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F26367-1445-48C0-B6E6-E1175894C425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>Persoalan Klasifikasi</t>
   </si>
   <si>
     <t>3x3</t>
-  </si>
-  <si>
-    <t>∑ Kernel</t>
   </si>
   <si>
     <t>∑ Conv2D</t>
@@ -45,14 +52,35 @@
     <t>∑ FC Layer</t>
   </si>
   <si>
-    <t>Uk. Kernel</t>
+    <t>Running Time</t>
+  </si>
+  <si>
+    <t>Uk. Filter</t>
+  </si>
+  <si>
+    <t>∑ Filter</t>
+  </si>
+  <si>
+    <t>5x5</t>
+  </si>
+  <si>
+    <t>7x7</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>Output Space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +103,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,18 +144,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -120,6 +289,4648 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.82200002670287997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87120002508163397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88370001316070501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89539998769760099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89939999580383301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90060001611709595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90109997987747104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90210002660751298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AEFA-46CA-B853-99F7D6374E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573463600"/>
+        <c:axId val="573462944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="573463600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573462944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="573462944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573463600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Running</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Running Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6143402777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4900810185185184E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7759027777777779E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3696296296296295E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.477928240740741E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6884722222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6990740740740747E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0004513888888894E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-B144-45D1-BD2B-87BFE7B812DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="593191760"/>
+        <c:axId val="593195040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="593191760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593195040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="593195040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593191760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="id-ID"/>
+              <a:t>Acc</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>uracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90060001611709595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90700000524520796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90729999542236295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91240000724792403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91170001029968195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1046-4DDE-BEC3-29F8903B01D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="561786112"/>
+        <c:axId val="561787096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="561786112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561787096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="561787096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="561786112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Running Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$16:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.6884722222222223E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4318032407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0254456018518519E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3539039351851851E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3336122685185185E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-682A-40CD-BB5E-7C10B1B3723E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="563783440"/>
+        <c:axId val="563784096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="563783440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563784096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563784096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563783440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91469997167587203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90689998865127497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91000002622604304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89689999818801802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89770001173019398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9748-45DD-B720-2EF6151E694D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="693919368"/>
+        <c:axId val="693923304"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="693919368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693923304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693923304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693919368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91DDDF6-BE58-4132-802E-1B4F58C66E74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7260B311-2EDD-42C6-94D2-FF3502261863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C7DA8D-FFB7-4ABA-A685-CB6BF00F0ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC6E94E-D6EC-4DB3-96E4-24480CD0AA21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{457858F4-3342-4E45-AA3F-2B30A14F9A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:F6"/>
+  <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,48 +5207,710 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J1"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="4">
+        <v>0.82200002670287997</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="6">
+        <v>1.6143402777777779E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="4">
+        <v>0.87120002508163397</v>
+      </c>
+      <c r="H7" s="4">
+        <f>G7-G6</f>
+        <v>4.9199998378753995E-2</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="6">
+        <v>1.4900810185185184E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4">
+        <v>0.88370001316070501</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" ref="H8:H13" si="0">G8-G7</f>
+        <v>1.2499988079071045E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f>G8-G6</f>
+        <v>6.169998645782504E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1.7759027777777779E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4">
+        <v>0.89539998769760099</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.1699974536895974E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9:I13" si="1">G9-G7</f>
+        <v>2.4199962615967019E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1.3696296296296295E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4">
+        <v>0.89939999580383301</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0000081062320225E-3</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5699982643127997E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2.477928240740741E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15">
+        <v>0.90060001611709595</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.2000203132629395E-3</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="1"/>
+        <v>5.200028419494962E-3</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2.6884722222222223E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>50</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4">
+        <v>0.90109997987747104</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9996376037508838E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6999840736380278E-3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>3.6990740740740747E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>100</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4">
+        <v>0.90210002660751298</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>1.000046730041948E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5000104904170364E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6.0004513888888894E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="13">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="13">
+        <v>0.90060001611709595</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="18">
+        <v>2.6884722222222223E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13">
+        <v>40</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4">
+        <v>0.90700000524520796</v>
+      </c>
+      <c r="H17" s="4">
+        <f>G17-G16</f>
+        <v>6.3999891281120158E-3</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6">
+        <v>1.4318032407407408E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="17">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13">
+        <v>40</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4">
+        <v>0.90729999542236295</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" ref="H18:H20" si="2">G18-G17</f>
+        <v>2.999901771549851E-4</v>
+      </c>
+      <c r="I18" s="4">
+        <f>G18-G16</f>
+        <v>6.6999793052670009E-3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.0254456018518519E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="14">
+        <v>4</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>40</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="2"/>
+        <v>5.1000118255610793E-3</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" ref="I19:I20" si="3">G19-G17</f>
+        <v>5.4000020027160645E-3</v>
+      </c>
+      <c r="J19" s="16">
+        <v>1.3539039351851851E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13">
+        <v>40</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4">
+        <v>0.91170001029968195</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" si="2"/>
+        <v>-6.9999694824207648E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4000148773190029E-3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1.3336122685185185E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="14">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D25" s="15">
+        <v>40</v>
+      </c>
+      <c r="E25" s="14">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="F25" s="14"/>
+      <c r="G25" s="15">
+        <v>0.91240000724792403</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16">
+        <v>1.3539039351851851E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="19">
+        <v>4</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="13">
+        <v>40</v>
+      </c>
+      <c r="E26" s="7">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F26" s="7"/>
+      <c r="G26" s="4">
+        <v>0.89840000867843595</v>
+      </c>
+      <c r="H26" s="4">
+        <f>G26-G25</f>
+        <v>-1.3999998569488081E-2</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="6">
+        <v>1.346002314814815E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="19">
+        <v>4</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="13">
+        <v>40</v>
+      </c>
+      <c r="E27" s="7">
         <v>1</v>
       </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="19">
+        <v>2</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>32</v>
+      </c>
+      <c r="E30" s="30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0.91469997167587203</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="18">
+        <v>8.0338194444444441E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="13">
+        <v>32</v>
+      </c>
+      <c r="E31" s="30">
+        <v>2</v>
+      </c>
+      <c r="F31" s="27">
+        <v>10</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.90689998865127497</v>
+      </c>
+      <c r="H31" s="4">
+        <f t="shared" ref="H31:H33" si="4">G31-G30</f>
+        <v>-7.7999830245970569E-3</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="6">
+        <v>7.659710648148149E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="19">
+        <v>2</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="13">
+        <v>32</v>
+      </c>
+      <c r="E32" s="30">
+        <v>3</v>
+      </c>
+      <c r="F32" s="27">
+        <v>10</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.91000002622604304</v>
+      </c>
+      <c r="H32" s="13">
+        <f t="shared" si="4"/>
+        <v>3.1000375747680664E-3</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" ref="I32:I33" si="5">G32-G30</f>
+        <v>-4.6999454498289905E-3</v>
+      </c>
+      <c r="J32" s="6">
+        <v>7.9519675925925921E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="19">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13">
+        <v>32</v>
+      </c>
+      <c r="E33" s="30">
+        <v>4</v>
+      </c>
+      <c r="F33" s="27">
+        <v>10</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.89689999818801802</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="4"/>
+        <v>-1.3100028038025013E-2</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.999990463256947E-3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>6.4436574074074084E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="19">
+        <v>2</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="13">
+        <v>32</v>
+      </c>
+      <c r="E34" s="30">
+        <v>5</v>
+      </c>
+      <c r="F34" s="27">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.89770001173019398</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" ref="H34" si="6">G34-G33</f>
+        <v>8.000135421759591E-4</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34" si="7">G34-G32</f>
+        <v>-1.2300014495849054E-2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.0738495370370369E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G27:J27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Eksplorasi.xlsx
+++ b/Eksplorasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PhD\Semester 3\Pebelejaran Mesin Lanjut\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F26367-1445-48C0-B6E6-E1175894C425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46735114-D74F-49F2-BB6A-E8BA4DB25097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,15 +244,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -273,6 +264,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5719,19 +5719,19 @@
       <c r="E27" s="7">
         <v>1</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="21" t="s">
+      <c r="F27" s="25"/>
+      <c r="G27" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -5740,15 +5740,15 @@
       <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="26" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26" t="s">
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5762,10 +5762,10 @@
       <c r="D30" s="13">
         <v>32</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="27">
         <v>1</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="24">
         <v>10</v>
       </c>
       <c r="G30" s="13">
@@ -5787,10 +5787,10 @@
       <c r="D31" s="13">
         <v>32</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="27">
         <v>2</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="24">
         <v>10</v>
       </c>
       <c r="G31" s="4">
@@ -5815,10 +5815,10 @@
       <c r="D32" s="13">
         <v>32</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="27">
         <v>3</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="24">
         <v>10</v>
       </c>
       <c r="G32" s="4">
@@ -5846,10 +5846,10 @@
       <c r="D33" s="13">
         <v>32</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="27">
         <v>4</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F33" s="24">
         <v>10</v>
       </c>
       <c r="G33" s="4">
@@ -5877,10 +5877,10 @@
       <c r="D34" s="13">
         <v>32</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="27">
         <v>5</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F34" s="24">
         <v>10</v>
       </c>
       <c r="G34" s="4">

--- a/Eksplorasi.xlsx
+++ b/Eksplorasi.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PhD\Semester 3\Pebelejaran Mesin Lanjut\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46735114-D74F-49F2-BB6A-E8BA4DB25097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90831C5F-033F-4310-BFA9-D617406AF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="48">
   <si>
     <t>Persoalan Klasifikasi</t>
   </si>
@@ -71,6 +95,114 @@
   </si>
   <si>
     <t>Output Space</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Conv Layer-1</t>
+  </si>
+  <si>
+    <t>Pooling</t>
+  </si>
+  <si>
+    <t>Hidden Layer-1</t>
+  </si>
+  <si>
+    <t>Filter size</t>
+  </si>
+  <si>
+    <t>Num of Filters</t>
+  </si>
+  <si>
+    <t>Eksplorasi</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>ReLU</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Num of Neurons</t>
+  </si>
+  <si>
+    <t>Softmax</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>sparse_categorical_crossentropy</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Max (2x2)</t>
+  </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>9x9</t>
+  </si>
+  <si>
+    <t>Conv Layer-2</t>
+  </si>
+  <si>
+    <t>Conv Layer-3</t>
+  </si>
+  <si>
+    <t>Conv Layer-4</t>
+  </si>
+  <si>
+    <t>Conv Layer-5</t>
+  </si>
+  <si>
+    <t>Hidden Layer-2</t>
+  </si>
+  <si>
+    <t>Hidden Layer-3</t>
+  </si>
+  <si>
+    <t>Hidden Layer-4</t>
+  </si>
+  <si>
+    <t>Hidden Layer-5</t>
+  </si>
+  <si>
+    <t>Conv-1</t>
+  </si>
+  <si>
+    <t>Conv-2</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>FC-1</t>
+  </si>
+  <si>
+    <t>FC-2</t>
   </si>
 </sst>
 </file>
@@ -110,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +267,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -196,11 +352,357 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -265,6 +767,117 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,6 +887,95 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5198,8 +5900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5720,12 +6422,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
     </row>
     <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -5913,4 +6615,4745 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65201A12-53EA-4893-81B9-82092243027F}">
+  <dimension ref="A1:AJ69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI67" sqref="AI67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="10" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10" customWidth="1"/>
+    <col min="24" max="29" width="10" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" customWidth="1"/>
+    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" style="31" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.140625" style="64"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="107" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="29"/>
+    </row>
+    <row r="4" spans="1:36" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="108">
+        <v>1</v>
+      </c>
+      <c r="B5" s="111">
+        <v>5</v>
+      </c>
+      <c r="C5" s="111">
+        <v>64</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="111">
+        <v>24</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="111">
+        <v>128</v>
+      </c>
+      <c r="U5" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH5" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>0.84810000658035201</v>
+      </c>
+      <c r="AJ5" s="66">
+        <v>1.5111111111111113E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
+      <c r="AF6" s="112"/>
+      <c r="AG6" s="112"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="33">
+        <v>0.90649998188018799</v>
+      </c>
+      <c r="AJ6" s="67">
+        <v>1.5288657407407406E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="112"/>
+      <c r="AG7" s="112"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="32">
+        <v>0.90579998493194502</v>
+      </c>
+      <c r="AJ7" s="68">
+        <v>1.9232060185185183E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="105"/>
+      <c r="AI8" s="32">
+        <v>0.90069997310638406</v>
+      </c>
+      <c r="AJ8" s="68">
+        <v>1.6527314814814814E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="44">
+        <v>0.89249998331069902</v>
+      </c>
+      <c r="AJ9" s="69">
+        <v>2.1030092592592593E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="108">
+        <v>2</v>
+      </c>
+      <c r="B10" s="111">
+        <v>5</v>
+      </c>
+      <c r="C10" s="111">
+        <v>64</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="42">
+        <v>24</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="111">
+        <v>128</v>
+      </c>
+      <c r="U10" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE10" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF10" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG10" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH10" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI10" s="42">
+        <v>0.90649998188018799</v>
+      </c>
+      <c r="AJ10" s="70">
+        <v>1.5288657407407406E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="33">
+        <v>24</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>24</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="33">
+        <v>0.92030000686645497</v>
+      </c>
+      <c r="AJ11" s="67">
+        <v>4.4408680555555555E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32">
+        <v>24</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32">
+        <v>24</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="32">
+        <v>24</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="112"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="105"/>
+      <c r="AI12" s="32">
+        <v>0.92019999027252197</v>
+      </c>
+      <c r="AJ12" s="68">
+        <v>7.4538425925925926E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32">
+        <v>24</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="32">
+        <v>24</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="32">
+        <v>24</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="32">
+        <v>24</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="112"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="112"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="32">
+        <v>0.91799998283386197</v>
+      </c>
+      <c r="AJ13" s="68">
+        <v>9.388368055555556E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>24</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="36">
+        <v>24</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="36">
+        <v>24</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="36">
+        <v>24</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="P14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="36">
+        <v>24</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="105"/>
+      <c r="T14" s="112"/>
+      <c r="U14" s="112"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
+      <c r="AH14" s="105"/>
+      <c r="AI14" s="36">
+        <v>0.90719997882842995</v>
+      </c>
+      <c r="AJ14" s="71">
+        <v>1.1454074074074073E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" s="108">
+        <v>3</v>
+      </c>
+      <c r="B15" s="111">
+        <v>5</v>
+      </c>
+      <c r="C15" s="111">
+        <v>64</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="38">
+        <v>24</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="38">
+        <v>24</v>
+      </c>
+      <c r="I15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="111">
+        <v>128</v>
+      </c>
+      <c r="U15" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43"/>
+      <c r="AD15" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF15" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG15" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH15" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI15" s="54">
+        <v>0.92030000686645497</v>
+      </c>
+      <c r="AJ15" s="72">
+        <v>4.4408680555555555E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="109"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="112"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="105"/>
+      <c r="AI16" s="40">
+        <v>0.91729998588562001</v>
+      </c>
+      <c r="AJ16" s="73">
+        <v>8.2986111111111108E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="109"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="62">
+        <v>24</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="62">
+        <v>64</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="112"/>
+      <c r="U17" s="112"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="60">
+        <v>0.92489999532699496</v>
+      </c>
+      <c r="AJ17" s="74">
+        <v>8.5637268518518519E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="109"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>24</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>128</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
+      <c r="AH18" s="105"/>
+      <c r="AI18" s="40">
+        <v>0.92129999399185103</v>
+      </c>
+      <c r="AJ18" s="73">
+        <v>1.2467615740740741E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="109"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="56">
+        <v>24</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="56">
+        <v>256</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="112"/>
+      <c r="U19" s="112"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="59">
+        <v>0.92479997873306197</v>
+      </c>
+      <c r="AJ19" s="75">
+        <v>1.8375277777777779E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="108">
+        <v>4</v>
+      </c>
+      <c r="B20" s="111">
+        <v>5</v>
+      </c>
+      <c r="C20" s="111">
+        <v>64</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="38">
+        <v>32</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="38">
+        <v>24</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="111">
+        <v>128</v>
+      </c>
+      <c r="U20" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF20" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG20" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH20" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI20" s="38">
+        <v>0.91909998655319203</v>
+      </c>
+      <c r="AJ20" s="76">
+        <v>6.5164814814814816E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>32</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>32</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="105"/>
+      <c r="T21" s="112"/>
+      <c r="U21" s="112"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="112"/>
+      <c r="AH21" s="105"/>
+      <c r="AI21" s="4">
+        <v>0.91170001029968195</v>
+      </c>
+      <c r="AJ21" s="77">
+        <v>8.2765162037037026E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="109"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>32</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>64</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="112"/>
+      <c r="AH22" s="105"/>
+      <c r="AI22" s="4">
+        <v>0.92229998111724798</v>
+      </c>
+      <c r="AJ22" s="77">
+        <v>9.9413078703703712E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="109"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="62">
+        <v>32</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="62">
+        <v>128</v>
+      </c>
+      <c r="I23" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
+      <c r="AH23" s="105"/>
+      <c r="AI23" s="62">
+        <v>0.92610001564025801</v>
+      </c>
+      <c r="AJ23" s="79">
+        <v>1.2288171296296295E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="110"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="41">
+        <v>32</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41">
+        <v>256</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="105"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="34"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
+      <c r="AH24" s="105"/>
+      <c r="AI24" s="41">
+        <v>0.92439997196197499</v>
+      </c>
+      <c r="AJ24" s="78">
+        <v>2.3248113425925924E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="108">
+        <v>5</v>
+      </c>
+      <c r="B25" s="111">
+        <v>5</v>
+      </c>
+      <c r="C25" s="111">
+        <v>64</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="38">
+        <v>64</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>24</v>
+      </c>
+      <c r="I25" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="111">
+        <v>128</v>
+      </c>
+      <c r="U25" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="43"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF25" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG25" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH25" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI25" s="38">
+        <v>0.91560000181198098</v>
+      </c>
+      <c r="AJ25" s="76">
+        <v>8.4987500000000011E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="109"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>64</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>32</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
+      <c r="AH26" s="105"/>
+      <c r="AI26" s="4">
+        <v>0.92280000448226895</v>
+      </c>
+      <c r="AJ26" s="77">
+        <v>9.1600925925925929E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="109"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>64</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>64</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="105"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="34"/>
+      <c r="X27" s="34"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
+      <c r="AH27" s="105"/>
+      <c r="AI27" s="4">
+        <v>0.92229998111724798</v>
+      </c>
+      <c r="AJ27" s="77">
+        <v>1.2575590277777778E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="109"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>64</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>128</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="105"/>
+      <c r="T28" s="112"/>
+      <c r="U28" s="112"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="112"/>
+      <c r="AF28" s="112"/>
+      <c r="AG28" s="112"/>
+      <c r="AH28" s="105"/>
+      <c r="AI28" s="4">
+        <v>0.91780000925063998</v>
+      </c>
+      <c r="AJ28" s="77">
+        <v>1.8145428240740741E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="110"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="83">
+        <v>64</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="83">
+        <v>256</v>
+      </c>
+      <c r="I29" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="53"/>
+      <c r="R29" s="53"/>
+      <c r="S29" s="105"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
+      <c r="AF29" s="112"/>
+      <c r="AG29" s="112"/>
+      <c r="AH29" s="105"/>
+      <c r="AI29" s="83">
+        <v>0.92510002851486195</v>
+      </c>
+      <c r="AJ29" s="84">
+        <v>3.5583229166666668E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="108">
+        <v>6</v>
+      </c>
+      <c r="B30" s="111">
+        <v>5</v>
+      </c>
+      <c r="C30" s="111">
+        <v>64</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="38">
+        <v>128</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="38">
+        <v>24</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="111">
+        <v>128</v>
+      </c>
+      <c r="U30" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="43"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE30" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF30" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG30" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH30" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI30" s="38">
+        <v>0.92269998788833596</v>
+      </c>
+      <c r="AJ30" s="76">
+        <v>1.5422199074074076E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="109"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>128</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4">
+        <v>32</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
+      <c r="AF31" s="112"/>
+      <c r="AG31" s="112"/>
+      <c r="AH31" s="105"/>
+      <c r="AI31" s="4">
+        <v>0.92129999399185103</v>
+      </c>
+      <c r="AJ31" s="77">
+        <v>1.5678402777777777E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="109"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>128</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="4">
+        <v>64</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="112"/>
+      <c r="U32" s="112"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="112"/>
+      <c r="AE32" s="112"/>
+      <c r="AF32" s="112"/>
+      <c r="AG32" s="112"/>
+      <c r="AH32" s="105"/>
+      <c r="AI32" s="4">
+        <v>0.92409998178482</v>
+      </c>
+      <c r="AJ32" s="77">
+        <v>2.4867407407407408E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="109"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="62">
+        <v>128</v>
+      </c>
+      <c r="F33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="62">
+        <v>128</v>
+      </c>
+      <c r="I33" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="105"/>
+      <c r="T33" s="112"/>
+      <c r="U33" s="112"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34"/>
+      <c r="X33" s="34"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
+      <c r="AD33" s="112"/>
+      <c r="AE33" s="112"/>
+      <c r="AF33" s="112"/>
+      <c r="AG33" s="112"/>
+      <c r="AH33" s="105"/>
+      <c r="AI33" s="62">
+        <v>0.92430001497268599</v>
+      </c>
+      <c r="AJ33" s="79">
+        <v>3.4406770833333329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="110"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41">
+        <v>128</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="41">
+        <v>256</v>
+      </c>
+      <c r="I34" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="112"/>
+      <c r="U34" s="112"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="34"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
+      <c r="AD34" s="112"/>
+      <c r="AE34" s="112"/>
+      <c r="AF34" s="112"/>
+      <c r="AG34" s="112"/>
+      <c r="AH34" s="105"/>
+      <c r="AI34" s="41">
+        <v>0.92009997367858798</v>
+      </c>
+      <c r="AJ34" s="78">
+        <v>5.8650393518518522E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="108">
+        <v>7</v>
+      </c>
+      <c r="B35" s="111">
+        <v>5</v>
+      </c>
+      <c r="C35" s="111">
+        <v>64</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="38">
+        <v>256</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="38">
+        <v>24</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="T35" s="111">
+        <v>128</v>
+      </c>
+      <c r="U35" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
+      <c r="AB35" s="43"/>
+      <c r="AC35" s="43"/>
+      <c r="AD35" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE35" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF35" s="111" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG35" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH35" s="104" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI35" s="38">
+        <v>0.91780000925063998</v>
+      </c>
+      <c r="AJ35" s="76">
+        <v>3.1496932870370371E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="109"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>256</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>32</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="34"/>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="112"/>
+      <c r="AH36" s="105"/>
+      <c r="AI36" s="4">
+        <v>0.92009997367858798</v>
+      </c>
+      <c r="AJ36" s="77">
+        <v>3.5954895833333333E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="109"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="62">
+        <v>256</v>
+      </c>
+      <c r="F37" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="62">
+        <v>64</v>
+      </c>
+      <c r="I37" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="112"/>
+      <c r="U37" s="112"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="112"/>
+      <c r="AG37" s="112"/>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="62">
+        <v>0.92390000820159901</v>
+      </c>
+      <c r="AJ37" s="79">
+        <v>4.7937662037037032E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="109"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>256</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>128</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="112"/>
+      <c r="U38" s="112"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="34"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="112"/>
+      <c r="AE38" s="112"/>
+      <c r="AF38" s="112"/>
+      <c r="AG38" s="112"/>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="4">
+        <v>0.91879999637603704</v>
+      </c>
+      <c r="AJ38" s="77">
+        <v>6.2335694444444444E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="109"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="56">
+        <v>256</v>
+      </c>
+      <c r="F39" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="56">
+        <v>256</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="112"/>
+      <c r="U39" s="112"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="34"/>
+      <c r="X39" s="34"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="34"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
+      <c r="AD39" s="112"/>
+      <c r="AE39" s="112"/>
+      <c r="AF39" s="112"/>
+      <c r="AG39" s="112"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="56">
+        <v>0.92199999094009399</v>
+      </c>
+      <c r="AJ39" s="86">
+        <v>0.11294519675925925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="101">
+        <v>8</v>
+      </c>
+      <c r="B40" s="92">
+        <v>5</v>
+      </c>
+      <c r="C40" s="92">
+        <v>64</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="98">
+        <v>32</v>
+      </c>
+      <c r="F40" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="98">
+        <v>128</v>
+      </c>
+      <c r="I40" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T40" s="38">
+        <v>128</v>
+      </c>
+      <c r="U40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF40" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG40" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH40" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI40" s="87">
+        <v>0.92610001564025801</v>
+      </c>
+      <c r="AJ40" s="88">
+        <v>1.2288171296296295E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="102"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="62">
+        <v>128</v>
+      </c>
+      <c r="U41" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="V41" s="62">
+        <v>128</v>
+      </c>
+      <c r="W41" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="93"/>
+      <c r="AH41" s="96"/>
+      <c r="AI41" s="62">
+        <v>0.92820000648498502</v>
+      </c>
+      <c r="AJ41" s="79">
+        <v>1.3521898148148149E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="102"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="4">
+        <v>128</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V42" s="4">
+        <v>128</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X42" s="4">
+        <v>128</v>
+      </c>
+      <c r="Y42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="93"/>
+      <c r="AE42" s="93"/>
+      <c r="AF42" s="93"/>
+      <c r="AG42" s="93"/>
+      <c r="AH42" s="96"/>
+      <c r="AI42" s="4">
+        <v>0.92320001125335605</v>
+      </c>
+      <c r="AJ42" s="77">
+        <v>1.2376192129629629E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="102"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="4">
+        <v>128</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V43" s="4">
+        <v>128</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="4">
+        <v>128</v>
+      </c>
+      <c r="Y43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>128</v>
+      </c>
+      <c r="AA43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="93"/>
+      <c r="AE43" s="93"/>
+      <c r="AF43" s="93"/>
+      <c r="AG43" s="93"/>
+      <c r="AH43" s="96"/>
+      <c r="AI43" s="4">
+        <v>0.91189998388290405</v>
+      </c>
+      <c r="AJ43" s="77">
+        <v>1.3274444444444445E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="117"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="120"/>
+      <c r="T44" s="56">
+        <v>128</v>
+      </c>
+      <c r="U44" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="V44" s="56">
+        <v>128</v>
+      </c>
+      <c r="W44" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="X44" s="56">
+        <v>128</v>
+      </c>
+      <c r="Y44" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z44" s="56">
+        <v>128</v>
+      </c>
+      <c r="AA44" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB44" s="56">
+        <v>128</v>
+      </c>
+      <c r="AC44" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD44" s="118"/>
+      <c r="AE44" s="118"/>
+      <c r="AF44" s="118"/>
+      <c r="AG44" s="118"/>
+      <c r="AH44" s="120"/>
+      <c r="AI44" s="56">
+        <v>0.92280000448226895</v>
+      </c>
+      <c r="AJ44" s="86">
+        <v>1.343295138888889E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="101">
+        <v>8</v>
+      </c>
+      <c r="B45" s="92">
+        <v>5</v>
+      </c>
+      <c r="C45" s="92">
+        <v>64</v>
+      </c>
+      <c r="D45" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="98">
+        <v>32</v>
+      </c>
+      <c r="F45" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="98">
+        <v>128</v>
+      </c>
+      <c r="I45" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="87">
+        <v>24</v>
+      </c>
+      <c r="U45" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="V45" s="87">
+        <v>24</v>
+      </c>
+      <c r="W45" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="X45" s="38"/>
+      <c r="Y45" s="38"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="38"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF45" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG45" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH45" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI45" s="38"/>
+      <c r="AJ45" s="76"/>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="102"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="96"/>
+      <c r="T46" s="13">
+        <v>24</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V46" s="13">
+        <v>32</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="93"/>
+      <c r="AE46" s="93"/>
+      <c r="AF46" s="93"/>
+      <c r="AG46" s="93"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="77"/>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="102"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="13">
+        <v>24</v>
+      </c>
+      <c r="U47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V47" s="13">
+        <v>64</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="93"/>
+      <c r="AE47" s="93"/>
+      <c r="AF47" s="93"/>
+      <c r="AG47" s="93"/>
+      <c r="AH47" s="96"/>
+      <c r="AI47" s="4"/>
+      <c r="AJ47" s="77"/>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="102"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="13">
+        <v>24</v>
+      </c>
+      <c r="U48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="13">
+        <v>128</v>
+      </c>
+      <c r="W48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="93"/>
+      <c r="AE48" s="93"/>
+      <c r="AF48" s="93"/>
+      <c r="AG48" s="93"/>
+      <c r="AH48" s="96"/>
+      <c r="AI48" s="4"/>
+      <c r="AJ48" s="77"/>
+    </row>
+    <row r="49" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="103"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="97"/>
+      <c r="T49" s="121">
+        <v>24</v>
+      </c>
+      <c r="U49" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="121">
+        <v>256</v>
+      </c>
+      <c r="W49" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+      <c r="AB49" s="41"/>
+      <c r="AC49" s="41"/>
+      <c r="AD49" s="94"/>
+      <c r="AE49" s="94"/>
+      <c r="AF49" s="94"/>
+      <c r="AG49" s="94"/>
+      <c r="AH49" s="97"/>
+      <c r="AI49" s="41"/>
+      <c r="AJ49" s="78"/>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="101">
+        <v>8</v>
+      </c>
+      <c r="B50" s="92">
+        <v>5</v>
+      </c>
+      <c r="C50" s="92">
+        <v>64</v>
+      </c>
+      <c r="D50" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="98">
+        <v>32</v>
+      </c>
+      <c r="F50" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="98">
+        <v>128</v>
+      </c>
+      <c r="I50" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="87">
+        <v>32</v>
+      </c>
+      <c r="U50" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="V50" s="87">
+        <v>24</v>
+      </c>
+      <c r="W50" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="X50" s="38"/>
+      <c r="Y50" s="38"/>
+      <c r="Z50" s="38"/>
+      <c r="AA50" s="38"/>
+      <c r="AB50" s="38"/>
+      <c r="AC50" s="38"/>
+      <c r="AD50" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE50" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF50" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG50" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH50" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI50" s="38"/>
+      <c r="AJ50" s="76"/>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="102"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="96"/>
+      <c r="T51" s="13">
+        <v>32</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V51" s="13">
+        <v>32</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="93"/>
+      <c r="AE51" s="93"/>
+      <c r="AF51" s="93"/>
+      <c r="AG51" s="93"/>
+      <c r="AH51" s="96"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="77"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="102"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="96"/>
+      <c r="T52" s="13">
+        <v>32</v>
+      </c>
+      <c r="U52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V52" s="13">
+        <v>64</v>
+      </c>
+      <c r="W52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="96"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="77"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" s="102"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="96"/>
+      <c r="T53" s="13">
+        <v>32</v>
+      </c>
+      <c r="U53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="13">
+        <v>128</v>
+      </c>
+      <c r="W53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="93"/>
+      <c r="AE53" s="93"/>
+      <c r="AF53" s="93"/>
+      <c r="AG53" s="93"/>
+      <c r="AH53" s="96"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="77"/>
+    </row>
+    <row r="54" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="103"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="121">
+        <v>32</v>
+      </c>
+      <c r="U54" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="121">
+        <v>256</v>
+      </c>
+      <c r="W54" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+      <c r="AD54" s="94"/>
+      <c r="AE54" s="94"/>
+      <c r="AF54" s="94"/>
+      <c r="AG54" s="94"/>
+      <c r="AH54" s="97"/>
+      <c r="AI54" s="41"/>
+      <c r="AJ54" s="78"/>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" s="101">
+        <v>8</v>
+      </c>
+      <c r="B55" s="92">
+        <v>5</v>
+      </c>
+      <c r="C55" s="92">
+        <v>64</v>
+      </c>
+      <c r="D55" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="98">
+        <v>32</v>
+      </c>
+      <c r="F55" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="98">
+        <v>128</v>
+      </c>
+      <c r="I55" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="87">
+        <v>64</v>
+      </c>
+      <c r="U55" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="V55" s="87">
+        <v>24</v>
+      </c>
+      <c r="W55" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" s="38"/>
+      <c r="Y55" s="38"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="38"/>
+      <c r="AB55" s="38"/>
+      <c r="AC55" s="38"/>
+      <c r="AD55" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE55" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF55" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG55" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH55" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI55" s="38"/>
+      <c r="AJ55" s="76"/>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" s="102"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="13">
+        <v>64</v>
+      </c>
+      <c r="U56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V56" s="13">
+        <v>32</v>
+      </c>
+      <c r="W56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="93"/>
+      <c r="AE56" s="93"/>
+      <c r="AF56" s="93"/>
+      <c r="AG56" s="93"/>
+      <c r="AH56" s="96"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="77"/>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" s="102"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="13">
+        <v>64</v>
+      </c>
+      <c r="U57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V57" s="13">
+        <v>64</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="93"/>
+      <c r="AE57" s="93"/>
+      <c r="AF57" s="93"/>
+      <c r="AG57" s="93"/>
+      <c r="AH57" s="96"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="77"/>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="102"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="13">
+        <v>64</v>
+      </c>
+      <c r="U58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="13">
+        <v>128</v>
+      </c>
+      <c r="W58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="93"/>
+      <c r="AE58" s="93"/>
+      <c r="AF58" s="93"/>
+      <c r="AG58" s="93"/>
+      <c r="AH58" s="96"/>
+      <c r="AI58" s="4"/>
+      <c r="AJ58" s="77"/>
+    </row>
+    <row r="59" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="103"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="97"/>
+      <c r="T59" s="121">
+        <v>64</v>
+      </c>
+      <c r="U59" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="121">
+        <v>256</v>
+      </c>
+      <c r="W59" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
+      <c r="AA59" s="41"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="41"/>
+      <c r="AD59" s="94"/>
+      <c r="AE59" s="94"/>
+      <c r="AF59" s="94"/>
+      <c r="AG59" s="94"/>
+      <c r="AH59" s="97"/>
+      <c r="AI59" s="41"/>
+      <c r="AJ59" s="78"/>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="101">
+        <v>8</v>
+      </c>
+      <c r="B60" s="92">
+        <v>5</v>
+      </c>
+      <c r="C60" s="92">
+        <v>64</v>
+      </c>
+      <c r="D60" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="98">
+        <v>32</v>
+      </c>
+      <c r="F60" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="98">
+        <v>128</v>
+      </c>
+      <c r="I60" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="87">
+        <v>128</v>
+      </c>
+      <c r="U60" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="V60" s="87">
+        <v>24</v>
+      </c>
+      <c r="W60" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="X60" s="38"/>
+      <c r="Y60" s="38"/>
+      <c r="Z60" s="38"/>
+      <c r="AA60" s="38"/>
+      <c r="AB60" s="38"/>
+      <c r="AC60" s="38"/>
+      <c r="AD60" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE60" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF60" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG60" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH60" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="76"/>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" s="102"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="13">
+        <v>128</v>
+      </c>
+      <c r="U61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V61" s="13">
+        <v>32</v>
+      </c>
+      <c r="W61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="93"/>
+      <c r="AE61" s="93"/>
+      <c r="AF61" s="93"/>
+      <c r="AG61" s="93"/>
+      <c r="AH61" s="96"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="77"/>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="102"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="93"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="13">
+        <v>128</v>
+      </c>
+      <c r="U62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V62" s="13">
+        <v>64</v>
+      </c>
+      <c r="W62" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="93"/>
+      <c r="AE62" s="93"/>
+      <c r="AF62" s="93"/>
+      <c r="AG62" s="93"/>
+      <c r="AH62" s="96"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="77"/>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="102"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="93"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="99"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="96"/>
+      <c r="T63" s="13">
+        <v>128</v>
+      </c>
+      <c r="U63" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="13">
+        <v>128</v>
+      </c>
+      <c r="W63" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="93"/>
+      <c r="AE63" s="93"/>
+      <c r="AF63" s="93"/>
+      <c r="AG63" s="93"/>
+      <c r="AH63" s="96"/>
+      <c r="AI63" s="13">
+        <v>0.92820000648498502</v>
+      </c>
+      <c r="AJ63" s="122">
+        <v>1.3521898148148149E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="103"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="121">
+        <v>128</v>
+      </c>
+      <c r="U64" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="121">
+        <v>256</v>
+      </c>
+      <c r="W64" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+      <c r="AA64" s="41"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="41"/>
+      <c r="AD64" s="94"/>
+      <c r="AE64" s="94"/>
+      <c r="AF64" s="94"/>
+      <c r="AG64" s="94"/>
+      <c r="AH64" s="97"/>
+      <c r="AI64" s="41"/>
+      <c r="AJ64" s="78"/>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="101">
+        <v>8</v>
+      </c>
+      <c r="B65" s="92">
+        <v>5</v>
+      </c>
+      <c r="C65" s="92">
+        <v>64</v>
+      </c>
+      <c r="D65" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="98">
+        <v>32</v>
+      </c>
+      <c r="F65" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="98">
+        <v>128</v>
+      </c>
+      <c r="I65" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="T65" s="87">
+        <v>256</v>
+      </c>
+      <c r="U65" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="V65" s="87">
+        <v>24</v>
+      </c>
+      <c r="W65" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="92">
+        <v>10</v>
+      </c>
+      <c r="AE65" s="92" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF65" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG65" s="92">
+        <v>1E-3</v>
+      </c>
+      <c r="AH65" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="76"/>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="102"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="93"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="96"/>
+      <c r="T66" s="13">
+        <v>256</v>
+      </c>
+      <c r="U66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V66" s="13">
+        <v>32</v>
+      </c>
+      <c r="W66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="93"/>
+      <c r="AE66" s="93"/>
+      <c r="AF66" s="93"/>
+      <c r="AG66" s="93"/>
+      <c r="AH66" s="96"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="77"/>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="102"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="93"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="96"/>
+      <c r="T67" s="13">
+        <v>256</v>
+      </c>
+      <c r="U67" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V67" s="13">
+        <v>64</v>
+      </c>
+      <c r="W67" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="93"/>
+      <c r="AE67" s="93"/>
+      <c r="AF67" s="93"/>
+      <c r="AG67" s="93"/>
+      <c r="AH67" s="96"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="77"/>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" s="102"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="93"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="99"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="96"/>
+      <c r="T68" s="13">
+        <v>256</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="13">
+        <v>128</v>
+      </c>
+      <c r="W68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="93"/>
+      <c r="AE68" s="93"/>
+      <c r="AF68" s="93"/>
+      <c r="AG68" s="93"/>
+      <c r="AH68" s="96"/>
+      <c r="AI68" s="4">
+        <v>0.92470002174377397</v>
+      </c>
+      <c r="AJ68" s="77">
+        <v>1.6316203703703704E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="103"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="100"/>
+      <c r="F69" s="100"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="100"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="97"/>
+      <c r="T69" s="121">
+        <v>256</v>
+      </c>
+      <c r="U69" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="121">
+        <v>256</v>
+      </c>
+      <c r="W69" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+      <c r="AA69" s="41"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="41"/>
+      <c r="AD69" s="94"/>
+      <c r="AE69" s="94"/>
+      <c r="AF69" s="94"/>
+      <c r="AG69" s="94"/>
+      <c r="AH69" s="97"/>
+      <c r="AI69" s="41">
+        <v>0.91579997539520197</v>
+      </c>
+      <c r="AJ69" s="78">
+        <v>2.0061192129629628E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="180">
+    <mergeCell ref="S60:S64"/>
+    <mergeCell ref="AD60:AD64"/>
+    <mergeCell ref="AE60:AE64"/>
+    <mergeCell ref="AF60:AF64"/>
+    <mergeCell ref="AG60:AG64"/>
+    <mergeCell ref="AH60:AH64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="S65:S69"/>
+    <mergeCell ref="AD65:AD69"/>
+    <mergeCell ref="AE65:AE69"/>
+    <mergeCell ref="AF65:AF69"/>
+    <mergeCell ref="AG65:AG69"/>
+    <mergeCell ref="AH65:AH69"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AD50:AD54"/>
+    <mergeCell ref="AE50:AE54"/>
+    <mergeCell ref="AF50:AF54"/>
+    <mergeCell ref="AG50:AG54"/>
+    <mergeCell ref="AH50:AH54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="S55:S59"/>
+    <mergeCell ref="AD55:AD59"/>
+    <mergeCell ref="AE55:AE59"/>
+    <mergeCell ref="AF55:AF59"/>
+    <mergeCell ref="AG55:AG59"/>
+    <mergeCell ref="AH55:AH59"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="AD45:AD49"/>
+    <mergeCell ref="AE45:AE49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AG49"/>
+    <mergeCell ref="AH45:AH49"/>
+    <mergeCell ref="S45:S49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AH35:AH39"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD30:AD34"/>
+    <mergeCell ref="AE30:AE34"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AG30:AG34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="AG20:AG24"/>
+    <mergeCell ref="AH20:AH24"/>
+    <mergeCell ref="AF25:AF29"/>
+    <mergeCell ref="AG25:AG29"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="AD25:AD29"/>
+    <mergeCell ref="AE25:AE29"/>
+    <mergeCell ref="S35:S39"/>
+    <mergeCell ref="T35:T39"/>
+    <mergeCell ref="U35:U39"/>
+    <mergeCell ref="AD35:AD39"/>
+    <mergeCell ref="AE35:AE39"/>
+    <mergeCell ref="AF35:AF39"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="AD20:AD24"/>
+    <mergeCell ref="AE20:AE24"/>
+    <mergeCell ref="AF20:AF24"/>
+    <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="S20:S24"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="U20:U24"/>
+    <mergeCell ref="S30:S34"/>
+    <mergeCell ref="T30:T34"/>
+    <mergeCell ref="U30:U34"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="S25:S29"/>
+    <mergeCell ref="T25:T29"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="AG10:AG14"/>
+    <mergeCell ref="AH10:AH14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="S15:S19"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="S10:S14"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="U10:U14"/>
+    <mergeCell ref="AD10:AD14"/>
+    <mergeCell ref="AE10:AE14"/>
+    <mergeCell ref="AF10:AF14"/>
+    <mergeCell ref="AE15:AE19"/>
+    <mergeCell ref="AF15:AF19"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH19"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="S40:S44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="AH5:AH9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="AD5:AD9"/>
+    <mergeCell ref="AE5:AE9"/>
+    <mergeCell ref="AF5:AF9"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AG40:AG44"/>
+    <mergeCell ref="AH40:AH44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB1DB1-15B8-456D-B434-AC40FA493807}">
+  <dimension ref="B1:P21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="J1" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="L2" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80">
+        <v>24</v>
+      </c>
+      <c r="E3" s="80">
+        <v>32</v>
+      </c>
+      <c r="F3" s="80">
+        <v>64</v>
+      </c>
+      <c r="G3" s="80">
+        <v>128</v>
+      </c>
+      <c r="H3" s="80">
+        <v>256</v>
+      </c>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80">
+        <v>24</v>
+      </c>
+      <c r="M3" s="80">
+        <v>32</v>
+      </c>
+      <c r="N3" s="80">
+        <v>64</v>
+      </c>
+      <c r="O3" s="80">
+        <v>128</v>
+      </c>
+      <c r="P3" s="80">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="80">
+        <v>24</v>
+      </c>
+      <c r="D4" s="82" cm="1">
+        <f t="array" ref="D4:H4">TRANSPOSE(Sheet2!AI15:AI19)</f>
+        <v>0.92030000686645497</v>
+      </c>
+      <c r="E4" s="82">
+        <v>0.91729998588562001</v>
+      </c>
+      <c r="F4" s="82">
+        <v>0.92489999532699496</v>
+      </c>
+      <c r="G4" s="82">
+        <v>0.92129999399185103</v>
+      </c>
+      <c r="H4" s="82">
+        <v>0.92479997873306197</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="80">
+        <v>24</v>
+      </c>
+      <c r="L4" s="81" cm="1">
+        <f t="array" ref="L4:P4">TRANSPOSE(Sheet2!AJ15:AJ19)</f>
+        <v>4.4408680555555555E-3</v>
+      </c>
+      <c r="M4" s="81">
+        <v>8.2986111111111108E-3</v>
+      </c>
+      <c r="N4" s="81">
+        <v>8.5637268518518519E-3</v>
+      </c>
+      <c r="O4" s="81">
+        <v>1.2467615740740741E-2</v>
+      </c>
+      <c r="P4" s="81">
+        <v>1.8375277777777779E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="114"/>
+      <c r="C5" s="80">
+        <v>32</v>
+      </c>
+      <c r="D5" s="82" cm="1">
+        <f t="array" ref="D5:H5">TRANSPOSE(Sheet2!AI20:AI24)</f>
+        <v>0.91909998655319203</v>
+      </c>
+      <c r="E5" s="82">
+        <v>0.91170001029968195</v>
+      </c>
+      <c r="F5" s="82">
+        <v>0.92229998111724798</v>
+      </c>
+      <c r="G5" s="82">
+        <v>0.92610001564025801</v>
+      </c>
+      <c r="H5" s="82">
+        <v>0.92439997196197499</v>
+      </c>
+      <c r="J5" s="114"/>
+      <c r="K5" s="80">
+        <v>32</v>
+      </c>
+      <c r="L5" s="81" cm="1">
+        <f t="array" ref="L5:P5">TRANSPOSE(Sheet2!AJ20:AJ24)</f>
+        <v>6.5164814814814816E-3</v>
+      </c>
+      <c r="M5" s="81">
+        <v>8.2765162037037026E-3</v>
+      </c>
+      <c r="N5" s="81">
+        <v>9.9413078703703712E-3</v>
+      </c>
+      <c r="O5" s="81">
+        <v>1.2288171296296295E-2</v>
+      </c>
+      <c r="P5" s="81">
+        <v>2.3248113425925924E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="114"/>
+      <c r="C6" s="80">
+        <v>64</v>
+      </c>
+      <c r="D6" s="82" cm="1">
+        <f t="array" ref="D6:H6">TRANSPOSE(Sheet2!AI25:AI29)</f>
+        <v>0.91560000181198098</v>
+      </c>
+      <c r="E6" s="82">
+        <v>0.92280000448226895</v>
+      </c>
+      <c r="F6" s="82">
+        <v>0.92229998111724798</v>
+      </c>
+      <c r="G6" s="82">
+        <v>0.91780000925063998</v>
+      </c>
+      <c r="H6" s="82">
+        <v>0.92510002851486195</v>
+      </c>
+      <c r="J6" s="114"/>
+      <c r="K6" s="80">
+        <v>64</v>
+      </c>
+      <c r="L6" s="81" cm="1">
+        <f t="array" ref="L6:P6">TRANSPOSE(Sheet2!AJ25:AJ29)</f>
+        <v>8.4987500000000011E-3</v>
+      </c>
+      <c r="M6" s="81">
+        <v>9.1600925925925929E-3</v>
+      </c>
+      <c r="N6" s="81">
+        <v>1.2575590277777778E-2</v>
+      </c>
+      <c r="O6" s="81">
+        <v>1.8145428240740741E-2</v>
+      </c>
+      <c r="P6" s="81">
+        <v>3.5583229166666668E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="114"/>
+      <c r="C7" s="80">
+        <v>128</v>
+      </c>
+      <c r="D7" s="82" cm="1">
+        <f t="array" ref="D7:H7">TRANSPOSE(Sheet2!AI30:AI34)</f>
+        <v>0.92269998788833596</v>
+      </c>
+      <c r="E7" s="82">
+        <v>0.92129999399185103</v>
+      </c>
+      <c r="F7" s="82">
+        <v>0.92409998178482</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.92430001497268599</v>
+      </c>
+      <c r="H7" s="82">
+        <v>0.92009997367858798</v>
+      </c>
+      <c r="J7" s="114"/>
+      <c r="K7" s="80">
+        <v>128</v>
+      </c>
+      <c r="L7" s="81" cm="1">
+        <f t="array" ref="L7:P7">TRANSPOSE(Sheet2!AJ30:AJ34)</f>
+        <v>1.5422199074074076E-2</v>
+      </c>
+      <c r="M7" s="81">
+        <v>1.5678402777777777E-2</v>
+      </c>
+      <c r="N7" s="81">
+        <v>2.4867407407407408E-2</v>
+      </c>
+      <c r="O7" s="81">
+        <v>3.4406770833333329E-2</v>
+      </c>
+      <c r="P7" s="81">
+        <v>5.8650393518518522E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="114"/>
+      <c r="C8" s="80">
+        <v>256</v>
+      </c>
+      <c r="D8" s="82" cm="1">
+        <f t="array" ref="D8:H8">TRANSPOSE(Sheet2!AI35:AI39)</f>
+        <v>0.91780000925063998</v>
+      </c>
+      <c r="E8" s="82">
+        <v>0.92009997367858798</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.92390000820159901</v>
+      </c>
+      <c r="G8" s="82">
+        <v>0.91879999637603704</v>
+      </c>
+      <c r="H8" s="82">
+        <v>0.92199999094009399</v>
+      </c>
+      <c r="J8" s="114"/>
+      <c r="K8" s="80">
+        <v>256</v>
+      </c>
+      <c r="L8" s="81" cm="1">
+        <f t="array" ref="L8:P8">TRANSPOSE(Sheet2!AJ35:AJ39)</f>
+        <v>3.1496932870370371E-2</v>
+      </c>
+      <c r="M8" s="81">
+        <v>3.5954895833333333E-2</v>
+      </c>
+      <c r="N8" s="81">
+        <v>4.7937662037037032E-2</v>
+      </c>
+      <c r="O8" s="81">
+        <v>6.2335694444444444E-2</v>
+      </c>
+      <c r="P8" s="81">
+        <v>0.11294519675925925</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="82">
+        <f>MAX(D4:H8)</f>
+        <v>0.92610001564025801</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="J12" s="116" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="116"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="L13" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80">
+        <v>24</v>
+      </c>
+      <c r="E14" s="80">
+        <v>32</v>
+      </c>
+      <c r="F14" s="80">
+        <v>64</v>
+      </c>
+      <c r="G14" s="80">
+        <v>128</v>
+      </c>
+      <c r="H14" s="80">
+        <v>256</v>
+      </c>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80">
+        <v>24</v>
+      </c>
+      <c r="M14" s="80">
+        <v>32</v>
+      </c>
+      <c r="N14" s="80">
+        <v>64</v>
+      </c>
+      <c r="O14" s="80">
+        <v>128</v>
+      </c>
+      <c r="P14" s="80">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="80">
+        <v>24</v>
+      </c>
+      <c r="D15" s="82" cm="1">
+        <f t="array" ref="D15:H15">TRANSPOSE(Sheet2!AI45:AI49)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="82">
+        <v>0</v>
+      </c>
+      <c r="F15" s="82">
+        <v>0</v>
+      </c>
+      <c r="G15" s="82">
+        <v>0</v>
+      </c>
+      <c r="H15" s="82">
+        <v>0</v>
+      </c>
+      <c r="J15" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="80">
+        <v>24</v>
+      </c>
+      <c r="L15" s="81" cm="1">
+        <f t="array" ref="L15:P15">TRANSPOSE(Sheet2!AJ45:AJ49)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="81">
+        <v>0</v>
+      </c>
+      <c r="N15" s="81">
+        <v>0</v>
+      </c>
+      <c r="O15" s="81">
+        <v>0</v>
+      </c>
+      <c r="P15" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="114"/>
+      <c r="C16" s="80">
+        <v>32</v>
+      </c>
+      <c r="D16" s="82" cm="1">
+        <f t="array" ref="D16:H16">TRANSPOSE(Sheet2!AI50:AI54)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="82">
+        <v>0</v>
+      </c>
+      <c r="F16" s="82">
+        <v>0</v>
+      </c>
+      <c r="G16" s="82">
+        <v>0</v>
+      </c>
+      <c r="H16" s="82">
+        <v>0</v>
+      </c>
+      <c r="J16" s="114"/>
+      <c r="K16" s="80">
+        <v>32</v>
+      </c>
+      <c r="L16" s="81" cm="1">
+        <f t="array" ref="L16:P16">TRANSPOSE(Sheet2!AJ50:AJ54)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="81">
+        <v>0</v>
+      </c>
+      <c r="N16" s="81">
+        <v>0</v>
+      </c>
+      <c r="O16" s="81">
+        <v>0</v>
+      </c>
+      <c r="P16" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="114"/>
+      <c r="C17" s="80">
+        <v>64</v>
+      </c>
+      <c r="D17" s="82" cm="1">
+        <f t="array" ref="D17:H17">TRANSPOSE(Sheet2!AI55:AI59)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="82">
+        <v>0</v>
+      </c>
+      <c r="F17" s="82">
+        <v>0</v>
+      </c>
+      <c r="G17" s="82">
+        <v>0</v>
+      </c>
+      <c r="H17" s="82">
+        <v>0</v>
+      </c>
+      <c r="J17" s="114"/>
+      <c r="K17" s="80">
+        <v>64</v>
+      </c>
+      <c r="L17" s="81" cm="1">
+        <f t="array" ref="L17:P17">TRANSPOSE(Sheet2!AJ55:AJ59)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="81">
+        <v>0</v>
+      </c>
+      <c r="N17" s="81">
+        <v>0</v>
+      </c>
+      <c r="O17" s="81">
+        <v>0</v>
+      </c>
+      <c r="P17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="114"/>
+      <c r="C18" s="80">
+        <v>128</v>
+      </c>
+      <c r="D18" s="82" cm="1">
+        <f t="array" ref="D18:H18">TRANSPOSE(Sheet2!AI60:AI64)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="82">
+        <v>0</v>
+      </c>
+      <c r="F18" s="82">
+        <v>0</v>
+      </c>
+      <c r="G18" s="82">
+        <v>0.92820000648498502</v>
+      </c>
+      <c r="H18" s="82">
+        <v>0</v>
+      </c>
+      <c r="J18" s="114"/>
+      <c r="K18" s="80">
+        <v>128</v>
+      </c>
+      <c r="L18" s="81" cm="1">
+        <f t="array" ref="L18:P18">TRANSPOSE(Sheet2!AJ60:AJ64)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="81">
+        <v>0</v>
+      </c>
+      <c r="N18" s="81">
+        <v>0</v>
+      </c>
+      <c r="O18" s="81">
+        <v>1.3521898148148149E-2</v>
+      </c>
+      <c r="P18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="114"/>
+      <c r="C19" s="80">
+        <v>256</v>
+      </c>
+      <c r="D19" s="82" cm="1">
+        <f t="array" ref="D19:H19">TRANSPOSE(Sheet2!AI65:AI69)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="82">
+        <v>0</v>
+      </c>
+      <c r="F19" s="82">
+        <v>0</v>
+      </c>
+      <c r="G19" s="82">
+        <v>0.92470002174377397</v>
+      </c>
+      <c r="H19" s="82">
+        <v>0.91579997539520197</v>
+      </c>
+      <c r="J19" s="114"/>
+      <c r="K19" s="80">
+        <v>256</v>
+      </c>
+      <c r="L19" s="81" cm="1">
+        <f t="array" ref="L19:P19">TRANSPOSE(Sheet2!AJ65:AJ69)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="81">
+        <v>0</v>
+      </c>
+      <c r="N19" s="81">
+        <v>0</v>
+      </c>
+      <c r="O19" s="81">
+        <v>1.6316203703703704E-2</v>
+      </c>
+      <c r="P19" s="81">
+        <v>2.0061192129629628E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="82">
+        <f>MAX(D15:H19)</f>
+        <v>0.92820000648498502</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="J4:J8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4:H8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:P8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:H19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:P19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Eksplorasi.xlsx
+++ b/Eksplorasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PhD\Semester 3\Pebelejaran Mesin Lanjut\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90831C5F-033F-4310-BFA9-D617406AF168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDBE09F-12F3-4892-9A70-1E9295D11D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="55">
   <si>
     <t>Persoalan Klasifikasi</t>
   </si>
@@ -204,6 +204,27 @@
   <si>
     <t>FC-2</t>
   </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>Adadelta</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
+  </si>
+  <si>
+    <t>Adamax</t>
+  </si>
+  <si>
+    <t>Nadam</t>
+  </si>
+  <si>
+    <t>Ftrl</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +309,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -878,6 +911,32 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -888,6 +947,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -896,22 +964,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,6 +982,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,6 +1014,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,38 +1033,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5901,7 +5967,7 @@
   <dimension ref="B1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J13"/>
+      <selection activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,12 +6488,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="89" t="s">
+      <c r="G27" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -6619,11 +6685,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65201A12-53EA-4893-81B9-82092243027F}">
-  <dimension ref="A1:AJ69"/>
+  <dimension ref="A1:AJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI67" sqref="AI67"/>
+      <selection pane="topRight" activeCell="AH83" sqref="AH83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6670,56 +6736,56 @@
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107" t="s">
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107" t="s">
+      <c r="K3" s="133"/>
+      <c r="L3" s="133"/>
+      <c r="M3" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107" t="s">
+      <c r="N3" s="133"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="133"/>
       <c r="S3" s="30"/>
-      <c r="T3" s="107" t="s">
+      <c r="T3" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107" t="s">
+      <c r="U3" s="133"/>
+      <c r="V3" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107" t="s">
+      <c r="W3" s="133"/>
+      <c r="X3" s="133" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107" t="s">
+      <c r="Y3" s="133"/>
+      <c r="Z3" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107" t="s">
+      <c r="AA3" s="133"/>
+      <c r="AB3" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107" t="s">
+      <c r="AC3" s="133"/>
+      <c r="AD3" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="AE3" s="107"/>
+      <c r="AE3" s="133"/>
       <c r="AF3" s="29"/>
       <c r="AG3" s="29"/>
       <c r="AH3" s="30"/>
@@ -6836,22 +6902,22 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
-        <v>1</v>
-      </c>
-      <c r="B5" s="111">
+      <c r="A5" s="134">
+        <v>1</v>
+      </c>
+      <c r="B5" s="125">
         <v>5</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="125">
         <v>64</v>
       </c>
       <c r="D5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="111">
+      <c r="E5" s="125">
         <v>24</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="125" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="43"/>
@@ -6866,13 +6932,13 @@
       <c r="P5" s="43"/>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
-      <c r="S5" s="104" t="s">
+      <c r="S5" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="111">
+      <c r="T5" s="125">
         <v>128</v>
       </c>
-      <c r="U5" s="111" t="s">
+      <c r="U5" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V5" s="43"/>
@@ -6883,19 +6949,19 @@
       <c r="AA5" s="43"/>
       <c r="AB5" s="43"/>
       <c r="AC5" s="43"/>
-      <c r="AD5" s="111">
+      <c r="AD5" s="125">
         <v>10</v>
       </c>
-      <c r="AE5" s="111" t="s">
+      <c r="AE5" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="111" t="s">
+      <c r="AF5" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG5" s="111">
+      <c r="AG5" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH5" s="104" t="s">
+      <c r="AH5" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI5" s="42">
@@ -6906,14 +6972,14 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
       <c r="D6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
       <c r="G6" s="34"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
@@ -6926,9 +6992,9 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
-      <c r="S6" s="105"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
       <c r="V6" s="34"/>
       <c r="W6" s="34"/>
       <c r="X6" s="34"/>
@@ -6937,11 +7003,11 @@
       <c r="AA6" s="34"/>
       <c r="AB6" s="34"/>
       <c r="AC6" s="34"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
-      <c r="AF6" s="112"/>
-      <c r="AG6" s="112"/>
-      <c r="AH6" s="105"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="129"/>
       <c r="AI6" s="33">
         <v>0.90649998188018799</v>
       </c>
@@ -6950,14 +7016,14 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
       <c r="D7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
@@ -6970,9 +7036,9 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
-      <c r="S7" s="105"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
       <c r="V7" s="34"/>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
@@ -6981,11 +7047,11 @@
       <c r="AA7" s="34"/>
       <c r="AB7" s="34"/>
       <c r="AC7" s="34"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="112"/>
-      <c r="AG7" s="112"/>
-      <c r="AH7" s="105"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="129"/>
       <c r="AI7" s="32">
         <v>0.90579998493194502</v>
       </c>
@@ -6994,14 +7060,14 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
@@ -7014,9 +7080,9 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
+      <c r="S8" s="129"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
       <c r="V8" s="34"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
@@ -7025,11 +7091,11 @@
       <c r="AA8" s="34"/>
       <c r="AB8" s="34"/>
       <c r="AC8" s="34"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="105"/>
+      <c r="AD8" s="126"/>
+      <c r="AE8" s="126"/>
+      <c r="AF8" s="126"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="129"/>
       <c r="AI8" s="32">
         <v>0.90069997310638406</v>
       </c>
@@ -7038,14 +7104,14 @@
       </c>
     </row>
     <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110"/>
-      <c r="B9" s="113"/>
-      <c r="C9" s="113"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -7058,9 +7124,9 @@
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
       <c r="V9" s="45"/>
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
@@ -7069,11 +7135,11 @@
       <c r="AA9" s="45"/>
       <c r="AB9" s="45"/>
       <c r="AC9" s="45"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="106"/>
+      <c r="AD9" s="127"/>
+      <c r="AE9" s="127"/>
+      <c r="AF9" s="127"/>
+      <c r="AG9" s="127"/>
+      <c r="AH9" s="130"/>
       <c r="AI9" s="44">
         <v>0.89249998331069902</v>
       </c>
@@ -7082,13 +7148,13 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="134">
         <v>2</v>
       </c>
-      <c r="B10" s="111">
+      <c r="B10" s="125">
         <v>5</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="125">
         <v>64</v>
       </c>
       <c r="D10" s="42" t="s">
@@ -7112,13 +7178,13 @@
       <c r="P10" s="48"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
-      <c r="S10" s="104" t="s">
+      <c r="S10" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="111">
+      <c r="T10" s="125">
         <v>128</v>
       </c>
-      <c r="U10" s="111" t="s">
+      <c r="U10" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V10" s="43"/>
@@ -7129,19 +7195,19 @@
       <c r="AA10" s="43"/>
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
-      <c r="AD10" s="111">
+      <c r="AD10" s="125">
         <v>10</v>
       </c>
-      <c r="AE10" s="111" t="s">
+      <c r="AE10" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF10" s="111" t="s">
+      <c r="AF10" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG10" s="111">
+      <c r="AG10" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH10" s="104" t="s">
+      <c r="AH10" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI10" s="42">
@@ -7152,9 +7218,9 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="33" t="s">
         <v>1</v>
       </c>
@@ -7182,9 +7248,9 @@
       <c r="P11" s="49"/>
       <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="126"/>
+      <c r="U11" s="126"/>
       <c r="V11" s="34"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
@@ -7193,11 +7259,11 @@
       <c r="AA11" s="34"/>
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="105"/>
+      <c r="AD11" s="126"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="126"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="129"/>
       <c r="AI11" s="33">
         <v>0.92030000686645497</v>
       </c>
@@ -7206,9 +7272,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="32" t="s">
         <v>1</v>
       </c>
@@ -7242,9 +7308,9 @@
       <c r="P12" s="49"/>
       <c r="Q12" s="49"/>
       <c r="R12" s="49"/>
-      <c r="S12" s="105"/>
-      <c r="T12" s="112"/>
-      <c r="U12" s="112"/>
+      <c r="S12" s="129"/>
+      <c r="T12" s="126"/>
+      <c r="U12" s="126"/>
       <c r="V12" s="34"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
@@ -7253,11 +7319,11 @@
       <c r="AA12" s="34"/>
       <c r="AB12" s="34"/>
       <c r="AC12" s="34"/>
-      <c r="AD12" s="112"/>
-      <c r="AE12" s="112"/>
-      <c r="AF12" s="112"/>
-      <c r="AG12" s="112"/>
-      <c r="AH12" s="105"/>
+      <c r="AD12" s="126"/>
+      <c r="AE12" s="126"/>
+      <c r="AF12" s="126"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="129"/>
       <c r="AI12" s="32">
         <v>0.92019999027252197</v>
       </c>
@@ -7266,9 +7332,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="32" t="s">
         <v>1</v>
       </c>
@@ -7308,9 +7374,9 @@
       <c r="P13" s="49"/>
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="112"/>
+      <c r="S13" s="129"/>
+      <c r="T13" s="126"/>
+      <c r="U13" s="126"/>
       <c r="V13" s="34"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
@@ -7319,11 +7385,11 @@
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
-      <c r="AD13" s="112"/>
-      <c r="AE13" s="112"/>
-      <c r="AF13" s="112"/>
-      <c r="AG13" s="112"/>
-      <c r="AH13" s="105"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="129"/>
       <c r="AI13" s="32">
         <v>0.91799998283386197</v>
       </c>
@@ -7332,9 +7398,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="109"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
+      <c r="A14" s="135"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="36" t="s">
         <v>1</v>
       </c>
@@ -7380,9 +7446,9 @@
       <c r="R14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="S14" s="105"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="112"/>
+      <c r="S14" s="129"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
       <c r="V14" s="34"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -7391,11 +7457,11 @@
       <c r="AA14" s="34"/>
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="112"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="112"/>
-      <c r="AG14" s="112"/>
-      <c r="AH14" s="105"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="129"/>
       <c r="AI14" s="36">
         <v>0.90719997882842995</v>
       </c>
@@ -7404,13 +7470,13 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="134">
         <v>3</v>
       </c>
-      <c r="B15" s="111">
+      <c r="B15" s="125">
         <v>5</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="125">
         <v>64</v>
       </c>
       <c r="D15" s="51" t="s">
@@ -7440,13 +7506,13 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
-      <c r="S15" s="104" t="s">
+      <c r="S15" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="111">
+      <c r="T15" s="125">
         <v>128</v>
       </c>
-      <c r="U15" s="111" t="s">
+      <c r="U15" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V15" s="43"/>
@@ -7457,19 +7523,19 @@
       <c r="AA15" s="43"/>
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
-      <c r="AD15" s="111">
+      <c r="AD15" s="125">
         <v>10</v>
       </c>
-      <c r="AE15" s="111" t="s">
+      <c r="AE15" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF15" s="111" t="s">
+      <c r="AF15" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG15" s="111">
+      <c r="AG15" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH15" s="104" t="s">
+      <c r="AH15" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI15" s="54">
@@ -7480,9 +7546,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
+      <c r="A16" s="135"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
       <c r="D16" s="50" t="s">
         <v>1</v>
       </c>
@@ -7510,9 +7576,9 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="112"/>
+      <c r="S16" s="129"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
       <c r="V16" s="34"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
@@ -7521,11 +7587,11 @@
       <c r="AA16" s="34"/>
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
-      <c r="AD16" s="112"/>
-      <c r="AE16" s="112"/>
-      <c r="AF16" s="112"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="105"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="126"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="129"/>
       <c r="AI16" s="40">
         <v>0.91729998588562001</v>
       </c>
@@ -7534,9 +7600,9 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="109"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="112"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
       <c r="D17" s="61" t="s">
         <v>1</v>
       </c>
@@ -7564,9 +7630,9 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="105"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
+      <c r="S17" s="129"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="126"/>
       <c r="V17" s="34"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
@@ -7575,11 +7641,11 @@
       <c r="AA17" s="34"/>
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="112"/>
-      <c r="AF17" s="112"/>
-      <c r="AG17" s="112"/>
-      <c r="AH17" s="105"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="129"/>
       <c r="AI17" s="60">
         <v>0.92489999532699496</v>
       </c>
@@ -7588,9 +7654,9 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112"/>
+      <c r="A18" s="135"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
       <c r="D18" s="50" t="s">
         <v>1</v>
       </c>
@@ -7618,9 +7684,9 @@
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
+      <c r="S18" s="129"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
       <c r="V18" s="34"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
@@ -7629,11 +7695,11 @@
       <c r="AA18" s="34"/>
       <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="112"/>
-      <c r="AF18" s="112"/>
-      <c r="AG18" s="112"/>
-      <c r="AH18" s="105"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="129"/>
       <c r="AI18" s="40">
         <v>0.92129999399185103</v>
       </c>
@@ -7642,9 +7708,9 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="55" t="s">
         <v>1</v>
       </c>
@@ -7672,9 +7738,9 @@
       <c r="P19" s="58"/>
       <c r="Q19" s="58"/>
       <c r="R19" s="58"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="112"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="126"/>
+      <c r="U19" s="126"/>
       <c r="V19" s="34"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
@@ -7683,11 +7749,11 @@
       <c r="AA19" s="34"/>
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
-      <c r="AD19" s="112"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="112"/>
-      <c r="AG19" s="112"/>
-      <c r="AH19" s="105"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="126"/>
+      <c r="AG19" s="126"/>
+      <c r="AH19" s="129"/>
       <c r="AI19" s="59">
         <v>0.92479997873306197</v>
       </c>
@@ -7696,13 +7762,13 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="134">
         <v>4</v>
       </c>
-      <c r="B20" s="111">
+      <c r="B20" s="125">
         <v>5</v>
       </c>
-      <c r="C20" s="111">
+      <c r="C20" s="125">
         <v>64</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -7732,13 +7798,13 @@
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
-      <c r="S20" s="104" t="s">
+      <c r="S20" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="111">
+      <c r="T20" s="125">
         <v>128</v>
       </c>
-      <c r="U20" s="111" t="s">
+      <c r="U20" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V20" s="43"/>
@@ -7749,19 +7815,19 @@
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
-      <c r="AD20" s="111">
+      <c r="AD20" s="125">
         <v>10</v>
       </c>
-      <c r="AE20" s="111" t="s">
+      <c r="AE20" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF20" s="111" t="s">
+      <c r="AF20" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG20" s="111">
+      <c r="AG20" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH20" s="104" t="s">
+      <c r="AH20" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI20" s="38">
@@ -7772,9 +7838,9 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="50" t="s">
         <v>1</v>
       </c>
@@ -7802,9 +7868,9 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
-      <c r="S21" s="105"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="112"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="126"/>
+      <c r="U21" s="126"/>
       <c r="V21" s="34"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
@@ -7813,11 +7879,11 @@
       <c r="AA21" s="34"/>
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="112"/>
-      <c r="AF21" s="112"/>
-      <c r="AG21" s="112"/>
-      <c r="AH21" s="105"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="126"/>
+      <c r="AG21" s="126"/>
+      <c r="AH21" s="129"/>
       <c r="AI21" s="4">
         <v>0.91170001029968195</v>
       </c>
@@ -7826,9 +7892,9 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="50" t="s">
         <v>1</v>
       </c>
@@ -7856,9 +7922,9 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="105"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="112"/>
+      <c r="S22" s="129"/>
+      <c r="T22" s="126"/>
+      <c r="U22" s="126"/>
       <c r="V22" s="34"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
@@ -7867,11 +7933,11 @@
       <c r="AA22" s="34"/>
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="112"/>
-      <c r="AF22" s="112"/>
-      <c r="AG22" s="112"/>
-      <c r="AH22" s="105"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="126"/>
+      <c r="AG22" s="126"/>
+      <c r="AH22" s="129"/>
       <c r="AI22" s="4">
         <v>0.92229998111724798</v>
       </c>
@@ -7880,9 +7946,9 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="61" t="s">
         <v>1</v>
       </c>
@@ -7910,9 +7976,9 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="112"/>
+      <c r="S23" s="129"/>
+      <c r="T23" s="126"/>
+      <c r="U23" s="126"/>
       <c r="V23" s="34"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
@@ -7921,11 +7987,11 @@
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
       <c r="AC23" s="34"/>
-      <c r="AD23" s="112"/>
-      <c r="AE23" s="112"/>
-      <c r="AF23" s="112"/>
-      <c r="AG23" s="112"/>
-      <c r="AH23" s="105"/>
+      <c r="AD23" s="126"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="126"/>
+      <c r="AG23" s="126"/>
+      <c r="AH23" s="129"/>
       <c r="AI23" s="62">
         <v>0.92610001564025801</v>
       </c>
@@ -7934,9 +8000,9 @@
       </c>
     </row>
     <row r="24" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="110"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="136"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="52" t="s">
         <v>1</v>
       </c>
@@ -7964,9 +8030,9 @@
       <c r="P24" s="53"/>
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
+      <c r="S24" s="129"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
       <c r="V24" s="34"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
@@ -7975,11 +8041,11 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
       <c r="AC24" s="34"/>
-      <c r="AD24" s="112"/>
-      <c r="AE24" s="112"/>
-      <c r="AF24" s="112"/>
-      <c r="AG24" s="112"/>
-      <c r="AH24" s="105"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="126"/>
+      <c r="AG24" s="126"/>
+      <c r="AH24" s="129"/>
       <c r="AI24" s="41">
         <v>0.92439997196197499</v>
       </c>
@@ -7988,13 +8054,13 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="A25" s="134">
         <v>5</v>
       </c>
-      <c r="B25" s="111">
+      <c r="B25" s="125">
         <v>5</v>
       </c>
-      <c r="C25" s="111">
+      <c r="C25" s="125">
         <v>64</v>
       </c>
       <c r="D25" s="51" t="s">
@@ -8024,13 +8090,13 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
-      <c r="S25" s="104" t="s">
+      <c r="S25" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T25" s="111">
+      <c r="T25" s="125">
         <v>128</v>
       </c>
-      <c r="U25" s="111" t="s">
+      <c r="U25" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V25" s="43"/>
@@ -8041,19 +8107,19 @@
       <c r="AA25" s="43"/>
       <c r="AB25" s="43"/>
       <c r="AC25" s="43"/>
-      <c r="AD25" s="111">
+      <c r="AD25" s="125">
         <v>10</v>
       </c>
-      <c r="AE25" s="111" t="s">
+      <c r="AE25" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="111" t="s">
+      <c r="AF25" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG25" s="111">
+      <c r="AG25" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH25" s="104" t="s">
+      <c r="AH25" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI25" s="38">
@@ -8064,9 +8130,9 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="A26" s="135"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="50" t="s">
         <v>1</v>
       </c>
@@ -8094,9 +8160,9 @@
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
       <c r="V26" s="34"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
@@ -8105,11 +8171,11 @@
       <c r="AA26" s="34"/>
       <c r="AB26" s="34"/>
       <c r="AC26" s="34"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="105"/>
+      <c r="AD26" s="126"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="126"/>
+      <c r="AG26" s="126"/>
+      <c r="AH26" s="129"/>
       <c r="AI26" s="4">
         <v>0.92280000448226895</v>
       </c>
@@ -8118,9 +8184,9 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="50" t="s">
         <v>1</v>
       </c>
@@ -8148,9 +8214,9 @@
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
-      <c r="S27" s="105"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
+      <c r="S27" s="129"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
       <c r="V27" s="34"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
@@ -8159,11 +8225,11 @@
       <c r="AA27" s="34"/>
       <c r="AB27" s="34"/>
       <c r="AC27" s="34"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="105"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="126"/>
+      <c r="AG27" s="126"/>
+      <c r="AH27" s="129"/>
       <c r="AI27" s="4">
         <v>0.92229998111724798</v>
       </c>
@@ -8172,9 +8238,9 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="112"/>
-      <c r="C28" s="112"/>
+      <c r="A28" s="135"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="50" t="s">
         <v>1</v>
       </c>
@@ -8202,9 +8268,9 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="112"/>
-      <c r="U28" s="112"/>
+      <c r="S28" s="129"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
       <c r="V28" s="34"/>
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
@@ -8213,11 +8279,11 @@
       <c r="AA28" s="34"/>
       <c r="AB28" s="34"/>
       <c r="AC28" s="34"/>
-      <c r="AD28" s="112"/>
-      <c r="AE28" s="112"/>
-      <c r="AF28" s="112"/>
-      <c r="AG28" s="112"/>
-      <c r="AH28" s="105"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="126"/>
+      <c r="AG28" s="126"/>
+      <c r="AH28" s="129"/>
       <c r="AI28" s="4">
         <v>0.91780000925063998</v>
       </c>
@@ -8226,9 +8292,9 @@
       </c>
     </row>
     <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="110"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
       <c r="D29" s="85" t="s">
         <v>1</v>
       </c>
@@ -8256,9 +8322,9 @@
       <c r="P29" s="53"/>
       <c r="Q29" s="53"/>
       <c r="R29" s="53"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
+      <c r="S29" s="129"/>
+      <c r="T29" s="126"/>
+      <c r="U29" s="126"/>
       <c r="V29" s="34"/>
       <c r="W29" s="34"/>
       <c r="X29" s="34"/>
@@ -8267,11 +8333,11 @@
       <c r="AA29" s="34"/>
       <c r="AB29" s="34"/>
       <c r="AC29" s="34"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="112"/>
-      <c r="AF29" s="112"/>
-      <c r="AG29" s="112"/>
-      <c r="AH29" s="105"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="126"/>
+      <c r="AH29" s="129"/>
       <c r="AI29" s="83">
         <v>0.92510002851486195</v>
       </c>
@@ -8280,13 +8346,13 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
+      <c r="A30" s="134">
         <v>6</v>
       </c>
-      <c r="B30" s="111">
+      <c r="B30" s="125">
         <v>5</v>
       </c>
-      <c r="C30" s="111">
+      <c r="C30" s="125">
         <v>64</v>
       </c>
       <c r="D30" s="51" t="s">
@@ -8316,13 +8382,13 @@
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
-      <c r="S30" s="104" t="s">
+      <c r="S30" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="111">
+      <c r="T30" s="125">
         <v>128</v>
       </c>
-      <c r="U30" s="111" t="s">
+      <c r="U30" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V30" s="43"/>
@@ -8333,19 +8399,19 @@
       <c r="AA30" s="43"/>
       <c r="AB30" s="43"/>
       <c r="AC30" s="43"/>
-      <c r="AD30" s="111">
+      <c r="AD30" s="125">
         <v>10</v>
       </c>
-      <c r="AE30" s="111" t="s">
+      <c r="AE30" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF30" s="111" t="s">
+      <c r="AF30" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG30" s="111">
+      <c r="AG30" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH30" s="104" t="s">
+      <c r="AH30" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI30" s="38">
@@ -8356,9 +8422,9 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="135"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="50" t="s">
         <v>1</v>
       </c>
@@ -8386,9 +8452,9 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
-      <c r="S31" s="105"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
+      <c r="S31" s="129"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
       <c r="V31" s="34"/>
       <c r="W31" s="34"/>
       <c r="X31" s="34"/>
@@ -8397,11 +8463,11 @@
       <c r="AA31" s="34"/>
       <c r="AB31" s="34"/>
       <c r="AC31" s="34"/>
-      <c r="AD31" s="112"/>
-      <c r="AE31" s="112"/>
-      <c r="AF31" s="112"/>
-      <c r="AG31" s="112"/>
-      <c r="AH31" s="105"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="129"/>
       <c r="AI31" s="4">
         <v>0.92129999399185103</v>
       </c>
@@ -8410,9 +8476,9 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="112"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="50" t="s">
         <v>1</v>
       </c>
@@ -8440,9 +8506,9 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
-      <c r="S32" s="105"/>
-      <c r="T32" s="112"/>
-      <c r="U32" s="112"/>
+      <c r="S32" s="129"/>
+      <c r="T32" s="126"/>
+      <c r="U32" s="126"/>
       <c r="V32" s="34"/>
       <c r="W32" s="34"/>
       <c r="X32" s="34"/>
@@ -8451,11 +8517,11 @@
       <c r="AA32" s="34"/>
       <c r="AB32" s="34"/>
       <c r="AC32" s="34"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="112"/>
-      <c r="AF32" s="112"/>
-      <c r="AG32" s="112"/>
-      <c r="AH32" s="105"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="129"/>
       <c r="AI32" s="4">
         <v>0.92409998178482</v>
       </c>
@@ -8464,9 +8530,9 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
+      <c r="A33" s="135"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="61" t="s">
         <v>1</v>
       </c>
@@ -8494,9 +8560,9 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
-      <c r="S33" s="105"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
+      <c r="S33" s="129"/>
+      <c r="T33" s="126"/>
+      <c r="U33" s="126"/>
       <c r="V33" s="34"/>
       <c r="W33" s="34"/>
       <c r="X33" s="34"/>
@@ -8505,11 +8571,11 @@
       <c r="AA33" s="34"/>
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
-      <c r="AD33" s="112"/>
-      <c r="AE33" s="112"/>
-      <c r="AF33" s="112"/>
-      <c r="AG33" s="112"/>
-      <c r="AH33" s="105"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="126"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="129"/>
       <c r="AI33" s="62">
         <v>0.92430001497268599</v>
       </c>
@@ -8518,9 +8584,9 @@
       </c>
     </row>
     <row r="34" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="110"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="52" t="s">
         <v>1</v>
       </c>
@@ -8548,9 +8614,9 @@
       <c r="P34" s="53"/>
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
-      <c r="S34" s="105"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="126"/>
+      <c r="U34" s="126"/>
       <c r="V34" s="34"/>
       <c r="W34" s="34"/>
       <c r="X34" s="34"/>
@@ -8559,11 +8625,11 @@
       <c r="AA34" s="34"/>
       <c r="AB34" s="34"/>
       <c r="AC34" s="34"/>
-      <c r="AD34" s="112"/>
-      <c r="AE34" s="112"/>
-      <c r="AF34" s="112"/>
-      <c r="AG34" s="112"/>
-      <c r="AH34" s="105"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="126"/>
+      <c r="AG34" s="126"/>
+      <c r="AH34" s="129"/>
       <c r="AI34" s="41">
         <v>0.92009997367858798</v>
       </c>
@@ -8572,13 +8638,13 @@
       </c>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="108">
+      <c r="A35" s="134">
         <v>7</v>
       </c>
-      <c r="B35" s="111">
+      <c r="B35" s="125">
         <v>5</v>
       </c>
-      <c r="C35" s="111">
+      <c r="C35" s="125">
         <v>64</v>
       </c>
       <c r="D35" s="51" t="s">
@@ -8608,13 +8674,13 @@
       <c r="P35" s="39"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
-      <c r="S35" s="104" t="s">
+      <c r="S35" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="111">
+      <c r="T35" s="125">
         <v>128</v>
       </c>
-      <c r="U35" s="111" t="s">
+      <c r="U35" s="125" t="s">
         <v>21</v>
       </c>
       <c r="V35" s="43"/>
@@ -8625,19 +8691,19 @@
       <c r="AA35" s="43"/>
       <c r="AB35" s="43"/>
       <c r="AC35" s="43"/>
-      <c r="AD35" s="111">
+      <c r="AD35" s="125">
         <v>10</v>
       </c>
-      <c r="AE35" s="111" t="s">
+      <c r="AE35" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="AF35" s="111" t="s">
+      <c r="AF35" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="AG35" s="111">
+      <c r="AG35" s="125">
         <v>1E-3</v>
       </c>
-      <c r="AH35" s="104" t="s">
+      <c r="AH35" s="128" t="s">
         <v>30</v>
       </c>
       <c r="AI35" s="38">
@@ -8648,9 +8714,9 @@
       </c>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="112"/>
+      <c r="A36" s="135"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="50" t="s">
         <v>1</v>
       </c>
@@ -8678,9 +8744,9 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="112"/>
-      <c r="U36" s="112"/>
+      <c r="S36" s="129"/>
+      <c r="T36" s="126"/>
+      <c r="U36" s="126"/>
       <c r="V36" s="34"/>
       <c r="W36" s="34"/>
       <c r="X36" s="34"/>
@@ -8689,11 +8755,11 @@
       <c r="AA36" s="34"/>
       <c r="AB36" s="34"/>
       <c r="AC36" s="34"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
-      <c r="AG36" s="112"/>
-      <c r="AH36" s="105"/>
+      <c r="AD36" s="126"/>
+      <c r="AE36" s="126"/>
+      <c r="AF36" s="126"/>
+      <c r="AG36" s="126"/>
+      <c r="AH36" s="129"/>
       <c r="AI36" s="4">
         <v>0.92009997367858798</v>
       </c>
@@ -8702,9 +8768,9 @@
       </c>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="112"/>
+      <c r="A37" s="135"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
       <c r="D37" s="61" t="s">
         <v>1</v>
       </c>
@@ -8732,9 +8798,9 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="112"/>
-      <c r="U37" s="112"/>
+      <c r="S37" s="129"/>
+      <c r="T37" s="126"/>
+      <c r="U37" s="126"/>
       <c r="V37" s="34"/>
       <c r="W37" s="34"/>
       <c r="X37" s="34"/>
@@ -8743,11 +8809,11 @@
       <c r="AA37" s="34"/>
       <c r="AB37" s="34"/>
       <c r="AC37" s="34"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
-      <c r="AG37" s="112"/>
-      <c r="AH37" s="105"/>
+      <c r="AD37" s="126"/>
+      <c r="AE37" s="126"/>
+      <c r="AF37" s="126"/>
+      <c r="AG37" s="126"/>
+      <c r="AH37" s="129"/>
       <c r="AI37" s="62">
         <v>0.92390000820159901</v>
       </c>
@@ -8756,9 +8822,9 @@
       </c>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="112"/>
+      <c r="A38" s="135"/>
+      <c r="B38" s="126"/>
+      <c r="C38" s="126"/>
       <c r="D38" s="50" t="s">
         <v>1</v>
       </c>
@@ -8786,9 +8852,9 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
-      <c r="S38" s="105"/>
-      <c r="T38" s="112"/>
-      <c r="U38" s="112"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="126"/>
+      <c r="U38" s="126"/>
       <c r="V38" s="34"/>
       <c r="W38" s="34"/>
       <c r="X38" s="34"/>
@@ -8797,11 +8863,11 @@
       <c r="AA38" s="34"/>
       <c r="AB38" s="34"/>
       <c r="AC38" s="34"/>
-      <c r="AD38" s="112"/>
-      <c r="AE38" s="112"/>
-      <c r="AF38" s="112"/>
-      <c r="AG38" s="112"/>
-      <c r="AH38" s="105"/>
+      <c r="AD38" s="126"/>
+      <c r="AE38" s="126"/>
+      <c r="AF38" s="126"/>
+      <c r="AG38" s="126"/>
+      <c r="AH38" s="129"/>
       <c r="AI38" s="4">
         <v>0.91879999637603704</v>
       </c>
@@ -8810,9 +8876,9 @@
       </c>
     </row>
     <row r="39" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="112"/>
+      <c r="A39" s="135"/>
+      <c r="B39" s="126"/>
+      <c r="C39" s="126"/>
       <c r="D39" s="55" t="s">
         <v>1</v>
       </c>
@@ -8840,9 +8906,9 @@
       <c r="P39" s="58"/>
       <c r="Q39" s="58"/>
       <c r="R39" s="58"/>
-      <c r="S39" s="105"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="126"/>
+      <c r="U39" s="126"/>
       <c r="V39" s="34"/>
       <c r="W39" s="34"/>
       <c r="X39" s="34"/>
@@ -8851,11 +8917,11 @@
       <c r="AA39" s="34"/>
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
-      <c r="AD39" s="112"/>
-      <c r="AE39" s="112"/>
-      <c r="AF39" s="112"/>
-      <c r="AG39" s="112"/>
-      <c r="AH39" s="105"/>
+      <c r="AD39" s="126"/>
+      <c r="AE39" s="126"/>
+      <c r="AF39" s="126"/>
+      <c r="AG39" s="126"/>
+      <c r="AH39" s="129"/>
       <c r="AI39" s="56">
         <v>0.92199999094009399</v>
       </c>
@@ -8864,31 +8930,31 @@
       </c>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="101">
+      <c r="A40" s="117">
         <v>8</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="111">
         <v>5</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="111">
         <v>64</v>
       </c>
-      <c r="D40" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="98">
+      <c r="D40" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="120">
         <v>32</v>
       </c>
-      <c r="F40" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="98">
+      <c r="F40" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="120">
         <v>128</v>
       </c>
-      <c r="I40" s="98" t="s">
+      <c r="I40" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J40" s="42"/>
@@ -8900,7 +8966,7 @@
       <c r="P40" s="42"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="42"/>
-      <c r="S40" s="95" t="s">
+      <c r="S40" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T40" s="38">
@@ -8917,19 +8983,19 @@
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
       <c r="AC40" s="39"/>
-      <c r="AD40" s="92">
+      <c r="AD40" s="111">
         <v>10</v>
       </c>
-      <c r="AE40" s="92" t="s">
+      <c r="AE40" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF40" s="92" t="s">
+      <c r="AF40" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG40" s="92">
+      <c r="AG40" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH40" s="95" t="s">
+      <c r="AH40" s="108" t="s">
         <v>30</v>
       </c>
       <c r="AI40" s="87">
@@ -8940,15 +9006,15 @@
       </c>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
@@ -8958,7 +9024,7 @@
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
       <c r="R41" s="32"/>
-      <c r="S41" s="96"/>
+      <c r="S41" s="109"/>
       <c r="T41" s="62">
         <v>128</v>
       </c>
@@ -8977,11 +9043,11 @@
       <c r="AA41" s="35"/>
       <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
-      <c r="AD41" s="93"/>
-      <c r="AE41" s="93"/>
-      <c r="AF41" s="93"/>
-      <c r="AG41" s="93"/>
-      <c r="AH41" s="96"/>
+      <c r="AD41" s="112"/>
+      <c r="AE41" s="112"/>
+      <c r="AF41" s="112"/>
+      <c r="AG41" s="112"/>
+      <c r="AH41" s="109"/>
       <c r="AI41" s="62">
         <v>0.92820000648498502</v>
       </c>
@@ -8990,15 +9056,15 @@
       </c>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="102"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
@@ -9008,7 +9074,7 @@
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
-      <c r="S42" s="96"/>
+      <c r="S42" s="109"/>
       <c r="T42" s="4">
         <v>128</v>
       </c>
@@ -9031,11 +9097,11 @@
       <c r="AA42" s="35"/>
       <c r="AB42" s="35"/>
       <c r="AC42" s="35"/>
-      <c r="AD42" s="93"/>
-      <c r="AE42" s="93"/>
-      <c r="AF42" s="93"/>
-      <c r="AG42" s="93"/>
-      <c r="AH42" s="96"/>
+      <c r="AD42" s="112"/>
+      <c r="AE42" s="112"/>
+      <c r="AF42" s="112"/>
+      <c r="AG42" s="112"/>
+      <c r="AH42" s="109"/>
       <c r="AI42" s="4">
         <v>0.92320001125335605</v>
       </c>
@@ -9044,15 +9110,15 @@
       </c>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
+      <c r="A43" s="118"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="121"/>
+      <c r="H43" s="121"/>
+      <c r="I43" s="121"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
@@ -9062,7 +9128,7 @@
       <c r="P43" s="32"/>
       <c r="Q43" s="32"/>
       <c r="R43" s="32"/>
-      <c r="S43" s="96"/>
+      <c r="S43" s="109"/>
       <c r="T43" s="4">
         <v>128</v>
       </c>
@@ -9089,11 +9155,11 @@
       </c>
       <c r="AB43" s="35"/>
       <c r="AC43" s="35"/>
-      <c r="AD43" s="93"/>
-      <c r="AE43" s="93"/>
-      <c r="AF43" s="93"/>
-      <c r="AG43" s="93"/>
-      <c r="AH43" s="96"/>
+      <c r="AD43" s="112"/>
+      <c r="AE43" s="112"/>
+      <c r="AF43" s="112"/>
+      <c r="AG43" s="112"/>
+      <c r="AH43" s="109"/>
       <c r="AI43" s="4">
         <v>0.91189998388290405</v>
       </c>
@@ -9102,15 +9168,15 @@
       </c>
     </row>
     <row r="44" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="117"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
       <c r="J44" s="36"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
@@ -9120,7 +9186,7 @@
       <c r="P44" s="36"/>
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
-      <c r="S44" s="120"/>
+      <c r="S44" s="123"/>
       <c r="T44" s="56">
         <v>128</v>
       </c>
@@ -9151,11 +9217,11 @@
       <c r="AC44" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="118"/>
-      <c r="AF44" s="118"/>
-      <c r="AG44" s="118"/>
-      <c r="AH44" s="120"/>
+      <c r="AD44" s="124"/>
+      <c r="AE44" s="124"/>
+      <c r="AF44" s="124"/>
+      <c r="AG44" s="124"/>
+      <c r="AH44" s="123"/>
       <c r="AI44" s="56">
         <v>0.92280000448226895</v>
       </c>
@@ -9164,31 +9230,31 @@
       </c>
     </row>
     <row r="45" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="101">
-        <v>8</v>
-      </c>
-      <c r="B45" s="92">
+      <c r="A45" s="117">
+        <v>9</v>
+      </c>
+      <c r="B45" s="111">
         <v>5</v>
       </c>
-      <c r="C45" s="92">
+      <c r="C45" s="111">
         <v>64</v>
       </c>
-      <c r="D45" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" s="98">
+      <c r="D45" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="120">
         <v>32</v>
       </c>
-      <c r="F45" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="98">
+      <c r="F45" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="120">
         <v>128</v>
       </c>
-      <c r="I45" s="98" t="s">
+      <c r="I45" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J45" s="42"/>
@@ -9200,7 +9266,7 @@
       <c r="P45" s="42"/>
       <c r="Q45" s="42"/>
       <c r="R45" s="42"/>
-      <c r="S45" s="95" t="s">
+      <c r="S45" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T45" s="87">
@@ -9221,34 +9287,38 @@
       <c r="AA45" s="38"/>
       <c r="AB45" s="38"/>
       <c r="AC45" s="38"/>
-      <c r="AD45" s="92">
+      <c r="AD45" s="111">
         <v>10</v>
       </c>
-      <c r="AE45" s="92" t="s">
+      <c r="AE45" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF45" s="92" t="s">
+      <c r="AF45" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG45" s="92">
+      <c r="AG45" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH45" s="95" t="s">
+      <c r="AH45" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AI45" s="38"/>
-      <c r="AJ45" s="76"/>
+      <c r="AI45" s="38">
+        <v>0.904100000858306</v>
+      </c>
+      <c r="AJ45" s="76">
+        <v>1.2117175925925925E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
+      <c r="A46" s="118"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="121"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
@@ -9258,7 +9328,7 @@
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
-      <c r="S46" s="96"/>
+      <c r="S46" s="109"/>
       <c r="T46" s="13">
         <v>24</v>
       </c>
@@ -9277,24 +9347,28 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
-      <c r="AD46" s="93"/>
-      <c r="AE46" s="93"/>
-      <c r="AF46" s="93"/>
-      <c r="AG46" s="93"/>
-      <c r="AH46" s="96"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="77"/>
+      <c r="AD46" s="112"/>
+      <c r="AE46" s="112"/>
+      <c r="AF46" s="112"/>
+      <c r="AG46" s="112"/>
+      <c r="AH46" s="109"/>
+      <c r="AI46" s="4">
+        <v>0.910700023174285</v>
+      </c>
+      <c r="AJ46" s="77">
+        <v>1.5506701388888889E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="102"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
       <c r="J47" s="32"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
@@ -9304,7 +9378,7 @@
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32"/>
-      <c r="S47" s="96"/>
+      <c r="S47" s="109"/>
       <c r="T47" s="13">
         <v>24</v>
       </c>
@@ -9323,24 +9397,28 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
-      <c r="AD47" s="93"/>
-      <c r="AE47" s="93"/>
-      <c r="AF47" s="93"/>
-      <c r="AG47" s="93"/>
-      <c r="AH47" s="96"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="77"/>
+      <c r="AD47" s="112"/>
+      <c r="AE47" s="112"/>
+      <c r="AF47" s="112"/>
+      <c r="AG47" s="112"/>
+      <c r="AH47" s="109"/>
+      <c r="AI47" s="4">
+        <v>0.91149997711181596</v>
+      </c>
+      <c r="AJ47" s="77">
+        <v>1.0342407407407406E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="102"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
+      <c r="A48" s="118"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
       <c r="J48" s="32"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
@@ -9350,17 +9428,17 @@
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="13">
+      <c r="S48" s="109"/>
+      <c r="T48" s="62">
         <v>24</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V48" s="13">
+      <c r="U48" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="V48" s="62">
         <v>128</v>
       </c>
-      <c r="W48" s="13" t="s">
+      <c r="W48" s="62" t="s">
         <v>21</v>
       </c>
       <c r="X48" s="4"/>
@@ -9369,24 +9447,28 @@
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
-      <c r="AD48" s="93"/>
-      <c r="AE48" s="93"/>
-      <c r="AF48" s="93"/>
-      <c r="AG48" s="93"/>
-      <c r="AH48" s="96"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="77"/>
+      <c r="AD48" s="112"/>
+      <c r="AE48" s="112"/>
+      <c r="AF48" s="112"/>
+      <c r="AG48" s="112"/>
+      <c r="AH48" s="109"/>
+      <c r="AI48" s="62">
+        <v>0.91600000858306796</v>
+      </c>
+      <c r="AJ48" s="79">
+        <v>1.1530312500000001E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="103"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
       <c r="J49" s="44"/>
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
@@ -9396,17 +9478,17 @@
       <c r="P49" s="44"/>
       <c r="Q49" s="44"/>
       <c r="R49" s="44"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="121">
+      <c r="S49" s="110"/>
+      <c r="T49" s="89">
         <v>24</v>
       </c>
-      <c r="U49" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="V49" s="121">
+      <c r="U49" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="V49" s="89">
         <v>256</v>
       </c>
-      <c r="W49" s="121" t="s">
+      <c r="W49" s="89" t="s">
         <v>21</v>
       </c>
       <c r="X49" s="41"/>
@@ -9415,40 +9497,44 @@
       <c r="AA49" s="41"/>
       <c r="AB49" s="41"/>
       <c r="AC49" s="41"/>
-      <c r="AD49" s="94"/>
-      <c r="AE49" s="94"/>
-      <c r="AF49" s="94"/>
-      <c r="AG49" s="94"/>
-      <c r="AH49" s="97"/>
-      <c r="AI49" s="41"/>
-      <c r="AJ49" s="78"/>
+      <c r="AD49" s="113"/>
+      <c r="AE49" s="113"/>
+      <c r="AF49" s="113"/>
+      <c r="AG49" s="113"/>
+      <c r="AH49" s="110"/>
+      <c r="AI49" s="41">
+        <v>0.91060000658035201</v>
+      </c>
+      <c r="AJ49" s="78">
+        <v>1.2446990740740739E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A50" s="101">
-        <v>8</v>
-      </c>
-      <c r="B50" s="92">
+      <c r="A50" s="117">
+        <v>10</v>
+      </c>
+      <c r="B50" s="111">
         <v>5</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="111">
         <v>64</v>
       </c>
-      <c r="D50" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="98">
+      <c r="D50" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="120">
         <v>32</v>
       </c>
-      <c r="F50" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="98">
+      <c r="F50" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="120">
         <v>128</v>
       </c>
-      <c r="I50" s="98" t="s">
+      <c r="I50" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J50" s="42"/>
@@ -9460,7 +9546,7 @@
       <c r="P50" s="42"/>
       <c r="Q50" s="42"/>
       <c r="R50" s="42"/>
-      <c r="S50" s="95" t="s">
+      <c r="S50" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T50" s="87">
@@ -9481,34 +9567,38 @@
       <c r="AA50" s="38"/>
       <c r="AB50" s="38"/>
       <c r="AC50" s="38"/>
-      <c r="AD50" s="92">
+      <c r="AD50" s="111">
         <v>10</v>
       </c>
-      <c r="AE50" s="92" t="s">
+      <c r="AE50" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF50" s="92" t="s">
+      <c r="AF50" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG50" s="92">
+      <c r="AG50" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH50" s="95" t="s">
+      <c r="AH50" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AI50" s="38"/>
-      <c r="AJ50" s="76"/>
+      <c r="AI50" s="38">
+        <v>0.91469997167587203</v>
+      </c>
+      <c r="AJ50" s="76">
+        <v>1.2931238425925926E-2</v>
+      </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="102"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
+      <c r="A51" s="118"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
       <c r="J51" s="32"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
@@ -9518,7 +9608,7 @@
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="32"/>
-      <c r="S51" s="96"/>
+      <c r="S51" s="109"/>
       <c r="T51" s="13">
         <v>32</v>
       </c>
@@ -9537,24 +9627,28 @@
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
-      <c r="AD51" s="93"/>
-      <c r="AE51" s="93"/>
-      <c r="AF51" s="93"/>
-      <c r="AG51" s="93"/>
-      <c r="AH51" s="96"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="77"/>
+      <c r="AD51" s="112"/>
+      <c r="AE51" s="112"/>
+      <c r="AF51" s="112"/>
+      <c r="AG51" s="112"/>
+      <c r="AH51" s="109"/>
+      <c r="AI51" s="4">
+        <v>0.91930001974105802</v>
+      </c>
+      <c r="AJ51" s="77">
+        <v>1.0762951388888888E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="102"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
+      <c r="A52" s="118"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="121"/>
+      <c r="E52" s="121"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="121"/>
       <c r="J52" s="32"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
@@ -9564,7 +9658,7 @@
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
-      <c r="S52" s="96"/>
+      <c r="S52" s="109"/>
       <c r="T52" s="13">
         <v>32</v>
       </c>
@@ -9583,24 +9677,28 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
-      <c r="AD52" s="93"/>
-      <c r="AE52" s="93"/>
-      <c r="AF52" s="93"/>
-      <c r="AG52" s="93"/>
-      <c r="AH52" s="96"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="77"/>
+      <c r="AD52" s="112"/>
+      <c r="AE52" s="112"/>
+      <c r="AF52" s="112"/>
+      <c r="AG52" s="112"/>
+      <c r="AH52" s="109"/>
+      <c r="AI52" s="4">
+        <v>0.91720002889633101</v>
+      </c>
+      <c r="AJ52" s="77">
+        <v>1.2010127314814814E-2</v>
+      </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="102"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
+      <c r="A53" s="118"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
@@ -9610,17 +9708,17 @@
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
       <c r="R53" s="32"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="13">
+      <c r="S53" s="109"/>
+      <c r="T53" s="62">
         <v>32</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V53" s="13">
+      <c r="U53" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="V53" s="62">
         <v>128</v>
       </c>
-      <c r="W53" s="13" t="s">
+      <c r="W53" s="62" t="s">
         <v>21</v>
       </c>
       <c r="X53" s="4"/>
@@ -9629,24 +9727,28 @@
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
-      <c r="AD53" s="93"/>
-      <c r="AE53" s="93"/>
-      <c r="AF53" s="93"/>
-      <c r="AG53" s="93"/>
-      <c r="AH53" s="96"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="77"/>
+      <c r="AD53" s="112"/>
+      <c r="AE53" s="112"/>
+      <c r="AF53" s="112"/>
+      <c r="AG53" s="112"/>
+      <c r="AH53" s="109"/>
+      <c r="AI53" s="62">
+        <v>0.92000001668929998</v>
+      </c>
+      <c r="AJ53" s="79">
+        <v>1.3509999999999999E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="103"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="122"/>
       <c r="J54" s="44"/>
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
@@ -9656,17 +9758,17 @@
       <c r="P54" s="44"/>
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="121">
+      <c r="S54" s="110"/>
+      <c r="T54" s="89">
         <v>32</v>
       </c>
-      <c r="U54" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="V54" s="121">
+      <c r="U54" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="V54" s="89">
         <v>256</v>
       </c>
-      <c r="W54" s="121" t="s">
+      <c r="W54" s="89" t="s">
         <v>21</v>
       </c>
       <c r="X54" s="41"/>
@@ -9675,40 +9777,44 @@
       <c r="AA54" s="41"/>
       <c r="AB54" s="41"/>
       <c r="AC54" s="41"/>
-      <c r="AD54" s="94"/>
-      <c r="AE54" s="94"/>
-      <c r="AF54" s="94"/>
-      <c r="AG54" s="94"/>
-      <c r="AH54" s="97"/>
-      <c r="AI54" s="41"/>
-      <c r="AJ54" s="78"/>
+      <c r="AD54" s="113"/>
+      <c r="AE54" s="113"/>
+      <c r="AF54" s="113"/>
+      <c r="AG54" s="113"/>
+      <c r="AH54" s="110"/>
+      <c r="AI54" s="41">
+        <v>0.91729998588562001</v>
+      </c>
+      <c r="AJ54" s="78">
+        <v>1.233266203703704E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="101">
-        <v>8</v>
-      </c>
-      <c r="B55" s="92">
+      <c r="A55" s="117">
+        <v>11</v>
+      </c>
+      <c r="B55" s="111">
         <v>5</v>
       </c>
-      <c r="C55" s="92">
+      <c r="C55" s="111">
         <v>64</v>
       </c>
-      <c r="D55" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="98">
+      <c r="D55" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="120">
         <v>32</v>
       </c>
-      <c r="F55" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H55" s="98">
+      <c r="F55" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="120">
         <v>128</v>
       </c>
-      <c r="I55" s="98" t="s">
+      <c r="I55" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J55" s="42"/>
@@ -9720,7 +9826,7 @@
       <c r="P55" s="42"/>
       <c r="Q55" s="42"/>
       <c r="R55" s="42"/>
-      <c r="S55" s="95" t="s">
+      <c r="S55" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T55" s="87">
@@ -9741,34 +9847,38 @@
       <c r="AA55" s="38"/>
       <c r="AB55" s="38"/>
       <c r="AC55" s="38"/>
-      <c r="AD55" s="92">
+      <c r="AD55" s="111">
         <v>10</v>
       </c>
-      <c r="AE55" s="92" t="s">
+      <c r="AE55" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF55" s="92" t="s">
+      <c r="AF55" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG55" s="92">
+      <c r="AG55" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH55" s="95" t="s">
+      <c r="AH55" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AI55" s="38"/>
-      <c r="AJ55" s="76"/>
+      <c r="AI55" s="38">
+        <v>0.91500002145767201</v>
+      </c>
+      <c r="AJ55" s="76">
+        <v>1.3067118055555556E-2</v>
+      </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="99"/>
+      <c r="A56" s="118"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
@@ -9778,7 +9888,7 @@
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
       <c r="R56" s="32"/>
-      <c r="S56" s="96"/>
+      <c r="S56" s="109"/>
       <c r="T56" s="13">
         <v>64</v>
       </c>
@@ -9797,24 +9907,28 @@
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
-      <c r="AD56" s="93"/>
-      <c r="AE56" s="93"/>
-      <c r="AF56" s="93"/>
-      <c r="AG56" s="93"/>
-      <c r="AH56" s="96"/>
-      <c r="AI56" s="4"/>
-      <c r="AJ56" s="77"/>
+      <c r="AD56" s="112"/>
+      <c r="AE56" s="112"/>
+      <c r="AF56" s="112"/>
+      <c r="AG56" s="112"/>
+      <c r="AH56" s="109"/>
+      <c r="AI56" s="4">
+        <v>0.91710001230239802</v>
+      </c>
+      <c r="AJ56" s="77">
+        <v>1.1958125E-2</v>
+      </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
+      <c r="A57" s="118"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="121"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
@@ -9824,7 +9938,7 @@
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="32"/>
-      <c r="S57" s="96"/>
+      <c r="S57" s="109"/>
       <c r="T57" s="13">
         <v>64</v>
       </c>
@@ -9843,24 +9957,28 @@
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
-      <c r="AD57" s="93"/>
-      <c r="AE57" s="93"/>
-      <c r="AF57" s="93"/>
-      <c r="AG57" s="93"/>
-      <c r="AH57" s="96"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="77"/>
+      <c r="AD57" s="112"/>
+      <c r="AE57" s="112"/>
+      <c r="AF57" s="112"/>
+      <c r="AG57" s="112"/>
+      <c r="AH57" s="109"/>
+      <c r="AI57" s="4">
+        <v>0.91109997034072798</v>
+      </c>
+      <c r="AJ57" s="77">
+        <v>1.3640717592592591E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="102"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
+      <c r="A58" s="118"/>
+      <c r="B58" s="112"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
       <c r="J58" s="32"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
@@ -9870,7 +9988,7 @@
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
       <c r="R58" s="32"/>
-      <c r="S58" s="96"/>
+      <c r="S58" s="109"/>
       <c r="T58" s="13">
         <v>64</v>
       </c>
@@ -9889,24 +10007,28 @@
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
-      <c r="AD58" s="93"/>
-      <c r="AE58" s="93"/>
-      <c r="AF58" s="93"/>
-      <c r="AG58" s="93"/>
-      <c r="AH58" s="96"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="77"/>
+      <c r="AD58" s="112"/>
+      <c r="AE58" s="112"/>
+      <c r="AF58" s="112"/>
+      <c r="AG58" s="112"/>
+      <c r="AH58" s="109"/>
+      <c r="AI58" s="4">
+        <v>0.91850000619888295</v>
+      </c>
+      <c r="AJ58" s="77">
+        <v>1.2621828703703703E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="103"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
+      <c r="A59" s="119"/>
+      <c r="B59" s="113"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
       <c r="J59" s="44"/>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
@@ -9916,17 +10038,17 @@
       <c r="P59" s="44"/>
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
-      <c r="S59" s="97"/>
-      <c r="T59" s="121">
+      <c r="S59" s="110"/>
+      <c r="T59" s="83">
         <v>64</v>
       </c>
-      <c r="U59" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="V59" s="121">
+      <c r="U59" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="V59" s="83">
         <v>256</v>
       </c>
-      <c r="W59" s="121" t="s">
+      <c r="W59" s="83" t="s">
         <v>21</v>
       </c>
       <c r="X59" s="41"/>
@@ -9935,40 +10057,44 @@
       <c r="AA59" s="41"/>
       <c r="AB59" s="41"/>
       <c r="AC59" s="41"/>
-      <c r="AD59" s="94"/>
-      <c r="AE59" s="94"/>
-      <c r="AF59" s="94"/>
-      <c r="AG59" s="94"/>
-      <c r="AH59" s="97"/>
-      <c r="AI59" s="41"/>
-      <c r="AJ59" s="78"/>
+      <c r="AD59" s="113"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="113"/>
+      <c r="AG59" s="113"/>
+      <c r="AH59" s="110"/>
+      <c r="AI59" s="83">
+        <v>0.92089998722076405</v>
+      </c>
+      <c r="AJ59" s="84">
+        <v>1.1163993055555555E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A60" s="101">
-        <v>8</v>
-      </c>
-      <c r="B60" s="92">
+      <c r="A60" s="117">
+        <v>12</v>
+      </c>
+      <c r="B60" s="111">
         <v>5</v>
       </c>
-      <c r="C60" s="92">
+      <c r="C60" s="111">
         <v>64</v>
       </c>
-      <c r="D60" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="98">
+      <c r="D60" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="120">
         <v>32</v>
       </c>
-      <c r="F60" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="98">
+      <c r="F60" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="120">
         <v>128</v>
       </c>
-      <c r="I60" s="98" t="s">
+      <c r="I60" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J60" s="42"/>
@@ -9980,7 +10106,7 @@
       <c r="P60" s="42"/>
       <c r="Q60" s="42"/>
       <c r="R60" s="42"/>
-      <c r="S60" s="95" t="s">
+      <c r="S60" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T60" s="87">
@@ -10001,34 +10127,38 @@
       <c r="AA60" s="38"/>
       <c r="AB60" s="38"/>
       <c r="AC60" s="38"/>
-      <c r="AD60" s="92">
+      <c r="AD60" s="111">
         <v>10</v>
       </c>
-      <c r="AE60" s="92" t="s">
+      <c r="AE60" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF60" s="92" t="s">
+      <c r="AF60" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG60" s="92">
+      <c r="AG60" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH60" s="95" t="s">
+      <c r="AH60" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="76"/>
+      <c r="AI60" s="38">
+        <v>0.91380000114440896</v>
+      </c>
+      <c r="AJ60" s="76">
+        <v>1.4227060185185186E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A61" s="102"/>
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="99"/>
+      <c r="A61" s="118"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
       <c r="J61" s="32"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
@@ -10038,7 +10168,7 @@
       <c r="P61" s="32"/>
       <c r="Q61" s="32"/>
       <c r="R61" s="32"/>
-      <c r="S61" s="96"/>
+      <c r="S61" s="109"/>
       <c r="T61" s="13">
         <v>128</v>
       </c>
@@ -10057,24 +10187,28 @@
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
-      <c r="AD61" s="93"/>
-      <c r="AE61" s="93"/>
-      <c r="AF61" s="93"/>
-      <c r="AG61" s="93"/>
-      <c r="AH61" s="96"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="77"/>
+      <c r="AD61" s="112"/>
+      <c r="AE61" s="112"/>
+      <c r="AF61" s="112"/>
+      <c r="AG61" s="112"/>
+      <c r="AH61" s="109"/>
+      <c r="AI61" s="4">
+        <v>0.92100000381469704</v>
+      </c>
+      <c r="AJ61" s="77">
+        <v>1.3092662037037038E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A62" s="102"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
+      <c r="A62" s="118"/>
+      <c r="B62" s="112"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="121"/>
       <c r="J62" s="32"/>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
@@ -10084,7 +10218,7 @@
       <c r="P62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
-      <c r="S62" s="96"/>
+      <c r="S62" s="109"/>
       <c r="T62" s="13">
         <v>128</v>
       </c>
@@ -10103,24 +10237,28 @@
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
-      <c r="AD62" s="93"/>
-      <c r="AE62" s="93"/>
-      <c r="AF62" s="93"/>
-      <c r="AG62" s="93"/>
-      <c r="AH62" s="96"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="77"/>
+      <c r="AD62" s="112"/>
+      <c r="AE62" s="112"/>
+      <c r="AF62" s="112"/>
+      <c r="AG62" s="112"/>
+      <c r="AH62" s="109"/>
+      <c r="AI62" s="4">
+        <v>0.91549998521804798</v>
+      </c>
+      <c r="AJ62" s="77">
+        <v>1.1618182870370371E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A63" s="102"/>
-      <c r="B63" s="93"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
+      <c r="A63" s="118"/>
+      <c r="B63" s="112"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
       <c r="J63" s="32"/>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
@@ -10130,17 +10268,17 @@
       <c r="P63" s="32"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="32"/>
-      <c r="S63" s="96"/>
-      <c r="T63" s="13">
+      <c r="S63" s="109"/>
+      <c r="T63" s="62">
         <v>128</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V63" s="13">
+      <c r="U63" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="V63" s="62">
         <v>128</v>
       </c>
-      <c r="W63" s="13" t="s">
+      <c r="W63" s="62" t="s">
         <v>21</v>
       </c>
       <c r="X63" s="4"/>
@@ -10149,28 +10287,28 @@
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
-      <c r="AD63" s="93"/>
-      <c r="AE63" s="93"/>
-      <c r="AF63" s="93"/>
-      <c r="AG63" s="93"/>
-      <c r="AH63" s="96"/>
-      <c r="AI63" s="13">
+      <c r="AD63" s="112"/>
+      <c r="AE63" s="112"/>
+      <c r="AF63" s="112"/>
+      <c r="AG63" s="112"/>
+      <c r="AH63" s="109"/>
+      <c r="AI63" s="62">
         <v>0.92820000648498502</v>
       </c>
-      <c r="AJ63" s="122">
+      <c r="AJ63" s="79">
         <v>1.3521898148148149E-2</v>
       </c>
     </row>
     <row r="64" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="103"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="100"/>
+      <c r="A64" s="119"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="113"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
@@ -10180,17 +10318,17 @@
       <c r="P64" s="44"/>
       <c r="Q64" s="44"/>
       <c r="R64" s="44"/>
-      <c r="S64" s="97"/>
-      <c r="T64" s="121">
+      <c r="S64" s="110"/>
+      <c r="T64" s="89">
         <v>128</v>
       </c>
-      <c r="U64" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="V64" s="121">
+      <c r="U64" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="V64" s="89">
         <v>256</v>
       </c>
-      <c r="W64" s="121" t="s">
+      <c r="W64" s="89" t="s">
         <v>21</v>
       </c>
       <c r="X64" s="41"/>
@@ -10199,40 +10337,44 @@
       <c r="AA64" s="41"/>
       <c r="AB64" s="41"/>
       <c r="AC64" s="41"/>
-      <c r="AD64" s="94"/>
-      <c r="AE64" s="94"/>
-      <c r="AF64" s="94"/>
-      <c r="AG64" s="94"/>
-      <c r="AH64" s="97"/>
-      <c r="AI64" s="41"/>
-      <c r="AJ64" s="78"/>
+      <c r="AD64" s="113"/>
+      <c r="AE64" s="113"/>
+      <c r="AF64" s="113"/>
+      <c r="AG64" s="113"/>
+      <c r="AH64" s="110"/>
+      <c r="AI64" s="41">
+        <v>0.908500015735626</v>
+      </c>
+      <c r="AJ64" s="78">
+        <v>1.2574606481481482E-2</v>
+      </c>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" s="101">
-        <v>8</v>
-      </c>
-      <c r="B65" s="92">
+      <c r="A65" s="117">
+        <v>13</v>
+      </c>
+      <c r="B65" s="111">
         <v>5</v>
       </c>
-      <c r="C65" s="92">
+      <c r="C65" s="111">
         <v>64</v>
       </c>
-      <c r="D65" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" s="98">
+      <c r="D65" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="120">
         <v>32</v>
       </c>
-      <c r="F65" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H65" s="98">
+      <c r="F65" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="120">
         <v>128</v>
       </c>
-      <c r="I65" s="98" t="s">
+      <c r="I65" s="120" t="s">
         <v>21</v>
       </c>
       <c r="J65" s="42"/>
@@ -10244,7 +10386,7 @@
       <c r="P65" s="42"/>
       <c r="Q65" s="42"/>
       <c r="R65" s="42"/>
-      <c r="S65" s="95" t="s">
+      <c r="S65" s="108" t="s">
         <v>32</v>
       </c>
       <c r="T65" s="87">
@@ -10265,34 +10407,38 @@
       <c r="AA65" s="38"/>
       <c r="AB65" s="38"/>
       <c r="AC65" s="38"/>
-      <c r="AD65" s="92">
+      <c r="AD65" s="111">
         <v>10</v>
       </c>
-      <c r="AE65" s="92" t="s">
+      <c r="AE65" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="AF65" s="92" t="s">
+      <c r="AF65" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="AG65" s="92">
+      <c r="AG65" s="111">
         <v>1E-3</v>
       </c>
-      <c r="AH65" s="95" t="s">
+      <c r="AH65" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="76"/>
+      <c r="AI65" s="38">
+        <v>0.919600009918212</v>
+      </c>
+      <c r="AJ65" s="76">
+        <v>1.4695775462962963E-2</v>
+      </c>
     </row>
     <row r="66" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="121"/>
       <c r="J66" s="32"/>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
@@ -10302,7 +10448,7 @@
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
       <c r="R66" s="32"/>
-      <c r="S66" s="96"/>
+      <c r="S66" s="109"/>
       <c r="T66" s="13">
         <v>256</v>
       </c>
@@ -10321,24 +10467,28 @@
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
-      <c r="AD66" s="93"/>
-      <c r="AE66" s="93"/>
-      <c r="AF66" s="93"/>
-      <c r="AG66" s="93"/>
-      <c r="AH66" s="96"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="77"/>
+      <c r="AD66" s="112"/>
+      <c r="AE66" s="112"/>
+      <c r="AF66" s="112"/>
+      <c r="AG66" s="112"/>
+      <c r="AH66" s="109"/>
+      <c r="AI66" s="4">
+        <v>0.92269998788833596</v>
+      </c>
+      <c r="AJ66" s="77">
+        <v>1.3853993055555557E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="93"/>
-      <c r="C67" s="93"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="99"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="112"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="121"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="121"/>
       <c r="J67" s="32"/>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
@@ -10348,7 +10498,7 @@
       <c r="P67" s="32"/>
       <c r="Q67" s="32"/>
       <c r="R67" s="32"/>
-      <c r="S67" s="96"/>
+      <c r="S67" s="109"/>
       <c r="T67" s="13">
         <v>256</v>
       </c>
@@ -10367,24 +10517,28 @@
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
-      <c r="AD67" s="93"/>
-      <c r="AE67" s="93"/>
-      <c r="AF67" s="93"/>
-      <c r="AG67" s="93"/>
-      <c r="AH67" s="96"/>
-      <c r="AI67" s="4"/>
-      <c r="AJ67" s="77"/>
+      <c r="AD67" s="112"/>
+      <c r="AE67" s="112"/>
+      <c r="AF67" s="112"/>
+      <c r="AG67" s="112"/>
+      <c r="AH67" s="109"/>
+      <c r="AI67" s="4">
+        <v>0.92150002717971802</v>
+      </c>
+      <c r="AJ67" s="77">
+        <v>1.4871539351851851E-2</v>
+      </c>
     </row>
     <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" s="102"/>
-      <c r="B68" s="93"/>
-      <c r="C68" s="93"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
+      <c r="A68" s="118"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
       <c r="J68" s="32"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
@@ -10394,17 +10548,17 @@
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
-      <c r="S68" s="96"/>
-      <c r="T68" s="13">
+      <c r="S68" s="109"/>
+      <c r="T68" s="62">
         <v>256</v>
       </c>
-      <c r="U68" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="V68" s="13">
+      <c r="U68" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="62">
         <v>128</v>
       </c>
-      <c r="W68" s="13" t="s">
+      <c r="W68" s="62" t="s">
         <v>21</v>
       </c>
       <c r="X68" s="4"/>
@@ -10413,28 +10567,28 @@
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
-      <c r="AD68" s="93"/>
-      <c r="AE68" s="93"/>
-      <c r="AF68" s="93"/>
-      <c r="AG68" s="93"/>
-      <c r="AH68" s="96"/>
-      <c r="AI68" s="4">
+      <c r="AD68" s="112"/>
+      <c r="AE68" s="112"/>
+      <c r="AF68" s="112"/>
+      <c r="AG68" s="112"/>
+      <c r="AH68" s="109"/>
+      <c r="AI68" s="62">
         <v>0.92470002174377397</v>
       </c>
-      <c r="AJ68" s="77">
+      <c r="AJ68" s="79">
         <v>1.6316203703703704E-2</v>
       </c>
     </row>
     <row r="69" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="103"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
+      <c r="A69" s="119"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="122"/>
+      <c r="E69" s="122"/>
+      <c r="F69" s="122"/>
+      <c r="G69" s="122"/>
+      <c r="H69" s="122"/>
+      <c r="I69" s="122"/>
       <c r="J69" s="44"/>
       <c r="K69" s="44"/>
       <c r="L69" s="44"/>
@@ -10444,17 +10598,17 @@
       <c r="P69" s="44"/>
       <c r="Q69" s="44"/>
       <c r="R69" s="44"/>
-      <c r="S69" s="97"/>
-      <c r="T69" s="121">
+      <c r="S69" s="110"/>
+      <c r="T69" s="89">
         <v>256</v>
       </c>
-      <c r="U69" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="V69" s="121">
+      <c r="U69" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="V69" s="89">
         <v>256</v>
       </c>
-      <c r="W69" s="121" t="s">
+      <c r="W69" s="89" t="s">
         <v>21</v>
       </c>
       <c r="X69" s="41"/>
@@ -10463,11 +10617,11 @@
       <c r="AA69" s="41"/>
       <c r="AB69" s="41"/>
       <c r="AC69" s="41"/>
-      <c r="AD69" s="94"/>
-      <c r="AE69" s="94"/>
-      <c r="AF69" s="94"/>
-      <c r="AG69" s="94"/>
-      <c r="AH69" s="97"/>
+      <c r="AD69" s="113"/>
+      <c r="AE69" s="113"/>
+      <c r="AF69" s="113"/>
+      <c r="AG69" s="113"/>
+      <c r="AH69" s="110"/>
       <c r="AI69" s="41">
         <v>0.91579997539520197</v>
       </c>
@@ -10475,8 +10629,1005 @@
         <v>2.0061192129629628E-2</v>
       </c>
     </row>
+    <row r="70" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="117">
+        <v>14</v>
+      </c>
+      <c r="B70" s="111">
+        <v>5</v>
+      </c>
+      <c r="C70" s="111">
+        <v>64</v>
+      </c>
+      <c r="D70" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="120">
+        <v>32</v>
+      </c>
+      <c r="F70" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="120">
+        <v>128</v>
+      </c>
+      <c r="I70" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="T70" s="114">
+        <v>128</v>
+      </c>
+      <c r="U70" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="V70" s="114">
+        <v>128</v>
+      </c>
+      <c r="W70" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="38"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE70" s="125" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF70" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG70" s="125">
+        <v>1E-3</v>
+      </c>
+      <c r="AH70" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI70" s="87">
+        <v>0.92820000648498502</v>
+      </c>
+      <c r="AJ70" s="88">
+        <v>1.3521898148148149E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71" s="118"/>
+      <c r="B71" s="112"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="109"/>
+      <c r="T71" s="115"/>
+      <c r="U71" s="115"/>
+      <c r="V71" s="115"/>
+      <c r="W71" s="115"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="112"/>
+      <c r="AE71" s="126"/>
+      <c r="AF71" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG71" s="126"/>
+      <c r="AH71" s="129"/>
+      <c r="AI71" s="13">
+        <v>0.78740000724792403</v>
+      </c>
+      <c r="AJ71" s="90">
+        <v>1.256832175925926E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72" s="118"/>
+      <c r="B72" s="112"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="121"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="109"/>
+      <c r="T72" s="115"/>
+      <c r="U72" s="115"/>
+      <c r="V72" s="115"/>
+      <c r="W72" s="115"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="112"/>
+      <c r="AE72" s="126"/>
+      <c r="AF72" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG72" s="126"/>
+      <c r="AH72" s="129"/>
+      <c r="AI72" s="13">
+        <v>0.91560000181198098</v>
+      </c>
+      <c r="AJ72" s="90">
+        <v>1.4352303240740742E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" s="118"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="121"/>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="121"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="109"/>
+      <c r="T73" s="115"/>
+      <c r="U73" s="115"/>
+      <c r="V73" s="115"/>
+      <c r="W73" s="115"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="112"/>
+      <c r="AE73" s="126"/>
+      <c r="AF73" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG73" s="126"/>
+      <c r="AH73" s="129"/>
+      <c r="AI73" s="13">
+        <v>0.92449998855590798</v>
+      </c>
+      <c r="AJ73" s="90">
+        <v>1.340826388888889E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" s="131"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="132"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="123"/>
+      <c r="T74" s="115"/>
+      <c r="U74" s="115"/>
+      <c r="V74" s="115"/>
+      <c r="W74" s="115"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="56"/>
+      <c r="AA74" s="56"/>
+      <c r="AB74" s="56"/>
+      <c r="AC74" s="56"/>
+      <c r="AD74" s="124"/>
+      <c r="AE74" s="126"/>
+      <c r="AF74" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG74" s="126"/>
+      <c r="AH74" s="129"/>
+      <c r="AI74" s="101">
+        <v>0.92769998311996404</v>
+      </c>
+      <c r="AJ74" s="102">
+        <v>1.3244560185185187E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" s="131"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="132"/>
+      <c r="G75" s="132"/>
+      <c r="H75" s="132"/>
+      <c r="I75" s="132"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="36"/>
+      <c r="P75" s="36"/>
+      <c r="Q75" s="36"/>
+      <c r="R75" s="36"/>
+      <c r="S75" s="123"/>
+      <c r="T75" s="115"/>
+      <c r="U75" s="115"/>
+      <c r="V75" s="115"/>
+      <c r="W75" s="115"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="56"/>
+      <c r="AB75" s="56"/>
+      <c r="AC75" s="56"/>
+      <c r="AD75" s="124"/>
+      <c r="AE75" s="126"/>
+      <c r="AF75" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG75" s="126"/>
+      <c r="AH75" s="129"/>
+      <c r="AI75" s="103">
+        <v>0.928699970245361</v>
+      </c>
+      <c r="AJ75" s="104">
+        <v>1.3501053240740739E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" s="131"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="132"/>
+      <c r="E76" s="132"/>
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="123"/>
+      <c r="T76" s="115"/>
+      <c r="U76" s="115"/>
+      <c r="V76" s="115"/>
+      <c r="W76" s="115"/>
+      <c r="X76" s="56"/>
+      <c r="Y76" s="56"/>
+      <c r="Z76" s="56"/>
+      <c r="AA76" s="56"/>
+      <c r="AB76" s="56"/>
+      <c r="AC76" s="56"/>
+      <c r="AD76" s="124"/>
+      <c r="AE76" s="126"/>
+      <c r="AF76" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG76" s="126"/>
+      <c r="AH76" s="129"/>
+      <c r="AI76" s="101">
+        <v>0.91900002956390303</v>
+      </c>
+      <c r="AJ76" s="102">
+        <v>1.4036203703703704E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="119"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="113"/>
+      <c r="D77" s="122"/>
+      <c r="E77" s="122"/>
+      <c r="F77" s="122"/>
+      <c r="G77" s="122"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="122"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="116"/>
+      <c r="U77" s="116"/>
+      <c r="V77" s="116"/>
+      <c r="W77" s="116"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
+      <c r="AB77" s="41"/>
+      <c r="AC77" s="41"/>
+      <c r="AD77" s="113"/>
+      <c r="AE77" s="127"/>
+      <c r="AF77" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG77" s="127"/>
+      <c r="AH77" s="130"/>
+      <c r="AI77" s="89">
+        <v>0.10000000149011599</v>
+      </c>
+      <c r="AJ77" s="100">
+        <v>1.3833854166666666E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78" s="117">
+        <v>15</v>
+      </c>
+      <c r="B78" s="111">
+        <v>5</v>
+      </c>
+      <c r="C78" s="111">
+        <v>64</v>
+      </c>
+      <c r="D78" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="120">
+        <v>32</v>
+      </c>
+      <c r="F78" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="120">
+        <v>128</v>
+      </c>
+      <c r="I78" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="T78" s="114">
+        <v>128</v>
+      </c>
+      <c r="U78" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="V78" s="114">
+        <v>128</v>
+      </c>
+      <c r="W78" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="38"/>
+      <c r="AD78" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE78" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF78" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG78" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="AH78" s="108" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI78" s="87"/>
+      <c r="AJ78" s="88"/>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" s="118"/>
+      <c r="B79" s="112"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="121"/>
+      <c r="E79" s="121"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="121"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="32"/>
+      <c r="Q79" s="32"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="109"/>
+      <c r="T79" s="115"/>
+      <c r="U79" s="115"/>
+      <c r="V79" s="115"/>
+      <c r="W79" s="115"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="112"/>
+      <c r="AE79" s="112"/>
+      <c r="AF79" s="112"/>
+      <c r="AG79" s="32"/>
+      <c r="AH79" s="109"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="90"/>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" s="118"/>
+      <c r="B80" s="112"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="121"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="121"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="32"/>
+      <c r="Q80" s="32"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="109"/>
+      <c r="T80" s="115"/>
+      <c r="U80" s="115"/>
+      <c r="V80" s="115"/>
+      <c r="W80" s="115"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="112"/>
+      <c r="AE80" s="112"/>
+      <c r="AF80" s="112"/>
+      <c r="AG80" s="32"/>
+      <c r="AH80" s="109"/>
+      <c r="AI80" s="13"/>
+      <c r="AJ80" s="90"/>
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A81" s="118"/>
+      <c r="B81" s="112"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="32"/>
+      <c r="Q81" s="32"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="109"/>
+      <c r="T81" s="115"/>
+      <c r="U81" s="115"/>
+      <c r="V81" s="115"/>
+      <c r="W81" s="115"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="112"/>
+      <c r="AE81" s="112"/>
+      <c r="AF81" s="112"/>
+      <c r="AG81" s="32"/>
+      <c r="AH81" s="109"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="90"/>
+    </row>
+    <row r="82" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="119"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="122"/>
+      <c r="E82" s="122"/>
+      <c r="F82" s="122"/>
+      <c r="G82" s="122"/>
+      <c r="H82" s="122"/>
+      <c r="I82" s="122"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="110"/>
+      <c r="T82" s="116"/>
+      <c r="U82" s="116"/>
+      <c r="V82" s="116"/>
+      <c r="W82" s="116"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="41"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="113"/>
+      <c r="AE82" s="113"/>
+      <c r="AF82" s="113"/>
+      <c r="AG82" s="44"/>
+      <c r="AH82" s="110"/>
+      <c r="AI82" s="89"/>
+      <c r="AJ82" s="100"/>
+    </row>
+    <row r="83" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="117">
+        <v>16</v>
+      </c>
+      <c r="B83" s="111">
+        <v>5</v>
+      </c>
+      <c r="C83" s="111">
+        <v>64</v>
+      </c>
+      <c r="D83" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="120">
+        <v>32</v>
+      </c>
+      <c r="F83" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="120">
+        <v>128</v>
+      </c>
+      <c r="I83" s="120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="T83" s="114">
+        <v>128</v>
+      </c>
+      <c r="U83" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="V83" s="114">
+        <v>128</v>
+      </c>
+      <c r="W83" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="X83" s="38"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="38"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="38"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="111">
+        <v>10</v>
+      </c>
+      <c r="AE83" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF83" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG83" s="111">
+        <v>1E-3</v>
+      </c>
+      <c r="AH83" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI83" s="87"/>
+      <c r="AJ83" s="88"/>
+    </row>
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A84" s="118"/>
+      <c r="B84" s="112"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="121"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="32"/>
+      <c r="S84" s="109"/>
+      <c r="T84" s="115"/>
+      <c r="U84" s="115"/>
+      <c r="V84" s="115"/>
+      <c r="W84" s="115"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="112"/>
+      <c r="AE84" s="112"/>
+      <c r="AF84" s="112"/>
+      <c r="AG84" s="112"/>
+      <c r="AH84" s="98"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="90"/>
+    </row>
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A85" s="118"/>
+      <c r="B85" s="112"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="121"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="32"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="109"/>
+      <c r="T85" s="115"/>
+      <c r="U85" s="115"/>
+      <c r="V85" s="115"/>
+      <c r="W85" s="115"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="112"/>
+      <c r="AE85" s="112"/>
+      <c r="AF85" s="112"/>
+      <c r="AG85" s="112"/>
+      <c r="AH85" s="98"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="90"/>
+    </row>
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A86" s="118"/>
+      <c r="B86" s="112"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="121"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="109"/>
+      <c r="T86" s="115"/>
+      <c r="U86" s="115"/>
+      <c r="V86" s="115"/>
+      <c r="W86" s="115"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="112"/>
+      <c r="AE86" s="112"/>
+      <c r="AF86" s="112"/>
+      <c r="AG86" s="112"/>
+      <c r="AH86" s="98"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="90"/>
+    </row>
+    <row r="87" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="119"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="122"/>
+      <c r="G87" s="122"/>
+      <c r="H87" s="122"/>
+      <c r="I87" s="122"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="110"/>
+      <c r="T87" s="116"/>
+      <c r="U87" s="116"/>
+      <c r="V87" s="116"/>
+      <c r="W87" s="116"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="113"/>
+      <c r="AE87" s="113"/>
+      <c r="AF87" s="113"/>
+      <c r="AG87" s="113"/>
+      <c r="AH87" s="99"/>
+      <c r="AI87" s="89"/>
+      <c r="AJ87" s="100"/>
+    </row>
   </sheetData>
-  <mergeCells count="180">
+  <mergeCells count="234">
+    <mergeCell ref="AD40:AD44"/>
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AG40:AG44"/>
+    <mergeCell ref="AH40:AH44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="S40:S44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="AH5:AH9"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="S5:S9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="AD5:AD9"/>
+    <mergeCell ref="AE5:AE9"/>
+    <mergeCell ref="AF5:AF9"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="AG10:AG14"/>
+    <mergeCell ref="AH10:AH14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="S15:S19"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="AD15:AD19"/>
+    <mergeCell ref="S10:S14"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="U10:U14"/>
+    <mergeCell ref="AD10:AD14"/>
+    <mergeCell ref="AE10:AE14"/>
+    <mergeCell ref="AF10:AF14"/>
+    <mergeCell ref="AE15:AE19"/>
+    <mergeCell ref="AF15:AF19"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="AD20:AD24"/>
+    <mergeCell ref="AE20:AE24"/>
+    <mergeCell ref="AF20:AF24"/>
+    <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="S20:S24"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="U20:U24"/>
+    <mergeCell ref="S30:S34"/>
+    <mergeCell ref="T30:T34"/>
+    <mergeCell ref="U30:U34"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="S25:S29"/>
+    <mergeCell ref="T25:T29"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="AD25:AD29"/>
+    <mergeCell ref="AE25:AE29"/>
+    <mergeCell ref="S35:S39"/>
+    <mergeCell ref="T35:T39"/>
+    <mergeCell ref="U35:U39"/>
+    <mergeCell ref="AD35:AD39"/>
+    <mergeCell ref="AE35:AE39"/>
+    <mergeCell ref="AF35:AF39"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AH35:AH39"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD30:AD34"/>
+    <mergeCell ref="AE30:AE34"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AG30:AG34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="AG20:AG24"/>
+    <mergeCell ref="AH20:AH24"/>
+    <mergeCell ref="AF25:AF29"/>
+    <mergeCell ref="AG25:AG29"/>
+    <mergeCell ref="AD45:AD49"/>
+    <mergeCell ref="AE45:AE49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AG49"/>
+    <mergeCell ref="AH45:AH49"/>
+    <mergeCell ref="S45:S49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="AF50:AF54"/>
+    <mergeCell ref="AG50:AG54"/>
+    <mergeCell ref="AH50:AH54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="S55:S59"/>
+    <mergeCell ref="AD55:AD59"/>
+    <mergeCell ref="AE55:AE59"/>
+    <mergeCell ref="AF55:AF59"/>
+    <mergeCell ref="AG55:AG59"/>
+    <mergeCell ref="AH55:AH59"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="S50:S54"/>
+    <mergeCell ref="AD50:AD54"/>
+    <mergeCell ref="AE50:AE54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I50:I54"/>
     <mergeCell ref="S60:S64"/>
     <mergeCell ref="AD60:AD64"/>
     <mergeCell ref="AE60:AE64"/>
@@ -10504,159 +11655,60 @@
     <mergeCell ref="D60:D64"/>
     <mergeCell ref="E60:E64"/>
     <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="S50:S54"/>
-    <mergeCell ref="AD50:AD54"/>
-    <mergeCell ref="AE50:AE54"/>
-    <mergeCell ref="AF50:AF54"/>
-    <mergeCell ref="AG50:AG54"/>
-    <mergeCell ref="AH50:AH54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="H55:H59"/>
-    <mergeCell ref="I55:I59"/>
-    <mergeCell ref="S55:S59"/>
-    <mergeCell ref="AD55:AD59"/>
-    <mergeCell ref="AE55:AE59"/>
-    <mergeCell ref="AF55:AF59"/>
-    <mergeCell ref="AG55:AG59"/>
-    <mergeCell ref="AH55:AH59"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="AD45:AD49"/>
-    <mergeCell ref="AE45:AE49"/>
-    <mergeCell ref="AF45:AF49"/>
-    <mergeCell ref="AG45:AG49"/>
-    <mergeCell ref="AH45:AH49"/>
-    <mergeCell ref="S45:S49"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="AH35:AH39"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD30:AD34"/>
-    <mergeCell ref="AE30:AE34"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AG30:AG34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="AG20:AG24"/>
-    <mergeCell ref="AH20:AH24"/>
-    <mergeCell ref="AF25:AF29"/>
-    <mergeCell ref="AG25:AG29"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="AD25:AD29"/>
-    <mergeCell ref="AE25:AE29"/>
-    <mergeCell ref="S35:S39"/>
-    <mergeCell ref="T35:T39"/>
-    <mergeCell ref="U35:U39"/>
-    <mergeCell ref="AD35:AD39"/>
-    <mergeCell ref="AE35:AE39"/>
-    <mergeCell ref="AF35:AF39"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="AD20:AD24"/>
-    <mergeCell ref="AE20:AE24"/>
-    <mergeCell ref="AF20:AF24"/>
-    <mergeCell ref="AH25:AH29"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="S20:S24"/>
-    <mergeCell ref="T20:T24"/>
-    <mergeCell ref="U20:U24"/>
-    <mergeCell ref="S30:S34"/>
-    <mergeCell ref="T30:T34"/>
-    <mergeCell ref="U30:U34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="S25:S29"/>
-    <mergeCell ref="T25:T29"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="AG10:AG14"/>
-    <mergeCell ref="AH10:AH14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="S15:S19"/>
-    <mergeCell ref="T15:T19"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="AD15:AD19"/>
-    <mergeCell ref="S10:S14"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="U10:U14"/>
-    <mergeCell ref="AD10:AD14"/>
-    <mergeCell ref="AE10:AE14"/>
-    <mergeCell ref="AF10:AF14"/>
-    <mergeCell ref="AE15:AE19"/>
-    <mergeCell ref="AF15:AF19"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH19"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="S40:S44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="AH5:AH9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="AD5:AD9"/>
-    <mergeCell ref="AE5:AE9"/>
-    <mergeCell ref="AF5:AF9"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="AD40:AD44"/>
-    <mergeCell ref="AE40:AE44"/>
-    <mergeCell ref="AF40:AF44"/>
-    <mergeCell ref="AG40:AG44"/>
-    <mergeCell ref="AH40:AH44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="AH70:AH77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="S78:S82"/>
+    <mergeCell ref="AD78:AD82"/>
+    <mergeCell ref="AE78:AE82"/>
+    <mergeCell ref="AF78:AF82"/>
+    <mergeCell ref="AH78:AH82"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="D70:D77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="G70:G77"/>
+    <mergeCell ref="H70:H77"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="G83:G87"/>
+    <mergeCell ref="H83:H87"/>
+    <mergeCell ref="I83:I87"/>
+    <mergeCell ref="S83:S87"/>
+    <mergeCell ref="AD83:AD87"/>
+    <mergeCell ref="AE83:AE87"/>
+    <mergeCell ref="AF83:AF87"/>
+    <mergeCell ref="AG83:AG87"/>
+    <mergeCell ref="T70:T77"/>
+    <mergeCell ref="U70:U77"/>
+    <mergeCell ref="V70:V77"/>
+    <mergeCell ref="W70:W77"/>
+    <mergeCell ref="T78:T82"/>
+    <mergeCell ref="U78:U82"/>
+    <mergeCell ref="V78:V82"/>
+    <mergeCell ref="W78:W82"/>
+    <mergeCell ref="T83:T87"/>
+    <mergeCell ref="U83:U87"/>
+    <mergeCell ref="V83:V87"/>
+    <mergeCell ref="W83:W87"/>
+    <mergeCell ref="S70:S77"/>
+    <mergeCell ref="AD70:AD77"/>
+    <mergeCell ref="AE70:AE77"/>
+    <mergeCell ref="AG70:AG77"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10666,10 +11718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFB1DB1-15B8-456D-B434-AC40FA493807}">
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:X27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10681,40 +11733,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="J1" s="116" t="s">
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="J1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="L2" s="115" t="s">
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="L2" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" s="80"/>
@@ -10751,7 +11803,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="139" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="80">
@@ -10773,7 +11825,7 @@
       <c r="H4" s="82">
         <v>0.92479997873306197</v>
       </c>
-      <c r="J4" s="114" t="s">
+      <c r="J4" s="139" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="80">
@@ -10797,7 +11849,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="114"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="80">
         <v>32</v>
       </c>
@@ -10811,13 +11863,13 @@
       <c r="F5" s="82">
         <v>0.92229998111724798</v>
       </c>
-      <c r="G5" s="82">
+      <c r="G5" s="94">
         <v>0.92610001564025801</v>
       </c>
       <c r="H5" s="82">
         <v>0.92439997196197499</v>
       </c>
-      <c r="J5" s="114"/>
+      <c r="J5" s="139"/>
       <c r="K5" s="80">
         <v>32</v>
       </c>
@@ -10839,7 +11891,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="80">
         <v>64</v>
       </c>
@@ -10859,7 +11911,7 @@
       <c r="H6" s="82">
         <v>0.92510002851486195</v>
       </c>
-      <c r="J6" s="114"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="80">
         <v>64</v>
       </c>
@@ -10881,7 +11933,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="80">
         <v>128</v>
       </c>
@@ -10901,7 +11953,7 @@
       <c r="H7" s="82">
         <v>0.92009997367858798</v>
       </c>
-      <c r="J7" s="114"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="80">
         <v>128</v>
       </c>
@@ -10923,7 +11975,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="114"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="80">
         <v>256</v>
       </c>
@@ -10943,7 +11995,7 @@
       <c r="H8" s="82">
         <v>0.92199999094009399</v>
       </c>
-      <c r="J8" s="114"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="80">
         <v>256</v>
       </c>
@@ -10974,40 +12026,40 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="J12" s="116" t="s">
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="J12" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="115" t="s">
+      <c r="D13" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="L13" s="115" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="L13" s="138" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="80"/>
@@ -11044,7 +12096,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="80">
@@ -11052,21 +12104,21 @@
       </c>
       <c r="D15" s="82" cm="1">
         <f t="array" ref="D15:H15">TRANSPOSE(Sheet2!AI45:AI49)</f>
-        <v>0</v>
+        <v>0.904100000858306</v>
       </c>
       <c r="E15" s="82">
-        <v>0</v>
+        <v>0.910700023174285</v>
       </c>
       <c r="F15" s="82">
-        <v>0</v>
+        <v>0.91149997711181596</v>
       </c>
       <c r="G15" s="82">
-        <v>0</v>
+        <v>0.91600000858306796</v>
       </c>
       <c r="H15" s="82">
-        <v>0</v>
-      </c>
-      <c r="J15" s="114" t="s">
+        <v>0.91060000658035201</v>
+      </c>
+      <c r="J15" s="139" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="80">
@@ -11074,161 +12126,161 @@
       </c>
       <c r="L15" s="81" cm="1">
         <f t="array" ref="L15:P15">TRANSPOSE(Sheet2!AJ45:AJ49)</f>
-        <v>0</v>
+        <v>1.2117175925925925E-2</v>
       </c>
       <c r="M15" s="81">
-        <v>0</v>
+        <v>1.5506701388888889E-2</v>
       </c>
       <c r="N15" s="81">
-        <v>0</v>
+        <v>1.0342407407407406E-2</v>
       </c>
       <c r="O15" s="81">
-        <v>0</v>
+        <v>1.1530312500000001E-2</v>
       </c>
       <c r="P15" s="81">
-        <v>0</v>
+        <v>1.2446990740740739E-2</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="80">
         <v>32</v>
       </c>
       <c r="D16" s="82" cm="1">
         <f t="array" ref="D16:H16">TRANSPOSE(Sheet2!AI50:AI54)</f>
-        <v>0</v>
+        <v>0.91469997167587203</v>
       </c>
       <c r="E16" s="82">
-        <v>0</v>
+        <v>0.91930001974105802</v>
       </c>
       <c r="F16" s="82">
-        <v>0</v>
+        <v>0.91720002889633101</v>
       </c>
       <c r="G16" s="82">
-        <v>0</v>
+        <v>0.92000001668929998</v>
       </c>
       <c r="H16" s="82">
-        <v>0</v>
-      </c>
-      <c r="J16" s="114"/>
+        <v>0.91729998588562001</v>
+      </c>
+      <c r="J16" s="139"/>
       <c r="K16" s="80">
         <v>32</v>
       </c>
       <c r="L16" s="81" cm="1">
         <f t="array" ref="L16:P16">TRANSPOSE(Sheet2!AJ50:AJ54)</f>
-        <v>0</v>
+        <v>1.2931238425925926E-2</v>
       </c>
       <c r="M16" s="81">
-        <v>0</v>
+        <v>1.0762951388888888E-2</v>
       </c>
       <c r="N16" s="81">
-        <v>0</v>
+        <v>1.2010127314814814E-2</v>
       </c>
       <c r="O16" s="81">
-        <v>0</v>
+        <v>1.3509999999999999E-2</v>
       </c>
       <c r="P16" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="114"/>
+        <v>1.233266203703704E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B17" s="139"/>
       <c r="C17" s="80">
         <v>64</v>
       </c>
       <c r="D17" s="82" cm="1">
         <f t="array" ref="D17:H17">TRANSPOSE(Sheet2!AI55:AI59)</f>
-        <v>0</v>
+        <v>0.91500002145767201</v>
       </c>
       <c r="E17" s="82">
-        <v>0</v>
+        <v>0.91710001230239802</v>
       </c>
       <c r="F17" s="82">
-        <v>0</v>
+        <v>0.91109997034072798</v>
       </c>
       <c r="G17" s="82">
-        <v>0</v>
+        <v>0.91850000619888295</v>
       </c>
       <c r="H17" s="82">
-        <v>0</v>
-      </c>
-      <c r="J17" s="114"/>
+        <v>0.92089998722076405</v>
+      </c>
+      <c r="J17" s="139"/>
       <c r="K17" s="80">
         <v>64</v>
       </c>
       <c r="L17" s="81" cm="1">
         <f t="array" ref="L17:P17">TRANSPOSE(Sheet2!AJ55:AJ59)</f>
-        <v>0</v>
+        <v>1.3067118055555556E-2</v>
       </c>
       <c r="M17" s="81">
-        <v>0</v>
+        <v>1.1958125E-2</v>
       </c>
       <c r="N17" s="81">
-        <v>0</v>
+        <v>1.3640717592592591E-2</v>
       </c>
       <c r="O17" s="81">
-        <v>0</v>
+        <v>1.2621828703703703E-2</v>
       </c>
       <c r="P17" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="114"/>
+        <v>1.1163993055555555E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B18" s="139"/>
       <c r="C18" s="80">
         <v>128</v>
       </c>
       <c r="D18" s="82" cm="1">
         <f t="array" ref="D18:H18">TRANSPOSE(Sheet2!AI60:AI64)</f>
-        <v>0</v>
+        <v>0.91380000114440896</v>
       </c>
       <c r="E18" s="82">
-        <v>0</v>
+        <v>0.92100000381469704</v>
       </c>
       <c r="F18" s="82">
-        <v>0</v>
-      </c>
-      <c r="G18" s="82">
+        <v>0.91549998521804798</v>
+      </c>
+      <c r="G18" s="94">
         <v>0.92820000648498502</v>
       </c>
       <c r="H18" s="82">
-        <v>0</v>
-      </c>
-      <c r="J18" s="114"/>
+        <v>0.908500015735626</v>
+      </c>
+      <c r="J18" s="139"/>
       <c r="K18" s="80">
         <v>128</v>
       </c>
       <c r="L18" s="81" cm="1">
         <f t="array" ref="L18:P18">TRANSPOSE(Sheet2!AJ60:AJ64)</f>
-        <v>0</v>
+        <v>1.4227060185185186E-2</v>
       </c>
       <c r="M18" s="81">
-        <v>0</v>
+        <v>1.3092662037037038E-2</v>
       </c>
       <c r="N18" s="81">
-        <v>0</v>
+        <v>1.1618182870370371E-2</v>
       </c>
       <c r="O18" s="81">
         <v>1.3521898148148149E-2</v>
       </c>
       <c r="P18" s="81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="114"/>
+        <v>1.2574606481481482E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="139"/>
       <c r="C19" s="80">
         <v>256</v>
       </c>
       <c r="D19" s="82" cm="1">
         <f t="array" ref="D19:H19">TRANSPOSE(Sheet2!AI65:AI69)</f>
-        <v>0</v>
+        <v>0.919600009918212</v>
       </c>
       <c r="E19" s="82">
-        <v>0</v>
+        <v>0.92269998788833596</v>
       </c>
       <c r="F19" s="82">
-        <v>0</v>
+        <v>0.92150002717971802</v>
       </c>
       <c r="G19" s="82">
         <v>0.92470002174377397</v>
@@ -11236,19 +12288,19 @@
       <c r="H19" s="82">
         <v>0.91579997539520197</v>
       </c>
-      <c r="J19" s="114"/>
+      <c r="J19" s="139"/>
       <c r="K19" s="80">
         <v>256</v>
       </c>
       <c r="L19" s="81" cm="1">
         <f t="array" ref="L19:P19">TRANSPOSE(Sheet2!AJ65:AJ69)</f>
-        <v>0</v>
+        <v>1.4695775462962963E-2</v>
       </c>
       <c r="M19" s="81">
-        <v>0</v>
+        <v>1.3853993055555557E-2</v>
       </c>
       <c r="N19" s="81">
-        <v>0</v>
+        <v>1.4871539351851851E-2</v>
       </c>
       <c r="O19" s="81">
         <v>1.6316203703703704E-2</v>
@@ -11257,7 +12309,7 @@
         <v>2.0061192129629628E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>45</v>
       </c>
@@ -11266,20 +12318,73 @@
         <v>0.92820000648498502</v>
       </c>
     </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L23" s="93"/>
+      <c r="M23" s="93"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="93"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="91"/>
+      <c r="T23" s="91"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="91"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="93"/>
+      <c r="P25" s="93"/>
+      <c r="R25" s="91"/>
+      <c r="S25" s="91"/>
+      <c r="T25" s="91"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="J4:J8"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="J12:P12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="L13:P13"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="J15:J19"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="J4:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:H8">
     <cfRule type="colorScale" priority="7">

--- a/Eksplorasi.xlsx
+++ b/Eksplorasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\PhD\Semester 3\Pebelejaran Mesin Lanjut\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F7298-F5B1-4E27-B905-1C453D6B8F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB66DB-11D1-405D-AB39-B52CDD19206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1262,9 +1262,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1340,14 +1337,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1355,25 +1355,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1384,6 +1399,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1397,56 +1436,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,22 +1451,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1481,7 +1469,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23997,12 +23997,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="179" t="s">
+      <c r="G27" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="29" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -24196,9 +24196,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65201A12-53EA-4893-81B9-82092243027F}">
   <dimension ref="A1:AK97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ86" sqref="AJ86:AK86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E78" sqref="E78:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24245,57 +24245,57 @@
       <c r="A3" s="29"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="197" t="s">
+      <c r="D3" s="177"/>
+      <c r="E3" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197" t="s">
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197" t="s">
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197" t="s">
+      <c r="L3" s="210"/>
+      <c r="M3" s="210"/>
+      <c r="N3" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197" t="s">
+      <c r="O3" s="210"/>
+      <c r="P3" s="210"/>
+      <c r="Q3" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="210"/>
       <c r="T3" s="30"/>
-      <c r="U3" s="197" t="s">
+      <c r="U3" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197" t="s">
+      <c r="V3" s="210"/>
+      <c r="W3" s="210" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197" t="s">
+      <c r="X3" s="210"/>
+      <c r="Y3" s="210" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197" t="s">
+      <c r="Z3" s="210"/>
+      <c r="AA3" s="210" t="s">
         <v>41</v>
       </c>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197" t="s">
+      <c r="AB3" s="210"/>
+      <c r="AC3" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197" t="s">
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="197"/>
+      <c r="AF3" s="210"/>
       <c r="AG3" s="29"/>
       <c r="AH3" s="29"/>
       <c r="AI3" s="30"/>
@@ -24413,23 +24413,23 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="198">
+      <c r="A5" s="211">
         <v>1</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="196">
         <v>5</v>
       </c>
-      <c r="C5" s="201">
+      <c r="C5" s="196">
         <v>64</v>
       </c>
-      <c r="D5" s="175"/>
+      <c r="D5" s="174"/>
       <c r="E5" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="201">
+      <c r="F5" s="196">
         <v>24</v>
       </c>
-      <c r="G5" s="201" t="s">
+      <c r="G5" s="196" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="43"/>
@@ -24444,13 +24444,13 @@
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
       <c r="S5" s="43"/>
-      <c r="T5" s="194" t="s">
+      <c r="T5" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="201">
+      <c r="U5" s="196">
         <v>128</v>
       </c>
-      <c r="V5" s="201" t="s">
+      <c r="V5" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W5" s="43"/>
@@ -24461,19 +24461,19 @@
       <c r="AB5" s="43"/>
       <c r="AC5" s="43"/>
       <c r="AD5" s="43"/>
-      <c r="AE5" s="201">
+      <c r="AE5" s="196">
         <v>10</v>
       </c>
-      <c r="AF5" s="201" t="s">
+      <c r="AF5" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="201" t="s">
+      <c r="AG5" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH5" s="201">
+      <c r="AH5" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI5" s="194" t="s">
+      <c r="AI5" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ5" s="42">
@@ -24484,15 +24484,15 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="199"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="212"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
@@ -24505,9 +24505,9 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
       <c r="S6" s="34"/>
-      <c r="T6" s="195"/>
-      <c r="U6" s="202"/>
-      <c r="V6" s="202"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
       <c r="W6" s="34"/>
       <c r="X6" s="34"/>
       <c r="Y6" s="34"/>
@@ -24516,11 +24516,11 @@
       <c r="AB6" s="34"/>
       <c r="AC6" s="34"/>
       <c r="AD6" s="34"/>
-      <c r="AE6" s="202"/>
-      <c r="AF6" s="202"/>
-      <c r="AG6" s="202"/>
-      <c r="AH6" s="202"/>
-      <c r="AI6" s="195"/>
+      <c r="AE6" s="197"/>
+      <c r="AF6" s="197"/>
+      <c r="AG6" s="197"/>
+      <c r="AH6" s="197"/>
+      <c r="AI6" s="200"/>
       <c r="AJ6" s="33">
         <v>0.90649998188018799</v>
       </c>
@@ -24529,15 +24529,15 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="199"/>
-      <c r="B7" s="202"/>
-      <c r="C7" s="202"/>
-      <c r="D7" s="176"/>
+      <c r="A7" s="212"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
       <c r="J7" s="34"/>
@@ -24550,9 +24550,9 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
-      <c r="T7" s="195"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="202"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
       <c r="W7" s="34"/>
       <c r="X7" s="34"/>
       <c r="Y7" s="34"/>
@@ -24561,11 +24561,11 @@
       <c r="AB7" s="34"/>
       <c r="AC7" s="34"/>
       <c r="AD7" s="34"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="202"/>
-      <c r="AG7" s="202"/>
-      <c r="AH7" s="202"/>
-      <c r="AI7" s="195"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="197"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="200"/>
       <c r="AJ7" s="32">
         <v>0.90579998493194502</v>
       </c>
@@ -24574,15 +24574,15 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="202"/>
-      <c r="D8" s="176"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="202"/>
-      <c r="G8" s="202"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
       <c r="J8" s="34"/>
@@ -24595,9 +24595,9 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
       <c r="S8" s="34"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
       <c r="W8" s="34"/>
       <c r="X8" s="34"/>
       <c r="Y8" s="34"/>
@@ -24606,11 +24606,11 @@
       <c r="AB8" s="34"/>
       <c r="AC8" s="34"/>
       <c r="AD8" s="34"/>
-      <c r="AE8" s="202"/>
-      <c r="AF8" s="202"/>
-      <c r="AG8" s="202"/>
-      <c r="AH8" s="202"/>
-      <c r="AI8" s="195"/>
+      <c r="AE8" s="197"/>
+      <c r="AF8" s="197"/>
+      <c r="AG8" s="197"/>
+      <c r="AH8" s="197"/>
+      <c r="AI8" s="200"/>
       <c r="AJ8" s="32">
         <v>0.90069997310638406</v>
       </c>
@@ -24619,15 +24619,15 @@
       </c>
     </row>
     <row r="9" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="200"/>
-      <c r="B9" s="203"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="177"/>
+      <c r="A9" s="213"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
@@ -24640,9 +24640,9 @@
       <c r="Q9" s="45"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
-      <c r="T9" s="196"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
+      <c r="T9" s="201"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
       <c r="W9" s="45"/>
       <c r="X9" s="45"/>
       <c r="Y9" s="45"/>
@@ -24651,11 +24651,11 @@
       <c r="AB9" s="45"/>
       <c r="AC9" s="45"/>
       <c r="AD9" s="45"/>
-      <c r="AE9" s="203"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="196"/>
+      <c r="AE9" s="198"/>
+      <c r="AF9" s="198"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="198"/>
+      <c r="AI9" s="201"/>
       <c r="AJ9" s="44">
         <v>0.89249998331069902</v>
       </c>
@@ -24664,16 +24664,16 @@
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="211">
         <v>2</v>
       </c>
-      <c r="B10" s="201">
+      <c r="B10" s="196">
         <v>5</v>
       </c>
-      <c r="C10" s="201">
+      <c r="C10" s="196">
         <v>64</v>
       </c>
-      <c r="D10" s="175">
+      <c r="D10" s="174">
         <v>1</v>
       </c>
       <c r="E10" s="42" t="s">
@@ -24697,13 +24697,13 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
       <c r="S10" s="48"/>
-      <c r="T10" s="194" t="s">
+      <c r="T10" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="201">
+      <c r="U10" s="196">
         <v>128</v>
       </c>
-      <c r="V10" s="201" t="s">
+      <c r="V10" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W10" s="43"/>
@@ -24714,19 +24714,19 @@
       <c r="AB10" s="43"/>
       <c r="AC10" s="43"/>
       <c r="AD10" s="43"/>
-      <c r="AE10" s="201">
+      <c r="AE10" s="196">
         <v>10</v>
       </c>
-      <c r="AF10" s="201" t="s">
+      <c r="AF10" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG10" s="201" t="s">
+      <c r="AG10" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH10" s="201">
+      <c r="AH10" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI10" s="194" t="s">
+      <c r="AI10" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ10" s="42">
@@ -24737,10 +24737,10 @@
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="199"/>
-      <c r="B11" s="202"/>
-      <c r="C11" s="202"/>
-      <c r="D11" s="176">
+      <c r="A11" s="212"/>
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="175">
         <v>2</v>
       </c>
       <c r="E11" s="33" t="s">
@@ -24770,9 +24770,9 @@
       <c r="Q11" s="49"/>
       <c r="R11" s="49"/>
       <c r="S11" s="49"/>
-      <c r="T11" s="195"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="202"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="197"/>
+      <c r="V11" s="197"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
       <c r="Y11" s="34"/>
@@ -24781,11 +24781,11 @@
       <c r="AB11" s="34"/>
       <c r="AC11" s="34"/>
       <c r="AD11" s="34"/>
-      <c r="AE11" s="202"/>
-      <c r="AF11" s="202"/>
-      <c r="AG11" s="202"/>
-      <c r="AH11" s="202"/>
-      <c r="AI11" s="195"/>
+      <c r="AE11" s="197"/>
+      <c r="AF11" s="197"/>
+      <c r="AG11" s="197"/>
+      <c r="AH11" s="197"/>
+      <c r="AI11" s="200"/>
       <c r="AJ11" s="33">
         <v>0.92030000686645497</v>
       </c>
@@ -24794,10 +24794,10 @@
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="199"/>
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="176">
+      <c r="A12" s="212"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="175">
         <v>3</v>
       </c>
       <c r="E12" s="32" t="s">
@@ -24833,9 +24833,9 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="49"/>
       <c r="S12" s="49"/>
-      <c r="T12" s="195"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="202"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="197"/>
+      <c r="V12" s="197"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
       <c r="Y12" s="34"/>
@@ -24844,11 +24844,11 @@
       <c r="AB12" s="34"/>
       <c r="AC12" s="34"/>
       <c r="AD12" s="34"/>
-      <c r="AE12" s="202"/>
-      <c r="AF12" s="202"/>
-      <c r="AG12" s="202"/>
-      <c r="AH12" s="202"/>
-      <c r="AI12" s="195"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="197"/>
+      <c r="AH12" s="197"/>
+      <c r="AI12" s="200"/>
       <c r="AJ12" s="32">
         <v>0.92019999027252197</v>
       </c>
@@ -24857,10 +24857,10 @@
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="199"/>
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="176">
+      <c r="A13" s="212"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="175">
         <v>4</v>
       </c>
       <c r="E13" s="32" t="s">
@@ -24902,9 +24902,9 @@
       <c r="Q13" s="49"/>
       <c r="R13" s="49"/>
       <c r="S13" s="49"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="202"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="197"/>
+      <c r="V13" s="197"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
       <c r="Y13" s="34"/>
@@ -24913,11 +24913,11 @@
       <c r="AB13" s="34"/>
       <c r="AC13" s="34"/>
       <c r="AD13" s="34"/>
-      <c r="AE13" s="202"/>
-      <c r="AF13" s="202"/>
-      <c r="AG13" s="202"/>
-      <c r="AH13" s="202"/>
-      <c r="AI13" s="195"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="197"/>
+      <c r="AI13" s="200"/>
       <c r="AJ13" s="32">
         <v>0.91799998283386197</v>
       </c>
@@ -24926,10 +24926,10 @@
       </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="176">
+      <c r="A14" s="212"/>
+      <c r="B14" s="197"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="175">
         <v>5</v>
       </c>
       <c r="E14" s="36" t="s">
@@ -24977,9 +24977,9 @@
       <c r="S14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="195"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="197"/>
+      <c r="V14" s="197"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
       <c r="Y14" s="34"/>
@@ -24988,11 +24988,11 @@
       <c r="AB14" s="34"/>
       <c r="AC14" s="34"/>
       <c r="AD14" s="34"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="202"/>
-      <c r="AG14" s="202"/>
-      <c r="AH14" s="202"/>
-      <c r="AI14" s="195"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="197"/>
+      <c r="AH14" s="197"/>
+      <c r="AI14" s="200"/>
       <c r="AJ14" s="36">
         <v>0.90719997882842995</v>
       </c>
@@ -25001,16 +25001,16 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="198">
+      <c r="A15" s="211">
         <v>3</v>
       </c>
-      <c r="B15" s="201">
+      <c r="B15" s="196">
         <v>5</v>
       </c>
-      <c r="C15" s="201">
+      <c r="C15" s="196">
         <v>64</v>
       </c>
-      <c r="D15" s="175"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="51" t="s">
         <v>1</v>
       </c>
@@ -25038,13 +25038,13 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
-      <c r="T15" s="194" t="s">
+      <c r="T15" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U15" s="201">
+      <c r="U15" s="196">
         <v>128</v>
       </c>
-      <c r="V15" s="201" t="s">
+      <c r="V15" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W15" s="43"/>
@@ -25055,19 +25055,19 @@
       <c r="AB15" s="43"/>
       <c r="AC15" s="43"/>
       <c r="AD15" s="43"/>
-      <c r="AE15" s="201">
+      <c r="AE15" s="196">
         <v>10</v>
       </c>
-      <c r="AF15" s="201" t="s">
+      <c r="AF15" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG15" s="201" t="s">
+      <c r="AG15" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH15" s="201">
+      <c r="AH15" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI15" s="194" t="s">
+      <c r="AI15" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ15" s="54">
@@ -25078,10 +25078,10 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
-      <c r="B16" s="202"/>
-      <c r="C16" s="202"/>
-      <c r="D16" s="176"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="50" t="s">
         <v>1</v>
       </c>
@@ -25109,9 +25109,9 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="195"/>
-      <c r="U16" s="202"/>
-      <c r="V16" s="202"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
       <c r="Y16" s="34"/>
@@ -25120,11 +25120,11 @@
       <c r="AB16" s="34"/>
       <c r="AC16" s="34"/>
       <c r="AD16" s="34"/>
-      <c r="AE16" s="202"/>
-      <c r="AF16" s="202"/>
-      <c r="AG16" s="202"/>
-      <c r="AH16" s="202"/>
-      <c r="AI16" s="195"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="197"/>
+      <c r="AH16" s="197"/>
+      <c r="AI16" s="200"/>
       <c r="AJ16" s="40">
         <v>0.91729998588562001</v>
       </c>
@@ -25133,10 +25133,10 @@
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="176"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="197"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="61" t="s">
         <v>1</v>
       </c>
@@ -25164,9 +25164,9 @@
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="195"/>
-      <c r="U17" s="202"/>
-      <c r="V17" s="202"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="197"/>
+      <c r="V17" s="197"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
       <c r="Y17" s="34"/>
@@ -25175,11 +25175,11 @@
       <c r="AB17" s="34"/>
       <c r="AC17" s="34"/>
       <c r="AD17" s="34"/>
-      <c r="AE17" s="202"/>
-      <c r="AF17" s="202"/>
-      <c r="AG17" s="202"/>
-      <c r="AH17" s="202"/>
-      <c r="AI17" s="195"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="197"/>
+      <c r="AH17" s="197"/>
+      <c r="AI17" s="200"/>
       <c r="AJ17" s="60">
         <v>0.92489999532699496</v>
       </c>
@@ -25188,10 +25188,10 @@
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="199"/>
-      <c r="B18" s="202"/>
-      <c r="C18" s="202"/>
-      <c r="D18" s="176"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="50" t="s">
         <v>1</v>
       </c>
@@ -25219,9 +25219,9 @@
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="195"/>
-      <c r="U18" s="202"/>
-      <c r="V18" s="202"/>
+      <c r="T18" s="200"/>
+      <c r="U18" s="197"/>
+      <c r="V18" s="197"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
       <c r="Y18" s="34"/>
@@ -25230,11 +25230,11 @@
       <c r="AB18" s="34"/>
       <c r="AC18" s="34"/>
       <c r="AD18" s="34"/>
-      <c r="AE18" s="202"/>
-      <c r="AF18" s="202"/>
-      <c r="AG18" s="202"/>
-      <c r="AH18" s="202"/>
-      <c r="AI18" s="195"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="197"/>
+      <c r="AH18" s="197"/>
+      <c r="AI18" s="200"/>
       <c r="AJ18" s="40">
         <v>0.92129999399185103</v>
       </c>
@@ -25243,10 +25243,10 @@
       </c>
     </row>
     <row r="19" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="199"/>
-      <c r="B19" s="202"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="176"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="55" t="s">
         <v>1</v>
       </c>
@@ -25274,9 +25274,9 @@
       <c r="Q19" s="58"/>
       <c r="R19" s="58"/>
       <c r="S19" s="58"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="202"/>
-      <c r="V19" s="202"/>
+      <c r="T19" s="200"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
       <c r="Y19" s="34"/>
@@ -25285,11 +25285,11 @@
       <c r="AB19" s="34"/>
       <c r="AC19" s="34"/>
       <c r="AD19" s="34"/>
-      <c r="AE19" s="202"/>
-      <c r="AF19" s="202"/>
-      <c r="AG19" s="202"/>
-      <c r="AH19" s="202"/>
-      <c r="AI19" s="195"/>
+      <c r="AE19" s="197"/>
+      <c r="AF19" s="197"/>
+      <c r="AG19" s="197"/>
+      <c r="AH19" s="197"/>
+      <c r="AI19" s="200"/>
       <c r="AJ19" s="59">
         <v>0.92479997873306197</v>
       </c>
@@ -25298,16 +25298,16 @@
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="198">
+      <c r="A20" s="211">
         <v>4</v>
       </c>
-      <c r="B20" s="201">
+      <c r="B20" s="196">
         <v>5</v>
       </c>
-      <c r="C20" s="201">
+      <c r="C20" s="196">
         <v>64</v>
       </c>
-      <c r="D20" s="175"/>
+      <c r="D20" s="174"/>
       <c r="E20" s="51" t="s">
         <v>1</v>
       </c>
@@ -25335,13 +25335,13 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
       <c r="S20" s="39"/>
-      <c r="T20" s="194" t="s">
+      <c r="T20" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="201">
+      <c r="U20" s="196">
         <v>128</v>
       </c>
-      <c r="V20" s="201" t="s">
+      <c r="V20" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W20" s="43"/>
@@ -25352,19 +25352,19 @@
       <c r="AB20" s="43"/>
       <c r="AC20" s="43"/>
       <c r="AD20" s="43"/>
-      <c r="AE20" s="201">
+      <c r="AE20" s="196">
         <v>10</v>
       </c>
-      <c r="AF20" s="201" t="s">
+      <c r="AF20" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG20" s="201" t="s">
+      <c r="AG20" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH20" s="201">
+      <c r="AH20" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI20" s="194" t="s">
+      <c r="AI20" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ20" s="38">
@@ -25375,10 +25375,10 @@
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
-      <c r="B21" s="202"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="176"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="175"/>
       <c r="E21" s="50" t="s">
         <v>1</v>
       </c>
@@ -25406,9 +25406,9 @@
       <c r="Q21" s="35"/>
       <c r="R21" s="35"/>
       <c r="S21" s="35"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="202"/>
-      <c r="V21" s="202"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
       <c r="Y21" s="34"/>
@@ -25417,11 +25417,11 @@
       <c r="AB21" s="34"/>
       <c r="AC21" s="34"/>
       <c r="AD21" s="34"/>
-      <c r="AE21" s="202"/>
-      <c r="AF21" s="202"/>
-      <c r="AG21" s="202"/>
-      <c r="AH21" s="202"/>
-      <c r="AI21" s="195"/>
+      <c r="AE21" s="197"/>
+      <c r="AF21" s="197"/>
+      <c r="AG21" s="197"/>
+      <c r="AH21" s="197"/>
+      <c r="AI21" s="200"/>
       <c r="AJ21" s="4">
         <v>0.91170001029968195</v>
       </c>
@@ -25430,10 +25430,10 @@
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
-      <c r="B22" s="202"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="176"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="50" t="s">
         <v>1</v>
       </c>
@@ -25461,9 +25461,9 @@
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
-      <c r="T22" s="195"/>
-      <c r="U22" s="202"/>
-      <c r="V22" s="202"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="197"/>
+      <c r="V22" s="197"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
       <c r="Y22" s="34"/>
@@ -25472,11 +25472,11 @@
       <c r="AB22" s="34"/>
       <c r="AC22" s="34"/>
       <c r="AD22" s="34"/>
-      <c r="AE22" s="202"/>
-      <c r="AF22" s="202"/>
-      <c r="AG22" s="202"/>
-      <c r="AH22" s="202"/>
-      <c r="AI22" s="195"/>
+      <c r="AE22" s="197"/>
+      <c r="AF22" s="197"/>
+      <c r="AG22" s="197"/>
+      <c r="AH22" s="197"/>
+      <c r="AI22" s="200"/>
       <c r="AJ22" s="4">
         <v>0.92229998111724798</v>
       </c>
@@ -25485,10 +25485,10 @@
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="176"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="61" t="s">
         <v>1</v>
       </c>
@@ -25516,9 +25516,9 @@
       <c r="Q23" s="35"/>
       <c r="R23" s="35"/>
       <c r="S23" s="35"/>
-      <c r="T23" s="195"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="197"/>
+      <c r="V23" s="197"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
       <c r="Y23" s="34"/>
@@ -25527,11 +25527,11 @@
       <c r="AB23" s="34"/>
       <c r="AC23" s="34"/>
       <c r="AD23" s="34"/>
-      <c r="AE23" s="202"/>
-      <c r="AF23" s="202"/>
-      <c r="AG23" s="202"/>
-      <c r="AH23" s="202"/>
-      <c r="AI23" s="195"/>
+      <c r="AE23" s="197"/>
+      <c r="AF23" s="197"/>
+      <c r="AG23" s="197"/>
+      <c r="AH23" s="197"/>
+      <c r="AI23" s="200"/>
       <c r="AJ23" s="62">
         <v>0.92610001564025801</v>
       </c>
@@ -25540,10 +25540,10 @@
       </c>
     </row>
     <row r="24" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="200"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="177"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="176"/>
       <c r="E24" s="52" t="s">
         <v>1</v>
       </c>
@@ -25571,9 +25571,9 @@
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
       <c r="S24" s="53"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="202"/>
-      <c r="V24" s="202"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
       <c r="Y24" s="34"/>
@@ -25582,11 +25582,11 @@
       <c r="AB24" s="34"/>
       <c r="AC24" s="34"/>
       <c r="AD24" s="34"/>
-      <c r="AE24" s="202"/>
-      <c r="AF24" s="202"/>
-      <c r="AG24" s="202"/>
-      <c r="AH24" s="202"/>
-      <c r="AI24" s="195"/>
+      <c r="AE24" s="197"/>
+      <c r="AF24" s="197"/>
+      <c r="AG24" s="197"/>
+      <c r="AH24" s="197"/>
+      <c r="AI24" s="200"/>
       <c r="AJ24" s="41">
         <v>0.92439997196197499</v>
       </c>
@@ -25595,16 +25595,16 @@
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="198">
+      <c r="A25" s="211">
         <v>5</v>
       </c>
-      <c r="B25" s="201">
+      <c r="B25" s="196">
         <v>5</v>
       </c>
-      <c r="C25" s="201">
+      <c r="C25" s="196">
         <v>64</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="51" t="s">
         <v>1</v>
       </c>
@@ -25632,13 +25632,13 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="39"/>
       <c r="S25" s="39"/>
-      <c r="T25" s="194" t="s">
+      <c r="T25" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U25" s="201">
+      <c r="U25" s="196">
         <v>128</v>
       </c>
-      <c r="V25" s="201" t="s">
+      <c r="V25" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="43"/>
@@ -25649,19 +25649,19 @@
       <c r="AB25" s="43"/>
       <c r="AC25" s="43"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="201">
+      <c r="AE25" s="196">
         <v>10</v>
       </c>
-      <c r="AF25" s="201" t="s">
+      <c r="AF25" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG25" s="201" t="s">
+      <c r="AG25" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH25" s="201">
+      <c r="AH25" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI25" s="194" t="s">
+      <c r="AI25" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ25" s="38">
@@ -25672,10 +25672,10 @@
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="176"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="50" t="s">
         <v>1</v>
       </c>
@@ -25703,9 +25703,9 @@
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
       <c r="S26" s="35"/>
-      <c r="T26" s="195"/>
-      <c r="U26" s="202"/>
-      <c r="V26" s="202"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
       <c r="W26" s="34"/>
       <c r="X26" s="34"/>
       <c r="Y26" s="34"/>
@@ -25714,11 +25714,11 @@
       <c r="AB26" s="34"/>
       <c r="AC26" s="34"/>
       <c r="AD26" s="34"/>
-      <c r="AE26" s="202"/>
-      <c r="AF26" s="202"/>
-      <c r="AG26" s="202"/>
-      <c r="AH26" s="202"/>
-      <c r="AI26" s="195"/>
+      <c r="AE26" s="197"/>
+      <c r="AF26" s="197"/>
+      <c r="AG26" s="197"/>
+      <c r="AH26" s="197"/>
+      <c r="AI26" s="200"/>
       <c r="AJ26" s="4">
         <v>0.92280000448226895</v>
       </c>
@@ -25727,10 +25727,10 @@
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="176"/>
+      <c r="A27" s="212"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="50" t="s">
         <v>1</v>
       </c>
@@ -25758,9 +25758,9 @@
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
       <c r="S27" s="35"/>
-      <c r="T27" s="195"/>
-      <c r="U27" s="202"/>
-      <c r="V27" s="202"/>
+      <c r="T27" s="200"/>
+      <c r="U27" s="197"/>
+      <c r="V27" s="197"/>
       <c r="W27" s="34"/>
       <c r="X27" s="34"/>
       <c r="Y27" s="34"/>
@@ -25769,11 +25769,11 @@
       <c r="AB27" s="34"/>
       <c r="AC27" s="34"/>
       <c r="AD27" s="34"/>
-      <c r="AE27" s="202"/>
-      <c r="AF27" s="202"/>
-      <c r="AG27" s="202"/>
-      <c r="AH27" s="202"/>
-      <c r="AI27" s="195"/>
+      <c r="AE27" s="197"/>
+      <c r="AF27" s="197"/>
+      <c r="AG27" s="197"/>
+      <c r="AH27" s="197"/>
+      <c r="AI27" s="200"/>
       <c r="AJ27" s="4">
         <v>0.92229998111724798</v>
       </c>
@@ -25782,10 +25782,10 @@
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
-      <c r="B28" s="202"/>
-      <c r="C28" s="202"/>
-      <c r="D28" s="176"/>
+      <c r="A28" s="212"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="50" t="s">
         <v>1</v>
       </c>
@@ -25813,9 +25813,9 @@
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="202"/>
-      <c r="V28" s="202"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="197"/>
       <c r="W28" s="34"/>
       <c r="X28" s="34"/>
       <c r="Y28" s="34"/>
@@ -25824,11 +25824,11 @@
       <c r="AB28" s="34"/>
       <c r="AC28" s="34"/>
       <c r="AD28" s="34"/>
-      <c r="AE28" s="202"/>
-      <c r="AF28" s="202"/>
-      <c r="AG28" s="202"/>
-      <c r="AH28" s="202"/>
-      <c r="AI28" s="195"/>
+      <c r="AE28" s="197"/>
+      <c r="AF28" s="197"/>
+      <c r="AG28" s="197"/>
+      <c r="AH28" s="197"/>
+      <c r="AI28" s="200"/>
       <c r="AJ28" s="4">
         <v>0.91780000925063998</v>
       </c>
@@ -25837,10 +25837,10 @@
       </c>
     </row>
     <row r="29" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="200"/>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="177"/>
+      <c r="A29" s="213"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="176"/>
       <c r="E29" s="85" t="s">
         <v>1</v>
       </c>
@@ -25868,9 +25868,9 @@
       <c r="Q29" s="53"/>
       <c r="R29" s="53"/>
       <c r="S29" s="53"/>
-      <c r="T29" s="195"/>
-      <c r="U29" s="202"/>
-      <c r="V29" s="202"/>
+      <c r="T29" s="200"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="197"/>
       <c r="W29" s="34"/>
       <c r="X29" s="34"/>
       <c r="Y29" s="34"/>
@@ -25879,11 +25879,11 @@
       <c r="AB29" s="34"/>
       <c r="AC29" s="34"/>
       <c r="AD29" s="34"/>
-      <c r="AE29" s="202"/>
-      <c r="AF29" s="202"/>
-      <c r="AG29" s="202"/>
-      <c r="AH29" s="202"/>
-      <c r="AI29" s="195"/>
+      <c r="AE29" s="197"/>
+      <c r="AF29" s="197"/>
+      <c r="AG29" s="197"/>
+      <c r="AH29" s="197"/>
+      <c r="AI29" s="200"/>
       <c r="AJ29" s="83">
         <v>0.92510002851486195</v>
       </c>
@@ -25892,16 +25892,16 @@
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="198">
+      <c r="A30" s="211">
         <v>6</v>
       </c>
-      <c r="B30" s="201">
+      <c r="B30" s="196">
         <v>5</v>
       </c>
-      <c r="C30" s="201">
+      <c r="C30" s="196">
         <v>64</v>
       </c>
-      <c r="D30" s="175"/>
+      <c r="D30" s="174"/>
       <c r="E30" s="51" t="s">
         <v>1</v>
       </c>
@@ -25929,13 +25929,13 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="39"/>
       <c r="S30" s="39"/>
-      <c r="T30" s="194" t="s">
+      <c r="T30" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U30" s="201">
+      <c r="U30" s="196">
         <v>128</v>
       </c>
-      <c r="V30" s="201" t="s">
+      <c r="V30" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W30" s="43"/>
@@ -25946,19 +25946,19 @@
       <c r="AB30" s="43"/>
       <c r="AC30" s="43"/>
       <c r="AD30" s="43"/>
-      <c r="AE30" s="201">
+      <c r="AE30" s="196">
         <v>10</v>
       </c>
-      <c r="AF30" s="201" t="s">
+      <c r="AF30" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG30" s="201" t="s">
+      <c r="AG30" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH30" s="201">
+      <c r="AH30" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI30" s="194" t="s">
+      <c r="AI30" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ30" s="38">
@@ -25969,10 +25969,10 @@
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="176"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="50" t="s">
         <v>1</v>
       </c>
@@ -26000,9 +26000,9 @@
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
-      <c r="T31" s="195"/>
-      <c r="U31" s="202"/>
-      <c r="V31" s="202"/>
+      <c r="T31" s="200"/>
+      <c r="U31" s="197"/>
+      <c r="V31" s="197"/>
       <c r="W31" s="34"/>
       <c r="X31" s="34"/>
       <c r="Y31" s="34"/>
@@ -26011,11 +26011,11 @@
       <c r="AB31" s="34"/>
       <c r="AC31" s="34"/>
       <c r="AD31" s="34"/>
-      <c r="AE31" s="202"/>
-      <c r="AF31" s="202"/>
-      <c r="AG31" s="202"/>
-      <c r="AH31" s="202"/>
-      <c r="AI31" s="195"/>
+      <c r="AE31" s="197"/>
+      <c r="AF31" s="197"/>
+      <c r="AG31" s="197"/>
+      <c r="AH31" s="197"/>
+      <c r="AI31" s="200"/>
       <c r="AJ31" s="4">
         <v>0.92129999399185103</v>
       </c>
@@ -26024,10 +26024,10 @@
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
-      <c r="B32" s="202"/>
-      <c r="C32" s="202"/>
-      <c r="D32" s="176"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="50" t="s">
         <v>1</v>
       </c>
@@ -26055,9 +26055,9 @@
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
       <c r="S32" s="35"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="202"/>
-      <c r="V32" s="202"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="197"/>
+      <c r="V32" s="197"/>
       <c r="W32" s="34"/>
       <c r="X32" s="34"/>
       <c r="Y32" s="34"/>
@@ -26066,11 +26066,11 @@
       <c r="AB32" s="34"/>
       <c r="AC32" s="34"/>
       <c r="AD32" s="34"/>
-      <c r="AE32" s="202"/>
-      <c r="AF32" s="202"/>
-      <c r="AG32" s="202"/>
-      <c r="AH32" s="202"/>
-      <c r="AI32" s="195"/>
+      <c r="AE32" s="197"/>
+      <c r="AF32" s="197"/>
+      <c r="AG32" s="197"/>
+      <c r="AH32" s="197"/>
+      <c r="AI32" s="200"/>
       <c r="AJ32" s="4">
         <v>0.92409998178482</v>
       </c>
@@ -26079,10 +26079,10 @@
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="176"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="61" t="s">
         <v>1</v>
       </c>
@@ -26110,9 +26110,9 @@
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
       <c r="S33" s="35"/>
-      <c r="T33" s="195"/>
-      <c r="U33" s="202"/>
-      <c r="V33" s="202"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
       <c r="W33" s="34"/>
       <c r="X33" s="34"/>
       <c r="Y33" s="34"/>
@@ -26121,11 +26121,11 @@
       <c r="AB33" s="34"/>
       <c r="AC33" s="34"/>
       <c r="AD33" s="34"/>
-      <c r="AE33" s="202"/>
-      <c r="AF33" s="202"/>
-      <c r="AG33" s="202"/>
-      <c r="AH33" s="202"/>
-      <c r="AI33" s="195"/>
+      <c r="AE33" s="197"/>
+      <c r="AF33" s="197"/>
+      <c r="AG33" s="197"/>
+      <c r="AH33" s="197"/>
+      <c r="AI33" s="200"/>
       <c r="AJ33" s="62">
         <v>0.92430001497268599</v>
       </c>
@@ -26134,10 +26134,10 @@
       </c>
     </row>
     <row r="34" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="200"/>
-      <c r="B34" s="203"/>
-      <c r="C34" s="203"/>
-      <c r="D34" s="177"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="176"/>
       <c r="E34" s="52" t="s">
         <v>1</v>
       </c>
@@ -26165,9 +26165,9 @@
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
       <c r="S34" s="53"/>
-      <c r="T34" s="195"/>
-      <c r="U34" s="202"/>
-      <c r="V34" s="202"/>
+      <c r="T34" s="200"/>
+      <c r="U34" s="197"/>
+      <c r="V34" s="197"/>
       <c r="W34" s="34"/>
       <c r="X34" s="34"/>
       <c r="Y34" s="34"/>
@@ -26176,11 +26176,11 @@
       <c r="AB34" s="34"/>
       <c r="AC34" s="34"/>
       <c r="AD34" s="34"/>
-      <c r="AE34" s="202"/>
-      <c r="AF34" s="202"/>
-      <c r="AG34" s="202"/>
-      <c r="AH34" s="202"/>
-      <c r="AI34" s="195"/>
+      <c r="AE34" s="197"/>
+      <c r="AF34" s="197"/>
+      <c r="AG34" s="197"/>
+      <c r="AH34" s="197"/>
+      <c r="AI34" s="200"/>
       <c r="AJ34" s="41">
         <v>0.92009997367858798</v>
       </c>
@@ -26189,16 +26189,16 @@
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="198">
+      <c r="A35" s="211">
         <v>7</v>
       </c>
-      <c r="B35" s="201">
+      <c r="B35" s="196">
         <v>5</v>
       </c>
-      <c r="C35" s="201">
+      <c r="C35" s="196">
         <v>64</v>
       </c>
-      <c r="D35" s="175"/>
+      <c r="D35" s="174"/>
       <c r="E35" s="51" t="s">
         <v>1</v>
       </c>
@@ -26226,13 +26226,13 @@
       <c r="Q35" s="39"/>
       <c r="R35" s="39"/>
       <c r="S35" s="39"/>
-      <c r="T35" s="194" t="s">
+      <c r="T35" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="U35" s="201">
+      <c r="U35" s="196">
         <v>128</v>
       </c>
-      <c r="V35" s="201" t="s">
+      <c r="V35" s="196" t="s">
         <v>21</v>
       </c>
       <c r="W35" s="43"/>
@@ -26243,19 +26243,19 @@
       <c r="AB35" s="43"/>
       <c r="AC35" s="43"/>
       <c r="AD35" s="43"/>
-      <c r="AE35" s="201">
+      <c r="AE35" s="196">
         <v>10</v>
       </c>
-      <c r="AF35" s="201" t="s">
+      <c r="AF35" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="AG35" s="201" t="s">
+      <c r="AG35" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="AH35" s="201">
+      <c r="AH35" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI35" s="194" t="s">
+      <c r="AI35" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ35" s="38">
@@ -26266,10 +26266,10 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="199"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="176"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="197"/>
+      <c r="C36" s="197"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="50" t="s">
         <v>1</v>
       </c>
@@ -26297,9 +26297,9 @@
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
       <c r="S36" s="35"/>
-      <c r="T36" s="195"/>
-      <c r="U36" s="202"/>
-      <c r="V36" s="202"/>
+      <c r="T36" s="200"/>
+      <c r="U36" s="197"/>
+      <c r="V36" s="197"/>
       <c r="W36" s="34"/>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
@@ -26308,11 +26308,11 @@
       <c r="AB36" s="34"/>
       <c r="AC36" s="34"/>
       <c r="AD36" s="34"/>
-      <c r="AE36" s="202"/>
-      <c r="AF36" s="202"/>
-      <c r="AG36" s="202"/>
-      <c r="AH36" s="202"/>
-      <c r="AI36" s="195"/>
+      <c r="AE36" s="197"/>
+      <c r="AF36" s="197"/>
+      <c r="AG36" s="197"/>
+      <c r="AH36" s="197"/>
+      <c r="AI36" s="200"/>
       <c r="AJ36" s="4">
         <v>0.92009997367858798</v>
       </c>
@@ -26321,10 +26321,10 @@
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="176"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="61" t="s">
         <v>1</v>
       </c>
@@ -26352,9 +26352,9 @@
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
-      <c r="T37" s="195"/>
-      <c r="U37" s="202"/>
-      <c r="V37" s="202"/>
+      <c r="T37" s="200"/>
+      <c r="U37" s="197"/>
+      <c r="V37" s="197"/>
       <c r="W37" s="34"/>
       <c r="X37" s="34"/>
       <c r="Y37" s="34"/>
@@ -26363,11 +26363,11 @@
       <c r="AB37" s="34"/>
       <c r="AC37" s="34"/>
       <c r="AD37" s="34"/>
-      <c r="AE37" s="202"/>
-      <c r="AF37" s="202"/>
-      <c r="AG37" s="202"/>
-      <c r="AH37" s="202"/>
-      <c r="AI37" s="195"/>
+      <c r="AE37" s="197"/>
+      <c r="AF37" s="197"/>
+      <c r="AG37" s="197"/>
+      <c r="AH37" s="197"/>
+      <c r="AI37" s="200"/>
       <c r="AJ37" s="62">
         <v>0.92390000820159901</v>
       </c>
@@ -26376,10 +26376,10 @@
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="176"/>
+      <c r="A38" s="212"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="50" t="s">
         <v>1</v>
       </c>
@@ -26407,9 +26407,9 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="195"/>
-      <c r="U38" s="202"/>
-      <c r="V38" s="202"/>
+      <c r="T38" s="200"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="197"/>
       <c r="W38" s="34"/>
       <c r="X38" s="34"/>
       <c r="Y38" s="34"/>
@@ -26418,11 +26418,11 @@
       <c r="AB38" s="34"/>
       <c r="AC38" s="34"/>
       <c r="AD38" s="34"/>
-      <c r="AE38" s="202"/>
-      <c r="AF38" s="202"/>
-      <c r="AG38" s="202"/>
-      <c r="AH38" s="202"/>
-      <c r="AI38" s="195"/>
+      <c r="AE38" s="197"/>
+      <c r="AF38" s="197"/>
+      <c r="AG38" s="197"/>
+      <c r="AH38" s="197"/>
+      <c r="AI38" s="200"/>
       <c r="AJ38" s="4">
         <v>0.91879999637603704</v>
       </c>
@@ -26431,10 +26431,10 @@
       </c>
     </row>
     <row r="39" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="199"/>
-      <c r="B39" s="202"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="176"/>
+      <c r="A39" s="212"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="55" t="s">
         <v>1</v>
       </c>
@@ -26462,9 +26462,9 @@
       <c r="Q39" s="58"/>
       <c r="R39" s="58"/>
       <c r="S39" s="58"/>
-      <c r="T39" s="195"/>
-      <c r="U39" s="202"/>
-      <c r="V39" s="202"/>
+      <c r="T39" s="200"/>
+      <c r="U39" s="197"/>
+      <c r="V39" s="197"/>
       <c r="W39" s="34"/>
       <c r="X39" s="34"/>
       <c r="Y39" s="34"/>
@@ -26473,11 +26473,11 @@
       <c r="AB39" s="34"/>
       <c r="AC39" s="34"/>
       <c r="AD39" s="34"/>
-      <c r="AE39" s="202"/>
-      <c r="AF39" s="202"/>
-      <c r="AG39" s="202"/>
-      <c r="AH39" s="202"/>
-      <c r="AI39" s="195"/>
+      <c r="AE39" s="197"/>
+      <c r="AF39" s="197"/>
+      <c r="AG39" s="197"/>
+      <c r="AH39" s="197"/>
+      <c r="AI39" s="200"/>
       <c r="AJ39" s="56">
         <v>0.92199999094009399</v>
       </c>
@@ -26486,32 +26486,32 @@
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="191">
+      <c r="A40" s="202">
         <v>8</v>
       </c>
-      <c r="B40" s="182">
+      <c r="B40" s="188">
         <v>5</v>
       </c>
-      <c r="C40" s="182">
+      <c r="C40" s="188">
         <v>64</v>
       </c>
-      <c r="D40" s="171"/>
-      <c r="E40" s="188" t="s">
+      <c r="D40" s="170"/>
+      <c r="E40" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="188">
+      <c r="F40" s="205">
         <v>32</v>
       </c>
-      <c r="G40" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="188" t="s">
+      <c r="G40" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I40" s="188">
+      <c r="I40" s="205">
         <v>128</v>
       </c>
-      <c r="J40" s="188" t="s">
+      <c r="J40" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K40" s="42"/>
@@ -26540,16 +26540,16 @@
       <c r="AB40" s="39"/>
       <c r="AC40" s="39"/>
       <c r="AD40" s="39"/>
-      <c r="AE40" s="182">
+      <c r="AE40" s="188">
         <v>10</v>
       </c>
-      <c r="AF40" s="182" t="s">
+      <c r="AF40" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG40" s="182" t="s">
+      <c r="AG40" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH40" s="182">
+      <c r="AH40" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI40" s="185" t="s">
@@ -26563,16 +26563,16 @@
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="192"/>
-      <c r="B41" s="183"/>
-      <c r="C41" s="183"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
+      <c r="A41" s="203"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="206"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
@@ -26601,10 +26601,10 @@
       <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
       <c r="AD41" s="35"/>
-      <c r="AE41" s="183"/>
-      <c r="AF41" s="183"/>
-      <c r="AG41" s="183"/>
-      <c r="AH41" s="183"/>
+      <c r="AE41" s="189"/>
+      <c r="AF41" s="189"/>
+      <c r="AG41" s="189"/>
+      <c r="AH41" s="189"/>
       <c r="AI41" s="186"/>
       <c r="AJ41" s="62">
         <v>0.92820000648498502</v>
@@ -26614,16 +26614,16 @@
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="192"/>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
+      <c r="A42" s="203"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="206"/>
+      <c r="F42" s="206"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="206"/>
+      <c r="I42" s="206"/>
+      <c r="J42" s="206"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
@@ -26656,10 +26656,10 @@
       <c r="AB42" s="35"/>
       <c r="AC42" s="35"/>
       <c r="AD42" s="35"/>
-      <c r="AE42" s="183"/>
-      <c r="AF42" s="183"/>
-      <c r="AG42" s="183"/>
-      <c r="AH42" s="183"/>
+      <c r="AE42" s="189"/>
+      <c r="AF42" s="189"/>
+      <c r="AG42" s="189"/>
+      <c r="AH42" s="189"/>
       <c r="AI42" s="186"/>
       <c r="AJ42" s="4">
         <v>0.92320001125335605</v>
@@ -26669,16 +26669,16 @@
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A43" s="192"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="172"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
+      <c r="A43" s="203"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="206"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="206"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -26715,10 +26715,10 @@
       </c>
       <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
-      <c r="AE43" s="183"/>
-      <c r="AF43" s="183"/>
-      <c r="AG43" s="183"/>
-      <c r="AH43" s="183"/>
+      <c r="AE43" s="189"/>
+      <c r="AF43" s="189"/>
+      <c r="AG43" s="189"/>
+      <c r="AH43" s="189"/>
       <c r="AI43" s="186"/>
       <c r="AJ43" s="4">
         <v>0.91189998388290405</v>
@@ -26728,16 +26728,16 @@
       </c>
     </row>
     <row r="44" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="193"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="174"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
+      <c r="A44" s="208"/>
+      <c r="B44" s="195"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="209"/>
+      <c r="I44" s="209"/>
+      <c r="J44" s="209"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
@@ -26747,7 +26747,7 @@
       <c r="Q44" s="36"/>
       <c r="R44" s="36"/>
       <c r="S44" s="36"/>
-      <c r="T44" s="187"/>
+      <c r="T44" s="194"/>
       <c r="U44" s="56">
         <v>128</v>
       </c>
@@ -26778,11 +26778,11 @@
       <c r="AD44" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="AE44" s="184"/>
-      <c r="AF44" s="184"/>
-      <c r="AG44" s="184"/>
-      <c r="AH44" s="184"/>
-      <c r="AI44" s="187"/>
+      <c r="AE44" s="195"/>
+      <c r="AF44" s="195"/>
+      <c r="AG44" s="195"/>
+      <c r="AH44" s="195"/>
+      <c r="AI44" s="194"/>
       <c r="AJ44" s="56">
         <v>0.92280000448226895</v>
       </c>
@@ -26791,32 +26791,32 @@
       </c>
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="191">
+      <c r="A45" s="202">
         <v>9</v>
       </c>
-      <c r="B45" s="182">
+      <c r="B45" s="188">
         <v>5</v>
       </c>
-      <c r="C45" s="182">
+      <c r="C45" s="188">
         <v>64</v>
       </c>
-      <c r="D45" s="171"/>
-      <c r="E45" s="188" t="s">
+      <c r="D45" s="170"/>
+      <c r="E45" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="188">
+      <c r="F45" s="205">
         <v>32</v>
       </c>
-      <c r="G45" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="188" t="s">
+      <c r="G45" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="188">
+      <c r="I45" s="205">
         <v>128</v>
       </c>
-      <c r="J45" s="188" t="s">
+      <c r="J45" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K45" s="42"/>
@@ -26843,22 +26843,22 @@
       <c r="X45" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="38"/>
-      <c r="AD45" s="38"/>
-      <c r="AE45" s="182">
+      <c r="Y45" s="39"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="188">
         <v>10</v>
       </c>
-      <c r="AF45" s="182" t="s">
+      <c r="AF45" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG45" s="182" t="s">
+      <c r="AG45" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH45" s="182">
+      <c r="AH45" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI45" s="185" t="s">
@@ -26872,16 +26872,16 @@
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="192"/>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="172"/>
-      <c r="E46" s="189"/>
-      <c r="F46" s="189"/>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
-      <c r="I46" s="189"/>
-      <c r="J46" s="189"/>
+      <c r="A46" s="203"/>
+      <c r="B46" s="189"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="206"/>
+      <c r="F46" s="206"/>
+      <c r="G46" s="206"/>
+      <c r="H46" s="206"/>
+      <c r="I46" s="206"/>
+      <c r="J46" s="206"/>
       <c r="K46" s="32"/>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -26904,16 +26904,16 @@
       <c r="X46" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="183"/>
-      <c r="AF46" s="183"/>
-      <c r="AG46" s="183"/>
-      <c r="AH46" s="183"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="189"/>
+      <c r="AF46" s="189"/>
+      <c r="AG46" s="189"/>
+      <c r="AH46" s="189"/>
       <c r="AI46" s="186"/>
       <c r="AJ46" s="4">
         <v>0.910700023174285</v>
@@ -26923,16 +26923,16 @@
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="192"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="189"/>
-      <c r="J47" s="189"/>
+      <c r="A47" s="203"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="206"/>
+      <c r="F47" s="206"/>
+      <c r="G47" s="206"/>
+      <c r="H47" s="206"/>
+      <c r="I47" s="206"/>
+      <c r="J47" s="206"/>
       <c r="K47" s="32"/>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
@@ -26955,16 +26955,16 @@
       <c r="X47" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-      <c r="AD47" s="4"/>
-      <c r="AE47" s="183"/>
-      <c r="AF47" s="183"/>
-      <c r="AG47" s="183"/>
-      <c r="AH47" s="183"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="189"/>
+      <c r="AF47" s="189"/>
+      <c r="AG47" s="189"/>
+      <c r="AH47" s="189"/>
       <c r="AI47" s="186"/>
       <c r="AJ47" s="4">
         <v>0.91149997711181596</v>
@@ -26974,16 +26974,16 @@
       </c>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="192"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="172"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="189"/>
+      <c r="A48" s="203"/>
+      <c r="B48" s="189"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="32"/>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
@@ -27006,16 +27006,16 @@
       <c r="X48" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-      <c r="AD48" s="4"/>
-      <c r="AE48" s="183"/>
-      <c r="AF48" s="183"/>
-      <c r="AG48" s="183"/>
-      <c r="AH48" s="183"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="189"/>
+      <c r="AF48" s="189"/>
+      <c r="AG48" s="189"/>
+      <c r="AH48" s="189"/>
       <c r="AI48" s="186"/>
       <c r="AJ48" s="62">
         <v>0.91600000858306796</v>
@@ -27025,10 +27025,10 @@
       </c>
     </row>
     <row r="49" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="206"/>
-      <c r="B49" s="204"/>
-      <c r="C49" s="204"/>
-      <c r="D49" s="173"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="190"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="172"/>
       <c r="E49" s="207"/>
       <c r="F49" s="207"/>
       <c r="G49" s="207"/>
@@ -27044,7 +27044,7 @@
       <c r="Q49" s="44"/>
       <c r="R49" s="44"/>
       <c r="S49" s="44"/>
-      <c r="T49" s="205"/>
+      <c r="T49" s="187"/>
       <c r="U49" s="89">
         <v>24</v>
       </c>
@@ -27057,17 +27057,17 @@
       <c r="X49" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Y49" s="41"/>
-      <c r="Z49" s="41"/>
-      <c r="AA49" s="41"/>
-      <c r="AB49" s="41"/>
-      <c r="AC49" s="41"/>
-      <c r="AD49" s="41"/>
-      <c r="AE49" s="204"/>
-      <c r="AF49" s="204"/>
-      <c r="AG49" s="204"/>
-      <c r="AH49" s="204"/>
-      <c r="AI49" s="205"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="53"/>
+      <c r="AA49" s="53"/>
+      <c r="AB49" s="53"/>
+      <c r="AC49" s="53"/>
+      <c r="AD49" s="53"/>
+      <c r="AE49" s="190"/>
+      <c r="AF49" s="190"/>
+      <c r="AG49" s="190"/>
+      <c r="AH49" s="190"/>
+      <c r="AI49" s="187"/>
       <c r="AJ49" s="41">
         <v>0.91060000658035201</v>
       </c>
@@ -27076,32 +27076,32 @@
       </c>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A50" s="191">
+      <c r="A50" s="202">
         <v>10</v>
       </c>
-      <c r="B50" s="182">
+      <c r="B50" s="188">
         <v>5</v>
       </c>
-      <c r="C50" s="182">
+      <c r="C50" s="188">
         <v>64</v>
       </c>
-      <c r="D50" s="171"/>
-      <c r="E50" s="188" t="s">
+      <c r="D50" s="170"/>
+      <c r="E50" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="188">
+      <c r="F50" s="205">
         <v>32</v>
       </c>
-      <c r="G50" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="188" t="s">
+      <c r="G50" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="188">
+      <c r="I50" s="205">
         <v>128</v>
       </c>
-      <c r="J50" s="188" t="s">
+      <c r="J50" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K50" s="42"/>
@@ -27128,22 +27128,22 @@
       <c r="X50" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="38"/>
-      <c r="AD50" s="38"/>
-      <c r="AE50" s="182">
+      <c r="Y50" s="39"/>
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="188">
         <v>10</v>
       </c>
-      <c r="AF50" s="182" t="s">
+      <c r="AF50" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG50" s="182" t="s">
+      <c r="AG50" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH50" s="182">
+      <c r="AH50" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI50" s="185" t="s">
@@ -27157,16 +27157,16 @@
       </c>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="192"/>
-      <c r="B51" s="183"/>
-      <c r="C51" s="183"/>
-      <c r="D51" s="172"/>
-      <c r="E51" s="189"/>
-      <c r="F51" s="189"/>
-      <c r="G51" s="189"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="189"/>
-      <c r="J51" s="189"/>
+      <c r="A51" s="203"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206"/>
       <c r="K51" s="32"/>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
@@ -27189,16 +27189,16 @@
       <c r="X51" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="183"/>
-      <c r="AF51" s="183"/>
-      <c r="AG51" s="183"/>
-      <c r="AH51" s="183"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35"/>
+      <c r="AE51" s="189"/>
+      <c r="AF51" s="189"/>
+      <c r="AG51" s="189"/>
+      <c r="AH51" s="189"/>
       <c r="AI51" s="186"/>
       <c r="AJ51" s="4">
         <v>0.91930001974105802</v>
@@ -27208,16 +27208,16 @@
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" s="192"/>
-      <c r="B52" s="183"/>
-      <c r="C52" s="183"/>
-      <c r="D52" s="172"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="189"/>
+      <c r="A52" s="203"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
@@ -27240,16 +27240,16 @@
       <c r="X52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="183"/>
-      <c r="AF52" s="183"/>
-      <c r="AG52" s="183"/>
-      <c r="AH52" s="183"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="189"/>
+      <c r="AF52" s="189"/>
+      <c r="AG52" s="189"/>
+      <c r="AH52" s="189"/>
       <c r="AI52" s="186"/>
       <c r="AJ52" s="4">
         <v>0.91720002889633101</v>
@@ -27259,16 +27259,16 @@
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A53" s="192"/>
-      <c r="B53" s="183"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="189"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="189"/>
-      <c r="J53" s="189"/>
+      <c r="A53" s="203"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="206"/>
+      <c r="F53" s="206"/>
+      <c r="G53" s="206"/>
+      <c r="H53" s="206"/>
+      <c r="I53" s="206"/>
+      <c r="J53" s="206"/>
       <c r="K53" s="32"/>
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
@@ -27291,16 +27291,16 @@
       <c r="X53" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="183"/>
-      <c r="AF53" s="183"/>
-      <c r="AG53" s="183"/>
-      <c r="AH53" s="183"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="189"/>
+      <c r="AF53" s="189"/>
+      <c r="AG53" s="189"/>
+      <c r="AH53" s="189"/>
       <c r="AI53" s="186"/>
       <c r="AJ53" s="62">
         <v>0.92000001668929998</v>
@@ -27310,10 +27310,10 @@
       </c>
     </row>
     <row r="54" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="206"/>
-      <c r="B54" s="204"/>
-      <c r="C54" s="204"/>
-      <c r="D54" s="173"/>
+      <c r="A54" s="204"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="172"/>
       <c r="E54" s="207"/>
       <c r="F54" s="207"/>
       <c r="G54" s="207"/>
@@ -27329,7 +27329,7 @@
       <c r="Q54" s="44"/>
       <c r="R54" s="44"/>
       <c r="S54" s="44"/>
-      <c r="T54" s="205"/>
+      <c r="T54" s="187"/>
       <c r="U54" s="89">
         <v>32</v>
       </c>
@@ -27342,17 +27342,17 @@
       <c r="X54" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-      <c r="AD54" s="41"/>
-      <c r="AE54" s="204"/>
-      <c r="AF54" s="204"/>
-      <c r="AG54" s="204"/>
-      <c r="AH54" s="204"/>
-      <c r="AI54" s="205"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="53"/>
+      <c r="AE54" s="190"/>
+      <c r="AF54" s="190"/>
+      <c r="AG54" s="190"/>
+      <c r="AH54" s="190"/>
+      <c r="AI54" s="187"/>
       <c r="AJ54" s="41">
         <v>0.91729998588562001</v>
       </c>
@@ -27361,32 +27361,32 @@
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A55" s="191">
+      <c r="A55" s="202">
         <v>11</v>
       </c>
-      <c r="B55" s="182">
+      <c r="B55" s="188">
         <v>5</v>
       </c>
-      <c r="C55" s="182">
+      <c r="C55" s="188">
         <v>64</v>
       </c>
-      <c r="D55" s="171"/>
-      <c r="E55" s="188" t="s">
+      <c r="D55" s="170"/>
+      <c r="E55" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F55" s="188">
+      <c r="F55" s="205">
         <v>32</v>
       </c>
-      <c r="G55" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H55" s="188" t="s">
+      <c r="G55" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I55" s="188">
+      <c r="I55" s="205">
         <v>128</v>
       </c>
-      <c r="J55" s="188" t="s">
+      <c r="J55" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K55" s="42"/>
@@ -27413,22 +27413,22 @@
       <c r="X55" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="38"/>
-      <c r="AD55" s="38"/>
-      <c r="AE55" s="182">
+      <c r="Y55" s="39"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="188">
         <v>10</v>
       </c>
-      <c r="AF55" s="182" t="s">
+      <c r="AF55" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG55" s="182" t="s">
+      <c r="AG55" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH55" s="182">
+      <c r="AH55" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI55" s="185" t="s">
@@ -27442,16 +27442,16 @@
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" s="192"/>
-      <c r="B56" s="183"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="189"/>
-      <c r="G56" s="189"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="189"/>
+      <c r="A56" s="203"/>
+      <c r="B56" s="189"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="206"/>
+      <c r="F56" s="206"/>
+      <c r="G56" s="206"/>
+      <c r="H56" s="206"/>
+      <c r="I56" s="206"/>
+      <c r="J56" s="206"/>
       <c r="K56" s="32"/>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
@@ -27474,16 +27474,16 @@
       <c r="X56" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="183"/>
-      <c r="AF56" s="183"/>
-      <c r="AG56" s="183"/>
-      <c r="AH56" s="183"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+      <c r="AB56" s="35"/>
+      <c r="AC56" s="35"/>
+      <c r="AD56" s="35"/>
+      <c r="AE56" s="189"/>
+      <c r="AF56" s="189"/>
+      <c r="AG56" s="189"/>
+      <c r="AH56" s="189"/>
       <c r="AI56" s="186"/>
       <c r="AJ56" s="4">
         <v>0.91710001230239802</v>
@@ -27493,16 +27493,16 @@
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A57" s="192"/>
-      <c r="B57" s="183"/>
-      <c r="C57" s="183"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="189"/>
-      <c r="H57" s="189"/>
-      <c r="I57" s="189"/>
-      <c r="J57" s="189"/>
+      <c r="A57" s="203"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="206"/>
+      <c r="F57" s="206"/>
+      <c r="G57" s="206"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="206"/>
       <c r="K57" s="32"/>
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
@@ -27525,16 +27525,16 @@
       <c r="X57" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="183"/>
-      <c r="AF57" s="183"/>
-      <c r="AG57" s="183"/>
-      <c r="AH57" s="183"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+      <c r="AB57" s="35"/>
+      <c r="AC57" s="35"/>
+      <c r="AD57" s="35"/>
+      <c r="AE57" s="189"/>
+      <c r="AF57" s="189"/>
+      <c r="AG57" s="189"/>
+      <c r="AH57" s="189"/>
       <c r="AI57" s="186"/>
       <c r="AJ57" s="4">
         <v>0.91109997034072798</v>
@@ -27544,16 +27544,16 @@
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A58" s="192"/>
-      <c r="B58" s="183"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="189"/>
+      <c r="A58" s="203"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="189"/>
+      <c r="D58" s="171"/>
+      <c r="E58" s="206"/>
+      <c r="F58" s="206"/>
+      <c r="G58" s="206"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="206"/>
+      <c r="J58" s="206"/>
       <c r="K58" s="32"/>
       <c r="L58" s="32"/>
       <c r="M58" s="32"/>
@@ -27576,16 +27576,16 @@
       <c r="X58" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="183"/>
-      <c r="AF58" s="183"/>
-      <c r="AG58" s="183"/>
-      <c r="AH58" s="183"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+      <c r="AB58" s="35"/>
+      <c r="AC58" s="35"/>
+      <c r="AD58" s="35"/>
+      <c r="AE58" s="189"/>
+      <c r="AF58" s="189"/>
+      <c r="AG58" s="189"/>
+      <c r="AH58" s="189"/>
       <c r="AI58" s="186"/>
       <c r="AJ58" s="4">
         <v>0.91850000619888295</v>
@@ -27595,10 +27595,10 @@
       </c>
     </row>
     <row r="59" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="206"/>
-      <c r="B59" s="204"/>
-      <c r="C59" s="204"/>
-      <c r="D59" s="173"/>
+      <c r="A59" s="204"/>
+      <c r="B59" s="190"/>
+      <c r="C59" s="190"/>
+      <c r="D59" s="172"/>
       <c r="E59" s="207"/>
       <c r="F59" s="207"/>
       <c r="G59" s="207"/>
@@ -27614,7 +27614,7 @@
       <c r="Q59" s="44"/>
       <c r="R59" s="44"/>
       <c r="S59" s="44"/>
-      <c r="T59" s="205"/>
+      <c r="T59" s="187"/>
       <c r="U59" s="83">
         <v>64</v>
       </c>
@@ -27627,17 +27627,17 @@
       <c r="X59" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="Y59" s="41"/>
-      <c r="Z59" s="41"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="41"/>
-      <c r="AC59" s="41"/>
-      <c r="AD59" s="41"/>
-      <c r="AE59" s="204"/>
-      <c r="AF59" s="204"/>
-      <c r="AG59" s="204"/>
-      <c r="AH59" s="204"/>
-      <c r="AI59" s="205"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="53"/>
+      <c r="AE59" s="190"/>
+      <c r="AF59" s="190"/>
+      <c r="AG59" s="190"/>
+      <c r="AH59" s="190"/>
+      <c r="AI59" s="187"/>
       <c r="AJ59" s="83">
         <v>0.92089998722076405</v>
       </c>
@@ -27646,32 +27646,32 @@
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" s="191">
+      <c r="A60" s="202">
         <v>12</v>
       </c>
-      <c r="B60" s="182">
+      <c r="B60" s="188">
         <v>5</v>
       </c>
-      <c r="C60" s="182">
+      <c r="C60" s="188">
         <v>64</v>
       </c>
-      <c r="D60" s="171"/>
-      <c r="E60" s="188" t="s">
+      <c r="D60" s="170"/>
+      <c r="E60" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="188">
+      <c r="F60" s="205">
         <v>32</v>
       </c>
-      <c r="G60" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H60" s="188" t="s">
+      <c r="G60" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I60" s="188">
+      <c r="I60" s="205">
         <v>128</v>
       </c>
-      <c r="J60" s="188" t="s">
+      <c r="J60" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K60" s="42"/>
@@ -27698,22 +27698,22 @@
       <c r="X60" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="38"/>
-      <c r="AE60" s="182">
+      <c r="Y60" s="39"/>
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="188">
         <v>10</v>
       </c>
-      <c r="AF60" s="182" t="s">
+      <c r="AF60" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG60" s="182" t="s">
+      <c r="AG60" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH60" s="182">
+      <c r="AH60" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI60" s="185" t="s">
@@ -27727,16 +27727,16 @@
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A61" s="192"/>
-      <c r="B61" s="183"/>
-      <c r="C61" s="183"/>
-      <c r="D61" s="172"/>
-      <c r="E61" s="189"/>
-      <c r="F61" s="189"/>
-      <c r="G61" s="189"/>
-      <c r="H61" s="189"/>
-      <c r="I61" s="189"/>
-      <c r="J61" s="189"/>
+      <c r="A61" s="203"/>
+      <c r="B61" s="189"/>
+      <c r="C61" s="189"/>
+      <c r="D61" s="171"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="206"/>
+      <c r="G61" s="206"/>
+      <c r="H61" s="206"/>
+      <c r="I61" s="206"/>
+      <c r="J61" s="206"/>
       <c r="K61" s="32"/>
       <c r="L61" s="32"/>
       <c r="M61" s="32"/>
@@ -27759,16 +27759,16 @@
       <c r="X61" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="183"/>
-      <c r="AF61" s="183"/>
-      <c r="AG61" s="183"/>
-      <c r="AH61" s="183"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="189"/>
+      <c r="AF61" s="189"/>
+      <c r="AG61" s="189"/>
+      <c r="AH61" s="189"/>
       <c r="AI61" s="186"/>
       <c r="AJ61" s="4">
         <v>0.92100000381469704</v>
@@ -27778,16 +27778,16 @@
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" s="192"/>
-      <c r="B62" s="183"/>
-      <c r="C62" s="183"/>
-      <c r="D62" s="172"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="189"/>
+      <c r="A62" s="203"/>
+      <c r="B62" s="189"/>
+      <c r="C62" s="189"/>
+      <c r="D62" s="171"/>
+      <c r="E62" s="206"/>
+      <c r="F62" s="206"/>
+      <c r="G62" s="206"/>
+      <c r="H62" s="206"/>
+      <c r="I62" s="206"/>
+      <c r="J62" s="206"/>
       <c r="K62" s="32"/>
       <c r="L62" s="32"/>
       <c r="M62" s="32"/>
@@ -27810,16 +27810,16 @@
       <c r="X62" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="183"/>
-      <c r="AF62" s="183"/>
-      <c r="AG62" s="183"/>
-      <c r="AH62" s="183"/>
+      <c r="Y62" s="35"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
+      <c r="AC62" s="35"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="189"/>
+      <c r="AF62" s="189"/>
+      <c r="AG62" s="189"/>
+      <c r="AH62" s="189"/>
       <c r="AI62" s="186"/>
       <c r="AJ62" s="4">
         <v>0.91549998521804798</v>
@@ -27829,16 +27829,16 @@
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="192"/>
-      <c r="B63" s="183"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="172"/>
-      <c r="E63" s="189"/>
-      <c r="F63" s="189"/>
-      <c r="G63" s="189"/>
-      <c r="H63" s="189"/>
-      <c r="I63" s="189"/>
-      <c r="J63" s="189"/>
+      <c r="A63" s="203"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="206"/>
+      <c r="F63" s="206"/>
+      <c r="G63" s="206"/>
+      <c r="H63" s="206"/>
+      <c r="I63" s="206"/>
+      <c r="J63" s="206"/>
       <c r="K63" s="32"/>
       <c r="L63" s="32"/>
       <c r="M63" s="32"/>
@@ -27861,16 +27861,16 @@
       <c r="X63" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-      <c r="AA63" s="4"/>
-      <c r="AB63" s="4"/>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="4"/>
-      <c r="AE63" s="183"/>
-      <c r="AF63" s="183"/>
-      <c r="AG63" s="183"/>
-      <c r="AH63" s="183"/>
+      <c r="Y63" s="35"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
+      <c r="AC63" s="35"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="189"/>
+      <c r="AF63" s="189"/>
+      <c r="AG63" s="189"/>
+      <c r="AH63" s="189"/>
       <c r="AI63" s="186"/>
       <c r="AJ63" s="62">
         <v>0.92820000648498502</v>
@@ -27880,10 +27880,10 @@
       </c>
     </row>
     <row r="64" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="206"/>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="173"/>
+      <c r="A64" s="204"/>
+      <c r="B64" s="190"/>
+      <c r="C64" s="190"/>
+      <c r="D64" s="172"/>
       <c r="E64" s="207"/>
       <c r="F64" s="207"/>
       <c r="G64" s="207"/>
@@ -27899,7 +27899,7 @@
       <c r="Q64" s="44"/>
       <c r="R64" s="44"/>
       <c r="S64" s="44"/>
-      <c r="T64" s="205"/>
+      <c r="T64" s="187"/>
       <c r="U64" s="89">
         <v>128</v>
       </c>
@@ -27912,17 +27912,17 @@
       <c r="X64" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
-      <c r="AC64" s="41"/>
-      <c r="AD64" s="41"/>
-      <c r="AE64" s="204"/>
-      <c r="AF64" s="204"/>
-      <c r="AG64" s="204"/>
-      <c r="AH64" s="204"/>
-      <c r="AI64" s="205"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="53"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="53"/>
+      <c r="AD64" s="53"/>
+      <c r="AE64" s="190"/>
+      <c r="AF64" s="190"/>
+      <c r="AG64" s="190"/>
+      <c r="AH64" s="190"/>
+      <c r="AI64" s="187"/>
       <c r="AJ64" s="41">
         <v>0.908500015735626</v>
       </c>
@@ -27931,32 +27931,32 @@
       </c>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A65" s="191">
+      <c r="A65" s="202">
         <v>13</v>
       </c>
-      <c r="B65" s="182">
+      <c r="B65" s="188">
         <v>5</v>
       </c>
-      <c r="C65" s="182">
+      <c r="C65" s="188">
         <v>64</v>
       </c>
-      <c r="D65" s="171"/>
-      <c r="E65" s="188" t="s">
+      <c r="D65" s="170"/>
+      <c r="E65" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F65" s="188">
+      <c r="F65" s="205">
         <v>32</v>
       </c>
-      <c r="G65" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H65" s="188" t="s">
+      <c r="G65" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I65" s="188">
+      <c r="I65" s="205">
         <v>128</v>
       </c>
-      <c r="J65" s="188" t="s">
+      <c r="J65" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="42"/>
@@ -27983,22 +27983,22 @@
       <c r="X65" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="182">
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="188">
         <v>10</v>
       </c>
-      <c r="AF65" s="182" t="s">
+      <c r="AF65" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG65" s="182" t="s">
+      <c r="AG65" s="188" t="s">
         <v>29</v>
       </c>
-      <c r="AH65" s="182">
+      <c r="AH65" s="188">
         <v>1E-3</v>
       </c>
       <c r="AI65" s="185" t="s">
@@ -28012,16 +28012,16 @@
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="192"/>
-      <c r="B66" s="183"/>
-      <c r="C66" s="183"/>
-      <c r="D66" s="172"/>
-      <c r="E66" s="189"/>
-      <c r="F66" s="189"/>
-      <c r="G66" s="189"/>
-      <c r="H66" s="189"/>
-      <c r="I66" s="189"/>
-      <c r="J66" s="189"/>
+      <c r="A66" s="203"/>
+      <c r="B66" s="189"/>
+      <c r="C66" s="189"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="206"/>
+      <c r="F66" s="206"/>
+      <c r="G66" s="206"/>
+      <c r="H66" s="206"/>
+      <c r="I66" s="206"/>
+      <c r="J66" s="206"/>
       <c r="K66" s="32"/>
       <c r="L66" s="32"/>
       <c r="M66" s="32"/>
@@ -28044,16 +28044,16 @@
       <c r="X66" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-      <c r="AA66" s="4"/>
-      <c r="AB66" s="4"/>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="4"/>
-      <c r="AE66" s="183"/>
-      <c r="AF66" s="183"/>
-      <c r="AG66" s="183"/>
-      <c r="AH66" s="183"/>
+      <c r="Y66" s="35"/>
+      <c r="Z66" s="35"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
+      <c r="AC66" s="35"/>
+      <c r="AD66" s="35"/>
+      <c r="AE66" s="189"/>
+      <c r="AF66" s="189"/>
+      <c r="AG66" s="189"/>
+      <c r="AH66" s="189"/>
       <c r="AI66" s="186"/>
       <c r="AJ66" s="4">
         <v>0.92269998788833596</v>
@@ -28063,16 +28063,16 @@
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" s="192"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="183"/>
-      <c r="D67" s="172"/>
-      <c r="E67" s="189"/>
-      <c r="F67" s="189"/>
-      <c r="G67" s="189"/>
-      <c r="H67" s="189"/>
-      <c r="I67" s="189"/>
-      <c r="J67" s="189"/>
+      <c r="A67" s="203"/>
+      <c r="B67" s="189"/>
+      <c r="C67" s="189"/>
+      <c r="D67" s="171"/>
+      <c r="E67" s="206"/>
+      <c r="F67" s="206"/>
+      <c r="G67" s="206"/>
+      <c r="H67" s="206"/>
+      <c r="I67" s="206"/>
+      <c r="J67" s="206"/>
       <c r="K67" s="32"/>
       <c r="L67" s="32"/>
       <c r="M67" s="32"/>
@@ -28095,16 +28095,16 @@
       <c r="X67" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-      <c r="AA67" s="4"/>
-      <c r="AB67" s="4"/>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="4"/>
-      <c r="AE67" s="183"/>
-      <c r="AF67" s="183"/>
-      <c r="AG67" s="183"/>
-      <c r="AH67" s="183"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="189"/>
+      <c r="AF67" s="189"/>
+      <c r="AG67" s="189"/>
+      <c r="AH67" s="189"/>
       <c r="AI67" s="186"/>
       <c r="AJ67" s="4">
         <v>0.92150002717971802</v>
@@ -28114,16 +28114,16 @@
       </c>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" s="192"/>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="189"/>
-      <c r="F68" s="189"/>
-      <c r="G68" s="189"/>
-      <c r="H68" s="189"/>
-      <c r="I68" s="189"/>
-      <c r="J68" s="189"/>
+      <c r="A68" s="203"/>
+      <c r="B68" s="189"/>
+      <c r="C68" s="189"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="206"/>
+      <c r="F68" s="206"/>
+      <c r="G68" s="206"/>
+      <c r="H68" s="206"/>
+      <c r="I68" s="206"/>
+      <c r="J68" s="206"/>
       <c r="K68" s="32"/>
       <c r="L68" s="32"/>
       <c r="M68" s="32"/>
@@ -28146,16 +28146,16 @@
       <c r="X68" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-      <c r="AA68" s="4"/>
-      <c r="AB68" s="4"/>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="4"/>
-      <c r="AE68" s="183"/>
-      <c r="AF68" s="183"/>
-      <c r="AG68" s="183"/>
-      <c r="AH68" s="183"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="189"/>
+      <c r="AF68" s="189"/>
+      <c r="AG68" s="189"/>
+      <c r="AH68" s="189"/>
       <c r="AI68" s="186"/>
       <c r="AJ68" s="62">
         <v>0.92470002174377397</v>
@@ -28165,10 +28165,10 @@
       </c>
     </row>
     <row r="69" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="206"/>
-      <c r="B69" s="204"/>
-      <c r="C69" s="204"/>
-      <c r="D69" s="173"/>
+      <c r="A69" s="204"/>
+      <c r="B69" s="190"/>
+      <c r="C69" s="190"/>
+      <c r="D69" s="172"/>
       <c r="E69" s="207"/>
       <c r="F69" s="207"/>
       <c r="G69" s="207"/>
@@ -28184,7 +28184,7 @@
       <c r="Q69" s="44"/>
       <c r="R69" s="44"/>
       <c r="S69" s="44"/>
-      <c r="T69" s="205"/>
+      <c r="T69" s="187"/>
       <c r="U69" s="89">
         <v>256</v>
       </c>
@@ -28197,17 +28197,17 @@
       <c r="X69" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="Y69" s="41"/>
-      <c r="Z69" s="41"/>
-      <c r="AA69" s="41"/>
-      <c r="AB69" s="41"/>
-      <c r="AC69" s="41"/>
-      <c r="AD69" s="41"/>
-      <c r="AE69" s="204"/>
-      <c r="AF69" s="204"/>
-      <c r="AG69" s="204"/>
-      <c r="AH69" s="204"/>
-      <c r="AI69" s="205"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="53"/>
+      <c r="AC69" s="53"/>
+      <c r="AD69" s="53"/>
+      <c r="AE69" s="190"/>
+      <c r="AF69" s="190"/>
+      <c r="AG69" s="190"/>
+      <c r="AH69" s="190"/>
+      <c r="AI69" s="187"/>
       <c r="AJ69" s="41">
         <v>0.91579997539520197</v>
       </c>
@@ -28216,32 +28216,32 @@
       </c>
     </row>
     <row r="70" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="191">
+      <c r="A70" s="202">
         <v>14</v>
       </c>
-      <c r="B70" s="182">
+      <c r="B70" s="188">
         <v>5</v>
       </c>
-      <c r="C70" s="182">
+      <c r="C70" s="188">
         <v>64</v>
       </c>
-      <c r="D70" s="171"/>
-      <c r="E70" s="188" t="s">
+      <c r="D70" s="170"/>
+      <c r="E70" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="188">
+      <c r="F70" s="205">
         <v>32</v>
       </c>
-      <c r="G70" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="188" t="s">
+      <c r="G70" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I70" s="188">
+      <c r="I70" s="205">
         <v>128</v>
       </c>
-      <c r="J70" s="188" t="s">
+      <c r="J70" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K70" s="42"/>
@@ -28256,37 +28256,37 @@
       <c r="T70" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="U70" s="212">
+      <c r="U70" s="191">
         <v>128</v>
       </c>
-      <c r="V70" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="W70" s="212">
+      <c r="V70" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="W70" s="191">
         <v>128</v>
       </c>
-      <c r="X70" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="38"/>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="182">
+      <c r="X70" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="39"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="188">
         <v>10</v>
       </c>
-      <c r="AF70" s="201" t="s">
+      <c r="AF70" s="196" t="s">
         <v>24</v>
       </c>
       <c r="AG70" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="AH70" s="201">
+      <c r="AH70" s="196">
         <v>1E-3</v>
       </c>
-      <c r="AI70" s="194" t="s">
+      <c r="AI70" s="199" t="s">
         <v>30</v>
       </c>
       <c r="AJ70" s="87">
@@ -28297,16 +28297,16 @@
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A71" s="192"/>
-      <c r="B71" s="183"/>
-      <c r="C71" s="183"/>
-      <c r="D71" s="172"/>
-      <c r="E71" s="189"/>
-      <c r="F71" s="189"/>
-      <c r="G71" s="189"/>
-      <c r="H71" s="189"/>
-      <c r="I71" s="189"/>
-      <c r="J71" s="189"/>
+      <c r="A71" s="203"/>
+      <c r="B71" s="189"/>
+      <c r="C71" s="189"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="206"/>
+      <c r="G71" s="206"/>
+      <c r="H71" s="206"/>
+      <c r="I71" s="206"/>
+      <c r="J71" s="206"/>
       <c r="K71" s="32"/>
       <c r="L71" s="32"/>
       <c r="M71" s="32"/>
@@ -28317,23 +28317,23 @@
       <c r="R71" s="32"/>
       <c r="S71" s="32"/>
       <c r="T71" s="186"/>
-      <c r="U71" s="213"/>
-      <c r="V71" s="213"/>
-      <c r="W71" s="213"/>
-      <c r="X71" s="213"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="183"/>
-      <c r="AF71" s="202"/>
+      <c r="U71" s="192"/>
+      <c r="V71" s="192"/>
+      <c r="W71" s="192"/>
+      <c r="X71" s="192"/>
+      <c r="Y71" s="35"/>
+      <c r="Z71" s="35"/>
+      <c r="AA71" s="35"/>
+      <c r="AB71" s="35"/>
+      <c r="AC71" s="35"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="189"/>
+      <c r="AF71" s="197"/>
       <c r="AG71" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="AH71" s="202"/>
-      <c r="AI71" s="195"/>
+      <c r="AH71" s="197"/>
+      <c r="AI71" s="200"/>
       <c r="AJ71" s="13">
         <v>0.78740000724792403</v>
       </c>
@@ -28342,16 +28342,16 @@
       </c>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A72" s="192"/>
-      <c r="B72" s="183"/>
-      <c r="C72" s="183"/>
-      <c r="D72" s="172"/>
-      <c r="E72" s="189"/>
-      <c r="F72" s="189"/>
-      <c r="G72" s="189"/>
-      <c r="H72" s="189"/>
-      <c r="I72" s="189"/>
-      <c r="J72" s="189"/>
+      <c r="A72" s="203"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="189"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="206"/>
+      <c r="F72" s="206"/>
+      <c r="G72" s="206"/>
+      <c r="H72" s="206"/>
+      <c r="I72" s="206"/>
+      <c r="J72" s="206"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
       <c r="M72" s="32"/>
@@ -28362,23 +28362,23 @@
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
       <c r="T72" s="186"/>
-      <c r="U72" s="213"/>
-      <c r="V72" s="213"/>
-      <c r="W72" s="213"/>
-      <c r="X72" s="213"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-      <c r="AA72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AD72" s="4"/>
-      <c r="AE72" s="183"/>
-      <c r="AF72" s="202"/>
+      <c r="U72" s="192"/>
+      <c r="V72" s="192"/>
+      <c r="W72" s="192"/>
+      <c r="X72" s="192"/>
+      <c r="Y72" s="35"/>
+      <c r="Z72" s="35"/>
+      <c r="AA72" s="35"/>
+      <c r="AB72" s="35"/>
+      <c r="AC72" s="35"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="189"/>
+      <c r="AF72" s="197"/>
       <c r="AG72" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="AH72" s="202"/>
-      <c r="AI72" s="195"/>
+      <c r="AH72" s="197"/>
+      <c r="AI72" s="200"/>
       <c r="AJ72" s="13">
         <v>0.91560000181198098</v>
       </c>
@@ -28387,16 +28387,16 @@
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A73" s="192"/>
-      <c r="B73" s="183"/>
-      <c r="C73" s="183"/>
-      <c r="D73" s="172"/>
-      <c r="E73" s="189"/>
-      <c r="F73" s="189"/>
-      <c r="G73" s="189"/>
-      <c r="H73" s="189"/>
-      <c r="I73" s="189"/>
-      <c r="J73" s="189"/>
+      <c r="A73" s="203"/>
+      <c r="B73" s="189"/>
+      <c r="C73" s="189"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="206"/>
+      <c r="F73" s="206"/>
+      <c r="G73" s="206"/>
+      <c r="H73" s="206"/>
+      <c r="I73" s="206"/>
+      <c r="J73" s="206"/>
       <c r="K73" s="32"/>
       <c r="L73" s="32"/>
       <c r="M73" s="32"/>
@@ -28407,23 +28407,23 @@
       <c r="R73" s="32"/>
       <c r="S73" s="32"/>
       <c r="T73" s="186"/>
-      <c r="U73" s="213"/>
-      <c r="V73" s="213"/>
-      <c r="W73" s="213"/>
-      <c r="X73" s="213"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-      <c r="AA73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AD73" s="4"/>
-      <c r="AE73" s="183"/>
-      <c r="AF73" s="202"/>
+      <c r="U73" s="192"/>
+      <c r="V73" s="192"/>
+      <c r="W73" s="192"/>
+      <c r="X73" s="192"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="189"/>
+      <c r="AF73" s="197"/>
       <c r="AG73" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="AH73" s="202"/>
-      <c r="AI73" s="195"/>
+      <c r="AH73" s="197"/>
+      <c r="AI73" s="200"/>
       <c r="AJ73" s="13">
         <v>0.92449998855590798</v>
       </c>
@@ -28432,16 +28432,16 @@
       </c>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A74" s="193"/>
-      <c r="B74" s="184"/>
-      <c r="C74" s="184"/>
-      <c r="D74" s="174"/>
-      <c r="E74" s="190"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="190"/>
-      <c r="H74" s="190"/>
-      <c r="I74" s="190"/>
-      <c r="J74" s="190"/>
+      <c r="A74" s="208"/>
+      <c r="B74" s="195"/>
+      <c r="C74" s="195"/>
+      <c r="D74" s="173"/>
+      <c r="E74" s="209"/>
+      <c r="F74" s="209"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
+      <c r="I74" s="209"/>
+      <c r="J74" s="209"/>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
@@ -28451,24 +28451,24 @@
       <c r="Q74" s="36"/>
       <c r="R74" s="36"/>
       <c r="S74" s="36"/>
-      <c r="T74" s="187"/>
-      <c r="U74" s="213"/>
-      <c r="V74" s="213"/>
-      <c r="W74" s="213"/>
-      <c r="X74" s="213"/>
-      <c r="Y74" s="56"/>
-      <c r="Z74" s="56"/>
-      <c r="AA74" s="56"/>
-      <c r="AB74" s="56"/>
-      <c r="AC74" s="56"/>
-      <c r="AD74" s="56"/>
-      <c r="AE74" s="184"/>
-      <c r="AF74" s="202"/>
+      <c r="T74" s="194"/>
+      <c r="U74" s="192"/>
+      <c r="V74" s="192"/>
+      <c r="W74" s="192"/>
+      <c r="X74" s="192"/>
+      <c r="Y74" s="58"/>
+      <c r="Z74" s="58"/>
+      <c r="AA74" s="58"/>
+      <c r="AB74" s="58"/>
+      <c r="AC74" s="58"/>
+      <c r="AD74" s="58"/>
+      <c r="AE74" s="195"/>
+      <c r="AF74" s="197"/>
       <c r="AG74" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="AH74" s="202"/>
-      <c r="AI74" s="195"/>
+      <c r="AH74" s="197"/>
+      <c r="AI74" s="200"/>
       <c r="AJ74" s="98">
         <v>0.92769998311996404</v>
       </c>
@@ -28477,16 +28477,16 @@
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="193"/>
-      <c r="B75" s="184"/>
-      <c r="C75" s="184"/>
-      <c r="D75" s="174"/>
-      <c r="E75" s="190"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="190"/>
-      <c r="H75" s="190"/>
-      <c r="I75" s="190"/>
-      <c r="J75" s="190"/>
+      <c r="A75" s="208"/>
+      <c r="B75" s="195"/>
+      <c r="C75" s="195"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="209"/>
+      <c r="F75" s="209"/>
+      <c r="G75" s="209"/>
+      <c r="H75" s="209"/>
+      <c r="I75" s="209"/>
+      <c r="J75" s="209"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
@@ -28496,24 +28496,24 @@
       <c r="Q75" s="36"/>
       <c r="R75" s="36"/>
       <c r="S75" s="36"/>
-      <c r="T75" s="187"/>
-      <c r="U75" s="213"/>
-      <c r="V75" s="213"/>
-      <c r="W75" s="213"/>
-      <c r="X75" s="213"/>
-      <c r="Y75" s="56"/>
-      <c r="Z75" s="56"/>
-      <c r="AA75" s="56"/>
-      <c r="AB75" s="56"/>
-      <c r="AC75" s="56"/>
-      <c r="AD75" s="56"/>
-      <c r="AE75" s="184"/>
-      <c r="AF75" s="202"/>
+      <c r="T75" s="194"/>
+      <c r="U75" s="192"/>
+      <c r="V75" s="192"/>
+      <c r="W75" s="192"/>
+      <c r="X75" s="192"/>
+      <c r="Y75" s="58"/>
+      <c r="Z75" s="58"/>
+      <c r="AA75" s="58"/>
+      <c r="AB75" s="58"/>
+      <c r="AC75" s="58"/>
+      <c r="AD75" s="58"/>
+      <c r="AE75" s="195"/>
+      <c r="AF75" s="197"/>
       <c r="AG75" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="AH75" s="202"/>
-      <c r="AI75" s="195"/>
+      <c r="AH75" s="197"/>
+      <c r="AI75" s="200"/>
       <c r="AJ75" s="100">
         <v>0.928699970245361</v>
       </c>
@@ -28522,16 +28522,16 @@
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A76" s="193"/>
-      <c r="B76" s="184"/>
-      <c r="C76" s="184"/>
-      <c r="D76" s="174"/>
-      <c r="E76" s="190"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="190"/>
-      <c r="H76" s="190"/>
-      <c r="I76" s="190"/>
-      <c r="J76" s="190"/>
+      <c r="A76" s="208"/>
+      <c r="B76" s="195"/>
+      <c r="C76" s="195"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="209"/>
+      <c r="F76" s="209"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
+      <c r="I76" s="209"/>
+      <c r="J76" s="209"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
@@ -28541,24 +28541,24 @@
       <c r="Q76" s="36"/>
       <c r="R76" s="36"/>
       <c r="S76" s="36"/>
-      <c r="T76" s="187"/>
-      <c r="U76" s="213"/>
-      <c r="V76" s="213"/>
-      <c r="W76" s="213"/>
-      <c r="X76" s="213"/>
-      <c r="Y76" s="56"/>
-      <c r="Z76" s="56"/>
-      <c r="AA76" s="56"/>
-      <c r="AB76" s="56"/>
-      <c r="AC76" s="56"/>
-      <c r="AD76" s="56"/>
-      <c r="AE76" s="184"/>
-      <c r="AF76" s="202"/>
+      <c r="T76" s="194"/>
+      <c r="U76" s="192"/>
+      <c r="V76" s="192"/>
+      <c r="W76" s="192"/>
+      <c r="X76" s="192"/>
+      <c r="Y76" s="58"/>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="58"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="58"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="195"/>
+      <c r="AF76" s="197"/>
       <c r="AG76" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="AH76" s="202"/>
-      <c r="AI76" s="195"/>
+      <c r="AH76" s="197"/>
+      <c r="AI76" s="200"/>
       <c r="AJ76" s="98">
         <v>0.91900002956390303</v>
       </c>
@@ -28567,10 +28567,10 @@
       </c>
     </row>
     <row r="77" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="206"/>
-      <c r="B77" s="204"/>
-      <c r="C77" s="204"/>
-      <c r="D77" s="173"/>
+      <c r="A77" s="204"/>
+      <c r="B77" s="190"/>
+      <c r="C77" s="190"/>
+      <c r="D77" s="172"/>
       <c r="E77" s="207"/>
       <c r="F77" s="207"/>
       <c r="G77" s="207"/>
@@ -28586,24 +28586,24 @@
       <c r="Q77" s="44"/>
       <c r="R77" s="44"/>
       <c r="S77" s="44"/>
-      <c r="T77" s="205"/>
-      <c r="U77" s="214"/>
-      <c r="V77" s="214"/>
-      <c r="W77" s="214"/>
-      <c r="X77" s="214"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="41"/>
-      <c r="AC77" s="41"/>
-      <c r="AD77" s="41"/>
-      <c r="AE77" s="204"/>
-      <c r="AF77" s="203"/>
+      <c r="T77" s="187"/>
+      <c r="U77" s="193"/>
+      <c r="V77" s="193"/>
+      <c r="W77" s="193"/>
+      <c r="X77" s="193"/>
+      <c r="Y77" s="53"/>
+      <c r="Z77" s="53"/>
+      <c r="AA77" s="53"/>
+      <c r="AB77" s="53"/>
+      <c r="AC77" s="53"/>
+      <c r="AD77" s="53"/>
+      <c r="AE77" s="190"/>
+      <c r="AF77" s="198"/>
       <c r="AG77" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="AH77" s="203"/>
-      <c r="AI77" s="196"/>
+      <c r="AH77" s="198"/>
+      <c r="AI77" s="201"/>
       <c r="AJ77" s="89">
         <v>0.10000000149011599</v>
       </c>
@@ -28612,32 +28612,32 @@
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" s="191">
+      <c r="A78" s="202">
         <v>15</v>
       </c>
-      <c r="B78" s="182">
+      <c r="B78" s="188">
         <v>10</v>
       </c>
-      <c r="C78" s="182">
+      <c r="C78" s="188">
         <v>64</v>
       </c>
-      <c r="D78" s="171"/>
-      <c r="E78" s="188" t="s">
+      <c r="D78" s="170"/>
+      <c r="E78" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="188">
+      <c r="F78" s="205">
         <v>32</v>
       </c>
-      <c r="G78" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="188" t="s">
+      <c r="G78" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I78" s="188">
+      <c r="I78" s="205">
         <v>128</v>
       </c>
-      <c r="J78" s="188" t="s">
+      <c r="J78" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K78" s="42"/>
@@ -28652,31 +28652,31 @@
       <c r="T78" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="U78" s="212">
+      <c r="U78" s="191">
         <v>128</v>
       </c>
-      <c r="V78" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="W78" s="212">
+      <c r="V78" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="W78" s="191">
         <v>128</v>
       </c>
-      <c r="X78" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y78" s="38"/>
-      <c r="Z78" s="38"/>
-      <c r="AA78" s="38"/>
-      <c r="AB78" s="38"/>
-      <c r="AC78" s="38"/>
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="182">
+      <c r="X78" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="39"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="188">
         <v>10</v>
       </c>
-      <c r="AF78" s="182" t="s">
+      <c r="AF78" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG78" s="182" t="s">
+      <c r="AG78" s="188" t="s">
         <v>52</v>
       </c>
       <c r="AH78" s="117">
@@ -28693,16 +28693,16 @@
       </c>
     </row>
     <row r="79" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="192"/>
-      <c r="B79" s="183"/>
-      <c r="C79" s="183"/>
-      <c r="D79" s="172"/>
-      <c r="E79" s="189"/>
-      <c r="F79" s="189"/>
-      <c r="G79" s="189"/>
-      <c r="H79" s="189"/>
-      <c r="I79" s="189"/>
-      <c r="J79" s="189"/>
+      <c r="A79" s="203"/>
+      <c r="B79" s="189"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="171"/>
+      <c r="E79" s="206"/>
+      <c r="F79" s="206"/>
+      <c r="G79" s="206"/>
+      <c r="H79" s="206"/>
+      <c r="I79" s="206"/>
+      <c r="J79" s="206"/>
       <c r="K79" s="32"/>
       <c r="L79" s="32"/>
       <c r="M79" s="32"/>
@@ -28713,41 +28713,41 @@
       <c r="R79" s="32"/>
       <c r="S79" s="32"/>
       <c r="T79" s="186"/>
-      <c r="U79" s="213"/>
-      <c r="V79" s="213"/>
-      <c r="W79" s="213"/>
-      <c r="X79" s="213"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-      <c r="AA79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AD79" s="4"/>
-      <c r="AE79" s="183"/>
-      <c r="AF79" s="183"/>
-      <c r="AG79" s="183"/>
-      <c r="AH79" s="156" t="s">
+      <c r="U79" s="192"/>
+      <c r="V79" s="192"/>
+      <c r="W79" s="192"/>
+      <c r="X79" s="192"/>
+      <c r="Y79" s="35"/>
+      <c r="Z79" s="35"/>
+      <c r="AA79" s="35"/>
+      <c r="AB79" s="35"/>
+      <c r="AC79" s="35"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="189"/>
+      <c r="AF79" s="189"/>
+      <c r="AG79" s="189"/>
+      <c r="AH79" s="229" t="s">
         <v>89</v>
       </c>
       <c r="AI79" s="186"/>
-      <c r="AJ79" s="13">
+      <c r="AJ79" s="62">
         <v>0.92820000648498502</v>
       </c>
-      <c r="AK79" s="90">
+      <c r="AK79" s="79">
         <v>2.3024953703703704E-2</v>
       </c>
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A80" s="192"/>
-      <c r="B80" s="183"/>
-      <c r="C80" s="183"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="189"/>
-      <c r="F80" s="189"/>
-      <c r="G80" s="189"/>
-      <c r="H80" s="189"/>
-      <c r="I80" s="189"/>
-      <c r="J80" s="189"/>
+      <c r="A80" s="203"/>
+      <c r="B80" s="189"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="171"/>
+      <c r="E80" s="206"/>
+      <c r="F80" s="206"/>
+      <c r="G80" s="206"/>
+      <c r="H80" s="206"/>
+      <c r="I80" s="206"/>
+      <c r="J80" s="206"/>
       <c r="K80" s="32"/>
       <c r="L80" s="32"/>
       <c r="M80" s="32"/>
@@ -28758,35 +28758,35 @@
       <c r="R80" s="32"/>
       <c r="S80" s="32"/>
       <c r="T80" s="186"/>
-      <c r="U80" s="213"/>
-      <c r="V80" s="213"/>
-      <c r="W80" s="213"/>
-      <c r="X80" s="213"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AD80" s="4"/>
-      <c r="AE80" s="183"/>
-      <c r="AF80" s="183"/>
-      <c r="AG80" s="183"/>
+      <c r="U80" s="192"/>
+      <c r="V80" s="192"/>
+      <c r="W80" s="192"/>
+      <c r="X80" s="192"/>
+      <c r="Y80" s="35"/>
+      <c r="Z80" s="35"/>
+      <c r="AA80" s="35"/>
+      <c r="AB80" s="35"/>
+      <c r="AC80" s="35"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="189"/>
+      <c r="AF80" s="189"/>
+      <c r="AG80" s="189"/>
       <c r="AH80" s="118"/>
       <c r="AI80" s="186"/>
       <c r="AJ80" s="13"/>
       <c r="AK80" s="90"/>
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A81" s="192"/>
-      <c r="B81" s="183"/>
-      <c r="C81" s="183"/>
-      <c r="D81" s="172"/>
-      <c r="E81" s="189"/>
-      <c r="F81" s="189"/>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
-      <c r="I81" s="189"/>
-      <c r="J81" s="189"/>
+      <c r="A81" s="203"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="189"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="206"/>
+      <c r="F81" s="206"/>
+      <c r="G81" s="206"/>
+      <c r="H81" s="206"/>
+      <c r="I81" s="206"/>
+      <c r="J81" s="206"/>
       <c r="K81" s="32"/>
       <c r="L81" s="32"/>
       <c r="M81" s="32"/>
@@ -28797,29 +28797,29 @@
       <c r="R81" s="32"/>
       <c r="S81" s="32"/>
       <c r="T81" s="186"/>
-      <c r="U81" s="213"/>
-      <c r="V81" s="213"/>
-      <c r="W81" s="213"/>
-      <c r="X81" s="213"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AD81" s="4"/>
-      <c r="AE81" s="183"/>
-      <c r="AF81" s="183"/>
-      <c r="AG81" s="183"/>
+      <c r="U81" s="192"/>
+      <c r="V81" s="192"/>
+      <c r="W81" s="192"/>
+      <c r="X81" s="192"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="189"/>
+      <c r="AF81" s="189"/>
+      <c r="AG81" s="189"/>
       <c r="AH81" s="118"/>
       <c r="AI81" s="186"/>
       <c r="AJ81" s="13"/>
       <c r="AK81" s="90"/>
     </row>
     <row r="82" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="206"/>
-      <c r="B82" s="204"/>
-      <c r="C82" s="204"/>
-      <c r="D82" s="173"/>
+      <c r="A82" s="204"/>
+      <c r="B82" s="190"/>
+      <c r="C82" s="190"/>
+      <c r="D82" s="172"/>
       <c r="E82" s="207"/>
       <c r="F82" s="207"/>
       <c r="G82" s="207"/>
@@ -28835,52 +28835,52 @@
       <c r="Q82" s="44"/>
       <c r="R82" s="44"/>
       <c r="S82" s="44"/>
-      <c r="T82" s="205"/>
-      <c r="U82" s="214"/>
-      <c r="V82" s="214"/>
-      <c r="W82" s="214"/>
-      <c r="X82" s="214"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-      <c r="AB82" s="41"/>
-      <c r="AC82" s="41"/>
-      <c r="AD82" s="41"/>
-      <c r="AE82" s="204"/>
-      <c r="AF82" s="204"/>
-      <c r="AG82" s="204"/>
+      <c r="T82" s="187"/>
+      <c r="U82" s="193"/>
+      <c r="V82" s="193"/>
+      <c r="W82" s="193"/>
+      <c r="X82" s="193"/>
+      <c r="Y82" s="53"/>
+      <c r="Z82" s="53"/>
+      <c r="AA82" s="53"/>
+      <c r="AB82" s="53"/>
+      <c r="AC82" s="53"/>
+      <c r="AD82" s="53"/>
+      <c r="AE82" s="190"/>
+      <c r="AF82" s="190"/>
+      <c r="AG82" s="190"/>
       <c r="AH82" s="119"/>
-      <c r="AI82" s="205"/>
+      <c r="AI82" s="187"/>
       <c r="AJ82" s="89"/>
       <c r="AK82" s="97"/>
     </row>
     <row r="83" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="191">
+      <c r="A83" s="202">
         <v>16</v>
       </c>
-      <c r="B83" s="182">
+      <c r="B83" s="188">
         <v>5</v>
       </c>
-      <c r="C83" s="182">
+      <c r="C83" s="188">
         <v>64</v>
       </c>
-      <c r="D83" s="171"/>
-      <c r="E83" s="188" t="s">
+      <c r="D83" s="170"/>
+      <c r="E83" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="188">
+      <c r="F83" s="205">
         <v>32</v>
       </c>
-      <c r="G83" s="188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" s="188" t="s">
+      <c r="G83" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="I83" s="188">
+      <c r="I83" s="205">
         <v>128</v>
       </c>
-      <c r="J83" s="188" t="s">
+      <c r="J83" s="205" t="s">
         <v>21</v>
       </c>
       <c r="K83" s="42"/>
@@ -28895,37 +28895,37 @@
       <c r="T83" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="U83" s="212">
+      <c r="U83" s="191">
         <v>128</v>
       </c>
-      <c r="V83" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="W83" s="212">
+      <c r="V83" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="W83" s="191">
         <v>128</v>
       </c>
-      <c r="X83" s="212" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="182">
+      <c r="X83" s="191" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y83" s="39"/>
+      <c r="Z83" s="39"/>
+      <c r="AA83" s="39"/>
+      <c r="AB83" s="39"/>
+      <c r="AC83" s="39"/>
+      <c r="AD83" s="39"/>
+      <c r="AE83" s="188">
         <v>10</v>
       </c>
-      <c r="AF83" s="182" t="s">
+      <c r="AF83" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="AG83" s="182" t="s">
+      <c r="AG83" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="AH83" s="182">
+      <c r="AH83" s="188">
         <v>1E-3</v>
       </c>
-      <c r="AI83" s="94" t="s">
+      <c r="AI83" s="139" t="s">
         <v>30</v>
       </c>
       <c r="AJ83" s="87">
@@ -28936,16 +28936,16 @@
       </c>
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A84" s="192"/>
-      <c r="B84" s="183"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="172"/>
-      <c r="E84" s="189"/>
-      <c r="F84" s="189"/>
-      <c r="G84" s="189"/>
-      <c r="H84" s="189"/>
-      <c r="I84" s="189"/>
-      <c r="J84" s="189"/>
+      <c r="A84" s="203"/>
+      <c r="B84" s="189"/>
+      <c r="C84" s="189"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="206"/>
+      <c r="F84" s="206"/>
+      <c r="G84" s="206"/>
+      <c r="H84" s="206"/>
+      <c r="I84" s="206"/>
+      <c r="J84" s="206"/>
       <c r="K84" s="32"/>
       <c r="L84" s="32"/>
       <c r="M84" s="32"/>
@@ -28956,20 +28956,20 @@
       <c r="R84" s="32"/>
       <c r="S84" s="32"/>
       <c r="T84" s="186"/>
-      <c r="U84" s="213"/>
-      <c r="V84" s="213"/>
-      <c r="W84" s="213"/>
-      <c r="X84" s="213"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
-      <c r="AA84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AD84" s="4"/>
-      <c r="AE84" s="183"/>
-      <c r="AF84" s="183"/>
-      <c r="AG84" s="183"/>
-      <c r="AH84" s="183"/>
+      <c r="U84" s="192"/>
+      <c r="V84" s="192"/>
+      <c r="W84" s="192"/>
+      <c r="X84" s="192"/>
+      <c r="Y84" s="35"/>
+      <c r="Z84" s="35"/>
+      <c r="AA84" s="35"/>
+      <c r="AB84" s="35"/>
+      <c r="AC84" s="35"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="189"/>
+      <c r="AF84" s="189"/>
+      <c r="AG84" s="189"/>
+      <c r="AH84" s="189"/>
       <c r="AI84" s="95" t="s">
         <v>55</v>
       </c>
@@ -28981,16 +28981,16 @@
       </c>
     </row>
     <row r="85" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="192"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="189"/>
-      <c r="F85" s="189"/>
-      <c r="G85" s="189"/>
-      <c r="H85" s="189"/>
-      <c r="I85" s="189"/>
-      <c r="J85" s="189"/>
+      <c r="A85" s="203"/>
+      <c r="B85" s="189"/>
+      <c r="C85" s="189"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="206"/>
+      <c r="F85" s="206"/>
+      <c r="G85" s="206"/>
+      <c r="H85" s="206"/>
+      <c r="I85" s="206"/>
+      <c r="J85" s="206"/>
       <c r="K85" s="32"/>
       <c r="L85" s="32"/>
       <c r="M85" s="32"/>
@@ -29001,20 +29001,20 @@
       <c r="R85" s="32"/>
       <c r="S85" s="32"/>
       <c r="T85" s="186"/>
-      <c r="U85" s="213"/>
-      <c r="V85" s="213"/>
-      <c r="W85" s="213"/>
-      <c r="X85" s="213"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
-      <c r="AA85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AD85" s="4"/>
-      <c r="AE85" s="183"/>
-      <c r="AF85" s="183"/>
-      <c r="AG85" s="183"/>
-      <c r="AH85" s="183"/>
+      <c r="U85" s="192"/>
+      <c r="V85" s="192"/>
+      <c r="W85" s="192"/>
+      <c r="X85" s="192"/>
+      <c r="Y85" s="35"/>
+      <c r="Z85" s="35"/>
+      <c r="AA85" s="35"/>
+      <c r="AB85" s="35"/>
+      <c r="AC85" s="35"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="189"/>
+      <c r="AF85" s="189"/>
+      <c r="AG85" s="189"/>
+      <c r="AH85" s="189"/>
       <c r="AI85" s="95" t="s">
         <v>56</v>
       </c>
@@ -29026,16 +29026,16 @@
       </c>
     </row>
     <row r="86" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="192"/>
-      <c r="B86" s="183"/>
-      <c r="C86" s="183"/>
-      <c r="D86" s="172"/>
-      <c r="E86" s="189"/>
-      <c r="F86" s="189"/>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
-      <c r="I86" s="189"/>
-      <c r="J86" s="189"/>
+      <c r="A86" s="203"/>
+      <c r="B86" s="189"/>
+      <c r="C86" s="189"/>
+      <c r="D86" s="171"/>
+      <c r="E86" s="206"/>
+      <c r="F86" s="206"/>
+      <c r="G86" s="206"/>
+      <c r="H86" s="206"/>
+      <c r="I86" s="206"/>
+      <c r="J86" s="206"/>
       <c r="K86" s="32"/>
       <c r="L86" s="32"/>
       <c r="M86" s="32"/>
@@ -29046,39 +29046,39 @@
       <c r="R86" s="32"/>
       <c r="S86" s="32"/>
       <c r="T86" s="186"/>
-      <c r="U86" s="213"/>
-      <c r="V86" s="213"/>
-      <c r="W86" s="213"/>
-      <c r="X86" s="213"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="183"/>
-      <c r="AF86" s="183"/>
-      <c r="AG86" s="183"/>
-      <c r="AH86" s="183"/>
+      <c r="U86" s="192"/>
+      <c r="V86" s="192"/>
+      <c r="W86" s="192"/>
+      <c r="X86" s="192"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="189"/>
+      <c r="AF86" s="189"/>
+      <c r="AG86" s="189"/>
+      <c r="AH86" s="189"/>
       <c r="AI86" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="AJ86" s="208" t="s">
+      <c r="AJ86" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="AK86" s="209"/>
+      <c r="AK86" s="182"/>
     </row>
     <row r="87" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="192"/>
-      <c r="B87" s="183"/>
-      <c r="C87" s="183"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="189"/>
-      <c r="F87" s="189"/>
-      <c r="G87" s="189"/>
-      <c r="H87" s="189"/>
-      <c r="I87" s="189"/>
-      <c r="J87" s="189"/>
+      <c r="A87" s="203"/>
+      <c r="B87" s="189"/>
+      <c r="C87" s="189"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="206"/>
+      <c r="F87" s="206"/>
+      <c r="G87" s="206"/>
+      <c r="H87" s="206"/>
+      <c r="I87" s="206"/>
+      <c r="J87" s="206"/>
       <c r="K87" s="32"/>
       <c r="L87" s="32"/>
       <c r="M87" s="32"/>
@@ -29089,20 +29089,20 @@
       <c r="R87" s="32"/>
       <c r="S87" s="32"/>
       <c r="T87" s="186"/>
-      <c r="U87" s="213"/>
-      <c r="V87" s="213"/>
-      <c r="W87" s="213"/>
-      <c r="X87" s="213"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="183"/>
-      <c r="AF87" s="183"/>
-      <c r="AG87" s="183"/>
-      <c r="AH87" s="183"/>
+      <c r="U87" s="192"/>
+      <c r="V87" s="192"/>
+      <c r="W87" s="192"/>
+      <c r="X87" s="192"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="189"/>
+      <c r="AF87" s="189"/>
+      <c r="AG87" s="189"/>
+      <c r="AH87" s="189"/>
       <c r="AI87" s="95" t="s">
         <v>58</v>
       </c>
@@ -29114,16 +29114,16 @@
       </c>
     </row>
     <row r="88" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="192"/>
-      <c r="B88" s="183"/>
-      <c r="C88" s="183"/>
-      <c r="D88" s="172"/>
-      <c r="E88" s="189"/>
-      <c r="F88" s="189"/>
-      <c r="G88" s="189"/>
-      <c r="H88" s="189"/>
-      <c r="I88" s="189"/>
-      <c r="J88" s="189"/>
+      <c r="A88" s="203"/>
+      <c r="B88" s="189"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="206"/>
+      <c r="F88" s="206"/>
+      <c r="G88" s="206"/>
+      <c r="H88" s="206"/>
+      <c r="I88" s="206"/>
+      <c r="J88" s="206"/>
       <c r="K88" s="32"/>
       <c r="L88" s="32"/>
       <c r="M88" s="32"/>
@@ -29134,20 +29134,20 @@
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
       <c r="T88" s="186"/>
-      <c r="U88" s="213"/>
-      <c r="V88" s="213"/>
-      <c r="W88" s="213"/>
-      <c r="X88" s="213"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
-      <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AD88" s="4"/>
-      <c r="AE88" s="183"/>
-      <c r="AF88" s="183"/>
-      <c r="AG88" s="183"/>
-      <c r="AH88" s="183"/>
+      <c r="U88" s="192"/>
+      <c r="V88" s="192"/>
+      <c r="W88" s="192"/>
+      <c r="X88" s="192"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="189"/>
+      <c r="AF88" s="189"/>
+      <c r="AG88" s="189"/>
+      <c r="AH88" s="189"/>
       <c r="AI88" s="95" t="s">
         <v>59</v>
       </c>
@@ -29159,16 +29159,16 @@
       </c>
     </row>
     <row r="89" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="192"/>
-      <c r="B89" s="183"/>
-      <c r="C89" s="183"/>
-      <c r="D89" s="172"/>
-      <c r="E89" s="189"/>
-      <c r="F89" s="189"/>
-      <c r="G89" s="189"/>
-      <c r="H89" s="189"/>
-      <c r="I89" s="189"/>
-      <c r="J89" s="189"/>
+      <c r="A89" s="203"/>
+      <c r="B89" s="189"/>
+      <c r="C89" s="189"/>
+      <c r="D89" s="171"/>
+      <c r="E89" s="206"/>
+      <c r="F89" s="206"/>
+      <c r="G89" s="206"/>
+      <c r="H89" s="206"/>
+      <c r="I89" s="206"/>
+      <c r="J89" s="206"/>
       <c r="K89" s="32"/>
       <c r="L89" s="32"/>
       <c r="M89" s="32"/>
@@ -29179,20 +29179,20 @@
       <c r="R89" s="32"/>
       <c r="S89" s="32"/>
       <c r="T89" s="186"/>
-      <c r="U89" s="213"/>
-      <c r="V89" s="213"/>
-      <c r="W89" s="213"/>
-      <c r="X89" s="213"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="183"/>
-      <c r="AF89" s="183"/>
-      <c r="AG89" s="183"/>
-      <c r="AH89" s="183"/>
+      <c r="U89" s="192"/>
+      <c r="V89" s="192"/>
+      <c r="W89" s="192"/>
+      <c r="X89" s="192"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="189"/>
+      <c r="AF89" s="189"/>
+      <c r="AG89" s="189"/>
+      <c r="AH89" s="189"/>
       <c r="AI89" s="95" t="s">
         <v>60</v>
       </c>
@@ -29204,16 +29204,16 @@
       </c>
     </row>
     <row r="90" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="192"/>
-      <c r="B90" s="183"/>
-      <c r="C90" s="183"/>
-      <c r="D90" s="172"/>
-      <c r="E90" s="189"/>
-      <c r="F90" s="189"/>
-      <c r="G90" s="189"/>
-      <c r="H90" s="189"/>
-      <c r="I90" s="189"/>
-      <c r="J90" s="189"/>
+      <c r="A90" s="203"/>
+      <c r="B90" s="189"/>
+      <c r="C90" s="189"/>
+      <c r="D90" s="171"/>
+      <c r="E90" s="206"/>
+      <c r="F90" s="206"/>
+      <c r="G90" s="206"/>
+      <c r="H90" s="206"/>
+      <c r="I90" s="206"/>
+      <c r="J90" s="206"/>
       <c r="K90" s="32"/>
       <c r="L90" s="32"/>
       <c r="M90" s="32"/>
@@ -29224,20 +29224,20 @@
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
       <c r="T90" s="186"/>
-      <c r="U90" s="213"/>
-      <c r="V90" s="213"/>
-      <c r="W90" s="213"/>
-      <c r="X90" s="213"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="183"/>
-      <c r="AF90" s="183"/>
-      <c r="AG90" s="183"/>
-      <c r="AH90" s="183"/>
+      <c r="U90" s="192"/>
+      <c r="V90" s="192"/>
+      <c r="W90" s="192"/>
+      <c r="X90" s="192"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="189"/>
+      <c r="AF90" s="189"/>
+      <c r="AG90" s="189"/>
+      <c r="AH90" s="189"/>
       <c r="AI90" s="95" t="s">
         <v>61</v>
       </c>
@@ -29249,16 +29249,16 @@
       </c>
     </row>
     <row r="91" spans="1:37" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="192"/>
-      <c r="B91" s="183"/>
-      <c r="C91" s="183"/>
-      <c r="D91" s="172"/>
-      <c r="E91" s="189"/>
-      <c r="F91" s="189"/>
-      <c r="G91" s="189"/>
-      <c r="H91" s="189"/>
-      <c r="I91" s="189"/>
-      <c r="J91" s="189"/>
+      <c r="A91" s="203"/>
+      <c r="B91" s="189"/>
+      <c r="C91" s="189"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="206"/>
+      <c r="F91" s="206"/>
+      <c r="G91" s="206"/>
+      <c r="H91" s="206"/>
+      <c r="I91" s="206"/>
+      <c r="J91" s="206"/>
       <c r="K91" s="32"/>
       <c r="L91" s="32"/>
       <c r="M91" s="32"/>
@@ -29269,20 +29269,20 @@
       <c r="R91" s="32"/>
       <c r="S91" s="32"/>
       <c r="T91" s="186"/>
-      <c r="U91" s="213"/>
-      <c r="V91" s="213"/>
-      <c r="W91" s="213"/>
-      <c r="X91" s="213"/>
-      <c r="Y91" s="4"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AD91" s="4"/>
-      <c r="AE91" s="183"/>
-      <c r="AF91" s="183"/>
-      <c r="AG91" s="183"/>
-      <c r="AH91" s="183"/>
+      <c r="U91" s="192"/>
+      <c r="V91" s="192"/>
+      <c r="W91" s="192"/>
+      <c r="X91" s="192"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="189"/>
+      <c r="AF91" s="189"/>
+      <c r="AG91" s="189"/>
+      <c r="AH91" s="189"/>
       <c r="AI91" s="95" t="s">
         <v>62</v>
       </c>
@@ -29294,16 +29294,16 @@
       </c>
     </row>
     <row r="92" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="192"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="183"/>
-      <c r="D92" s="172"/>
-      <c r="E92" s="189"/>
-      <c r="F92" s="189"/>
-      <c r="G92" s="189"/>
-      <c r="H92" s="189"/>
-      <c r="I92" s="189"/>
-      <c r="J92" s="189"/>
+      <c r="A92" s="203"/>
+      <c r="B92" s="189"/>
+      <c r="C92" s="189"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="206"/>
+      <c r="F92" s="206"/>
+      <c r="G92" s="206"/>
+      <c r="H92" s="206"/>
+      <c r="I92" s="206"/>
+      <c r="J92" s="206"/>
       <c r="K92" s="32"/>
       <c r="L92" s="32"/>
       <c r="M92" s="32"/>
@@ -29314,37 +29314,37 @@
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
       <c r="T92" s="186"/>
-      <c r="U92" s="213"/>
-      <c r="V92" s="213"/>
-      <c r="W92" s="213"/>
-      <c r="X92" s="213"/>
-      <c r="Y92" s="4"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AD92" s="4"/>
-      <c r="AE92" s="183"/>
-      <c r="AF92" s="183"/>
-      <c r="AG92" s="183"/>
-      <c r="AH92" s="183"/>
+      <c r="U92" s="192"/>
+      <c r="V92" s="192"/>
+      <c r="W92" s="192"/>
+      <c r="X92" s="192"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="189"/>
+      <c r="AF92" s="189"/>
+      <c r="AG92" s="189"/>
+      <c r="AH92" s="189"/>
       <c r="AI92" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="AJ92" s="210"/>
-      <c r="AK92" s="211"/>
+      <c r="AJ92" s="183"/>
+      <c r="AK92" s="184"/>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A93" s="192"/>
-      <c r="B93" s="183"/>
-      <c r="C93" s="183"/>
-      <c r="D93" s="172"/>
-      <c r="E93" s="189"/>
-      <c r="F93" s="189"/>
-      <c r="G93" s="189"/>
-      <c r="H93" s="189"/>
-      <c r="I93" s="189"/>
-      <c r="J93" s="189"/>
+      <c r="A93" s="203"/>
+      <c r="B93" s="189"/>
+      <c r="C93" s="189"/>
+      <c r="D93" s="171"/>
+      <c r="E93" s="206"/>
+      <c r="F93" s="206"/>
+      <c r="G93" s="206"/>
+      <c r="H93" s="206"/>
+      <c r="I93" s="206"/>
+      <c r="J93" s="206"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
       <c r="M93" s="32"/>
@@ -29355,20 +29355,20 @@
       <c r="R93" s="32"/>
       <c r="S93" s="32"/>
       <c r="T93" s="186"/>
-      <c r="U93" s="213"/>
-      <c r="V93" s="213"/>
-      <c r="W93" s="213"/>
-      <c r="X93" s="213"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
-      <c r="AA93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
-      <c r="AD93" s="4"/>
-      <c r="AE93" s="183"/>
-      <c r="AF93" s="183"/>
-      <c r="AG93" s="183"/>
-      <c r="AH93" s="183"/>
+      <c r="U93" s="192"/>
+      <c r="V93" s="192"/>
+      <c r="W93" s="192"/>
+      <c r="X93" s="192"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="35"/>
+      <c r="AB93" s="35"/>
+      <c r="AC93" s="35"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="189"/>
+      <c r="AF93" s="189"/>
+      <c r="AG93" s="189"/>
+      <c r="AH93" s="189"/>
       <c r="AI93" s="95" t="s">
         <v>64</v>
       </c>
@@ -29380,16 +29380,16 @@
       </c>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A94" s="192"/>
-      <c r="B94" s="183"/>
-      <c r="C94" s="183"/>
-      <c r="D94" s="172"/>
-      <c r="E94" s="189"/>
-      <c r="F94" s="189"/>
-      <c r="G94" s="189"/>
-      <c r="H94" s="189"/>
-      <c r="I94" s="189"/>
-      <c r="J94" s="189"/>
+      <c r="A94" s="203"/>
+      <c r="B94" s="189"/>
+      <c r="C94" s="189"/>
+      <c r="D94" s="171"/>
+      <c r="E94" s="206"/>
+      <c r="F94" s="206"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="206"/>
+      <c r="I94" s="206"/>
+      <c r="J94" s="206"/>
       <c r="K94" s="32"/>
       <c r="L94" s="32"/>
       <c r="M94" s="32"/>
@@ -29400,20 +29400,20 @@
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
       <c r="T94" s="186"/>
-      <c r="U94" s="213"/>
-      <c r="V94" s="213"/>
-      <c r="W94" s="213"/>
-      <c r="X94" s="213"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
-      <c r="AA94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
-      <c r="AD94" s="4"/>
-      <c r="AE94" s="183"/>
-      <c r="AF94" s="183"/>
-      <c r="AG94" s="183"/>
-      <c r="AH94" s="183"/>
+      <c r="U94" s="192"/>
+      <c r="V94" s="192"/>
+      <c r="W94" s="192"/>
+      <c r="X94" s="192"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="35"/>
+      <c r="AB94" s="35"/>
+      <c r="AC94" s="35"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="189"/>
+      <c r="AF94" s="189"/>
+      <c r="AG94" s="189"/>
+      <c r="AH94" s="189"/>
       <c r="AI94" s="95" t="s">
         <v>65</v>
       </c>
@@ -29425,16 +29425,16 @@
       </c>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A95" s="192"/>
-      <c r="B95" s="183"/>
-      <c r="C95" s="183"/>
-      <c r="D95" s="172"/>
-      <c r="E95" s="189"/>
-      <c r="F95" s="189"/>
-      <c r="G95" s="189"/>
-      <c r="H95" s="189"/>
-      <c r="I95" s="189"/>
-      <c r="J95" s="189"/>
+      <c r="A95" s="203"/>
+      <c r="B95" s="189"/>
+      <c r="C95" s="189"/>
+      <c r="D95" s="171"/>
+      <c r="E95" s="206"/>
+      <c r="F95" s="206"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="206"/>
+      <c r="I95" s="206"/>
+      <c r="J95" s="206"/>
       <c r="K95" s="32"/>
       <c r="L95" s="32"/>
       <c r="M95" s="32"/>
@@ -29445,20 +29445,20 @@
       <c r="R95" s="32"/>
       <c r="S95" s="32"/>
       <c r="T95" s="186"/>
-      <c r="U95" s="213"/>
-      <c r="V95" s="213"/>
-      <c r="W95" s="213"/>
-      <c r="X95" s="213"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="183"/>
-      <c r="AF95" s="183"/>
-      <c r="AG95" s="183"/>
-      <c r="AH95" s="183"/>
+      <c r="U95" s="192"/>
+      <c r="V95" s="192"/>
+      <c r="W95" s="192"/>
+      <c r="X95" s="192"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="35"/>
+      <c r="AB95" s="35"/>
+      <c r="AC95" s="35"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="189"/>
+      <c r="AF95" s="189"/>
+      <c r="AG95" s="189"/>
+      <c r="AH95" s="189"/>
       <c r="AI95" s="95" t="s">
         <v>66</v>
       </c>
@@ -29470,16 +29470,16 @@
       </c>
     </row>
     <row r="96" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="192"/>
-      <c r="B96" s="183"/>
-      <c r="C96" s="183"/>
-      <c r="D96" s="172"/>
-      <c r="E96" s="189"/>
-      <c r="F96" s="189"/>
-      <c r="G96" s="189"/>
-      <c r="H96" s="189"/>
-      <c r="I96" s="189"/>
-      <c r="J96" s="189"/>
+      <c r="A96" s="203"/>
+      <c r="B96" s="189"/>
+      <c r="C96" s="189"/>
+      <c r="D96" s="171"/>
+      <c r="E96" s="206"/>
+      <c r="F96" s="206"/>
+      <c r="G96" s="206"/>
+      <c r="H96" s="206"/>
+      <c r="I96" s="206"/>
+      <c r="J96" s="206"/>
       <c r="K96" s="32"/>
       <c r="L96" s="32"/>
       <c r="M96" s="32"/>
@@ -29490,20 +29490,20 @@
       <c r="R96" s="32"/>
       <c r="S96" s="32"/>
       <c r="T96" s="186"/>
-      <c r="U96" s="213"/>
-      <c r="V96" s="213"/>
-      <c r="W96" s="213"/>
-      <c r="X96" s="213"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="183"/>
-      <c r="AF96" s="183"/>
-      <c r="AG96" s="183"/>
-      <c r="AH96" s="183"/>
+      <c r="U96" s="192"/>
+      <c r="V96" s="192"/>
+      <c r="W96" s="192"/>
+      <c r="X96" s="192"/>
+      <c r="Y96" s="35"/>
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="35"/>
+      <c r="AB96" s="35"/>
+      <c r="AC96" s="35"/>
+      <c r="AD96" s="35"/>
+      <c r="AE96" s="189"/>
+      <c r="AF96" s="189"/>
+      <c r="AG96" s="189"/>
+      <c r="AH96" s="189"/>
       <c r="AI96" s="95" t="s">
         <v>67</v>
       </c>
@@ -29515,10 +29515,10 @@
       </c>
     </row>
     <row r="97" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="206"/>
-      <c r="B97" s="204"/>
-      <c r="C97" s="204"/>
-      <c r="D97" s="173"/>
+      <c r="A97" s="204"/>
+      <c r="B97" s="190"/>
+      <c r="C97" s="190"/>
+      <c r="D97" s="172"/>
       <c r="E97" s="207"/>
       <c r="F97" s="207"/>
       <c r="G97" s="207"/>
@@ -29534,21 +29534,21 @@
       <c r="Q97" s="44"/>
       <c r="R97" s="44"/>
       <c r="S97" s="44"/>
-      <c r="T97" s="205"/>
-      <c r="U97" s="214"/>
-      <c r="V97" s="214"/>
-      <c r="W97" s="214"/>
-      <c r="X97" s="214"/>
-      <c r="Y97" s="41"/>
-      <c r="Z97" s="41"/>
-      <c r="AA97" s="41"/>
-      <c r="AB97" s="41"/>
-      <c r="AC97" s="41"/>
-      <c r="AD97" s="41"/>
-      <c r="AE97" s="204"/>
-      <c r="AF97" s="204"/>
-      <c r="AG97" s="204"/>
-      <c r="AH97" s="204"/>
+      <c r="T97" s="187"/>
+      <c r="U97" s="193"/>
+      <c r="V97" s="193"/>
+      <c r="W97" s="193"/>
+      <c r="X97" s="193"/>
+      <c r="Y97" s="53"/>
+      <c r="Z97" s="53"/>
+      <c r="AA97" s="53"/>
+      <c r="AB97" s="53"/>
+      <c r="AC97" s="53"/>
+      <c r="AD97" s="53"/>
+      <c r="AE97" s="190"/>
+      <c r="AF97" s="190"/>
+      <c r="AG97" s="190"/>
+      <c r="AH97" s="190"/>
       <c r="AI97" s="96" t="s">
         <v>68</v>
       </c>
@@ -29561,6 +29561,218 @@
     </row>
   </sheetData>
   <mergeCells count="236">
+    <mergeCell ref="AE40:AE44"/>
+    <mergeCell ref="AF40:AF44"/>
+    <mergeCell ref="AG40:AG44"/>
+    <mergeCell ref="AH40:AH44"/>
+    <mergeCell ref="AI40:AI44"/>
+    <mergeCell ref="F40:F44"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="T40:T44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="H40:H44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="AI5:AI9"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="U5:U9"/>
+    <mergeCell ref="V5:V9"/>
+    <mergeCell ref="AE5:AE9"/>
+    <mergeCell ref="AF5:AF9"/>
+    <mergeCell ref="AG5:AG9"/>
+    <mergeCell ref="AH5:AH9"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="AH10:AH14"/>
+    <mergeCell ref="AI10:AI14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="V15:V19"/>
+    <mergeCell ref="AE15:AE19"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="U10:U14"/>
+    <mergeCell ref="V10:V14"/>
+    <mergeCell ref="AE10:AE14"/>
+    <mergeCell ref="AF10:AF14"/>
+    <mergeCell ref="AG10:AG14"/>
+    <mergeCell ref="AF15:AF19"/>
+    <mergeCell ref="AG15:AG19"/>
+    <mergeCell ref="AH15:AH19"/>
+    <mergeCell ref="AI15:AI19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="AE20:AE24"/>
+    <mergeCell ref="AF20:AF24"/>
+    <mergeCell ref="AG20:AG24"/>
+    <mergeCell ref="AI25:AI29"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="U20:U24"/>
+    <mergeCell ref="V20:V24"/>
+    <mergeCell ref="T30:T34"/>
+    <mergeCell ref="U30:U34"/>
+    <mergeCell ref="V30:V34"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="T25:T29"/>
+    <mergeCell ref="U25:U29"/>
+    <mergeCell ref="V25:V29"/>
+    <mergeCell ref="AE25:AE29"/>
+    <mergeCell ref="AF25:AF29"/>
+    <mergeCell ref="T35:T39"/>
+    <mergeCell ref="U35:U39"/>
+    <mergeCell ref="V35:V39"/>
+    <mergeCell ref="AE35:AE39"/>
+    <mergeCell ref="AF35:AF39"/>
+    <mergeCell ref="AG35:AG39"/>
+    <mergeCell ref="AH35:AH39"/>
+    <mergeCell ref="AI35:AI39"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE30:AE34"/>
+    <mergeCell ref="AF30:AF34"/>
+    <mergeCell ref="AG30:AG34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="AI30:AI34"/>
+    <mergeCell ref="AH20:AH24"/>
+    <mergeCell ref="AI20:AI24"/>
+    <mergeCell ref="AG25:AG29"/>
+    <mergeCell ref="AH25:AH29"/>
+    <mergeCell ref="AE45:AE49"/>
+    <mergeCell ref="AF45:AF49"/>
+    <mergeCell ref="AG45:AG49"/>
+    <mergeCell ref="AH45:AH49"/>
+    <mergeCell ref="AI45:AI49"/>
+    <mergeCell ref="T45:T49"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="H45:H49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="AG50:AG54"/>
+    <mergeCell ref="AH50:AH54"/>
+    <mergeCell ref="AI50:AI54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="E55:E59"/>
+    <mergeCell ref="F55:F59"/>
+    <mergeCell ref="G55:G59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="I55:I59"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="T55:T59"/>
+    <mergeCell ref="AE55:AE59"/>
+    <mergeCell ref="AF55:AF59"/>
+    <mergeCell ref="AG55:AG59"/>
+    <mergeCell ref="AH55:AH59"/>
+    <mergeCell ref="AI55:AI59"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="E50:E54"/>
+    <mergeCell ref="F50:F54"/>
+    <mergeCell ref="G50:G54"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="I60:I64"/>
+    <mergeCell ref="J60:J64"/>
+    <mergeCell ref="T50:T54"/>
+    <mergeCell ref="AE50:AE54"/>
+    <mergeCell ref="AF50:AF54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="I50:I54"/>
+    <mergeCell ref="J50:J54"/>
+    <mergeCell ref="T60:T64"/>
+    <mergeCell ref="AE60:AE64"/>
+    <mergeCell ref="AF60:AF64"/>
+    <mergeCell ref="AG60:AG64"/>
+    <mergeCell ref="AH60:AH64"/>
+    <mergeCell ref="AI60:AI64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="C65:C69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="F65:F69"/>
+    <mergeCell ref="G65:G69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="I65:I69"/>
+    <mergeCell ref="J65:J69"/>
+    <mergeCell ref="T65:T69"/>
+    <mergeCell ref="AE65:AE69"/>
+    <mergeCell ref="AF65:AF69"/>
+    <mergeCell ref="AG65:AG69"/>
+    <mergeCell ref="AH65:AH69"/>
+    <mergeCell ref="AI65:AI69"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="E60:E64"/>
+    <mergeCell ref="F60:F64"/>
+    <mergeCell ref="G60:G64"/>
+    <mergeCell ref="T78:T82"/>
+    <mergeCell ref="AE78:AE82"/>
+    <mergeCell ref="AF78:AF82"/>
+    <mergeCell ref="AG78:AG82"/>
+    <mergeCell ref="AI78:AI82"/>
+    <mergeCell ref="A70:A77"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C77"/>
+    <mergeCell ref="E70:E77"/>
+    <mergeCell ref="F70:F77"/>
+    <mergeCell ref="G70:G77"/>
+    <mergeCell ref="H70:H77"/>
+    <mergeCell ref="I70:I77"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="C78:C82"/>
+    <mergeCell ref="E78:E82"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="G78:G82"/>
+    <mergeCell ref="H78:H82"/>
+    <mergeCell ref="I78:I82"/>
+    <mergeCell ref="J78:J82"/>
+    <mergeCell ref="A83:A97"/>
+    <mergeCell ref="B83:B97"/>
+    <mergeCell ref="C83:C97"/>
+    <mergeCell ref="E83:E97"/>
+    <mergeCell ref="F83:F97"/>
+    <mergeCell ref="G83:G97"/>
+    <mergeCell ref="H83:H97"/>
+    <mergeCell ref="I83:I97"/>
+    <mergeCell ref="J83:J97"/>
     <mergeCell ref="AJ86:AK86"/>
     <mergeCell ref="AJ92:AK92"/>
     <mergeCell ref="T83:T97"/>
@@ -29585,218 +29797,6 @@
     <mergeCell ref="AF70:AF77"/>
     <mergeCell ref="AH70:AH77"/>
     <mergeCell ref="AI70:AI77"/>
-    <mergeCell ref="A83:A97"/>
-    <mergeCell ref="B83:B97"/>
-    <mergeCell ref="C83:C97"/>
-    <mergeCell ref="E83:E97"/>
-    <mergeCell ref="F83:F97"/>
-    <mergeCell ref="G83:G97"/>
-    <mergeCell ref="H83:H97"/>
-    <mergeCell ref="I83:I97"/>
-    <mergeCell ref="J83:J97"/>
-    <mergeCell ref="T78:T82"/>
-    <mergeCell ref="AE78:AE82"/>
-    <mergeCell ref="AF78:AF82"/>
-    <mergeCell ref="AG78:AG82"/>
-    <mergeCell ref="AI78:AI82"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="E70:E77"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="G70:G77"/>
-    <mergeCell ref="H70:H77"/>
-    <mergeCell ref="I70:I77"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="C78:C82"/>
-    <mergeCell ref="E78:E82"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="G78:G82"/>
-    <mergeCell ref="H78:H82"/>
-    <mergeCell ref="I78:I82"/>
-    <mergeCell ref="J78:J82"/>
-    <mergeCell ref="AG60:AG64"/>
-    <mergeCell ref="AH60:AH64"/>
-    <mergeCell ref="AI60:AI64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
-    <mergeCell ref="C65:C69"/>
-    <mergeCell ref="E65:E69"/>
-    <mergeCell ref="F65:F69"/>
-    <mergeCell ref="G65:G69"/>
-    <mergeCell ref="H65:H69"/>
-    <mergeCell ref="I65:I69"/>
-    <mergeCell ref="J65:J69"/>
-    <mergeCell ref="T65:T69"/>
-    <mergeCell ref="AE65:AE69"/>
-    <mergeCell ref="AF65:AF69"/>
-    <mergeCell ref="AG65:AG69"/>
-    <mergeCell ref="AH65:AH69"/>
-    <mergeCell ref="AI65:AI69"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="C60:C64"/>
-    <mergeCell ref="E60:E64"/>
-    <mergeCell ref="F60:F64"/>
-    <mergeCell ref="G60:G64"/>
-    <mergeCell ref="H60:H64"/>
-    <mergeCell ref="I60:I64"/>
-    <mergeCell ref="J60:J64"/>
-    <mergeCell ref="T50:T54"/>
-    <mergeCell ref="AE50:AE54"/>
-    <mergeCell ref="AF50:AF54"/>
-    <mergeCell ref="H50:H54"/>
-    <mergeCell ref="I50:I54"/>
-    <mergeCell ref="J50:J54"/>
-    <mergeCell ref="T60:T64"/>
-    <mergeCell ref="AE60:AE64"/>
-    <mergeCell ref="AF60:AF64"/>
-    <mergeCell ref="AG50:AG54"/>
-    <mergeCell ref="AH50:AH54"/>
-    <mergeCell ref="AI50:AI54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="E55:E59"/>
-    <mergeCell ref="F55:F59"/>
-    <mergeCell ref="G55:G59"/>
-    <mergeCell ref="H55:H59"/>
-    <mergeCell ref="I55:I59"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="T55:T59"/>
-    <mergeCell ref="AE55:AE59"/>
-    <mergeCell ref="AF55:AF59"/>
-    <mergeCell ref="AG55:AG59"/>
-    <mergeCell ref="AH55:AH59"/>
-    <mergeCell ref="AI55:AI59"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="E50:E54"/>
-    <mergeCell ref="F50:F54"/>
-    <mergeCell ref="G50:G54"/>
-    <mergeCell ref="AE45:AE49"/>
-    <mergeCell ref="AF45:AF49"/>
-    <mergeCell ref="AG45:AG49"/>
-    <mergeCell ref="AH45:AH49"/>
-    <mergeCell ref="AI45:AI49"/>
-    <mergeCell ref="T45:T49"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="H45:H49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="AH35:AH39"/>
-    <mergeCell ref="AI35:AI39"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE30:AE34"/>
-    <mergeCell ref="AF30:AF34"/>
-    <mergeCell ref="AG30:AG34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="AI30:AI34"/>
-    <mergeCell ref="AH20:AH24"/>
-    <mergeCell ref="AI20:AI24"/>
-    <mergeCell ref="AG25:AG29"/>
-    <mergeCell ref="AH25:AH29"/>
-    <mergeCell ref="V25:V29"/>
-    <mergeCell ref="AE25:AE29"/>
-    <mergeCell ref="AF25:AF29"/>
-    <mergeCell ref="T35:T39"/>
-    <mergeCell ref="U35:U39"/>
-    <mergeCell ref="V35:V39"/>
-    <mergeCell ref="AE35:AE39"/>
-    <mergeCell ref="AF35:AF39"/>
-    <mergeCell ref="AG35:AG39"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="AE20:AE24"/>
-    <mergeCell ref="AF20:AF24"/>
-    <mergeCell ref="AG20:AG24"/>
-    <mergeCell ref="AI25:AI29"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="T20:T24"/>
-    <mergeCell ref="U20:U24"/>
-    <mergeCell ref="V20:V24"/>
-    <mergeCell ref="T30:T34"/>
-    <mergeCell ref="U30:U34"/>
-    <mergeCell ref="V30:V34"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="T25:T29"/>
-    <mergeCell ref="U25:U29"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="AH10:AH14"/>
-    <mergeCell ref="AI10:AI14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="T15:T19"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="V15:V19"/>
-    <mergeCell ref="AE15:AE19"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="U10:U14"/>
-    <mergeCell ref="V10:V14"/>
-    <mergeCell ref="AE10:AE14"/>
-    <mergeCell ref="AF10:AF14"/>
-    <mergeCell ref="AG10:AG14"/>
-    <mergeCell ref="AF15:AF19"/>
-    <mergeCell ref="AG15:AG19"/>
-    <mergeCell ref="AH15:AH19"/>
-    <mergeCell ref="AI15:AI19"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="T40:T44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="H40:H44"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="AI5:AI9"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="V5:V9"/>
-    <mergeCell ref="AE5:AE9"/>
-    <mergeCell ref="AF5:AF9"/>
-    <mergeCell ref="AG5:AG9"/>
-    <mergeCell ref="AH5:AH9"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="AE40:AE44"/>
-    <mergeCell ref="AF40:AF44"/>
-    <mergeCell ref="AG40:AG44"/>
-    <mergeCell ref="AH40:AH44"/>
-    <mergeCell ref="AI40:AI44"/>
-    <mergeCell ref="F40:F44"/>
-    <mergeCell ref="E40:E44"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="B40:B44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="AJ83:AJ97">
@@ -29824,40 +29824,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="J1" s="217" t="s">
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="J1" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="216" t="s">
+      <c r="D2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="L2" s="216" t="s">
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="L2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="216"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C3" s="80"/>
@@ -29894,7 +29894,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="216" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="80">
@@ -29916,7 +29916,7 @@
       <c r="H4" s="82">
         <v>0.92479997873306197</v>
       </c>
-      <c r="J4" s="215" t="s">
+      <c r="J4" s="216" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="80">
@@ -29940,7 +29940,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="215"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="80">
         <v>32</v>
       </c>
@@ -29960,7 +29960,7 @@
       <c r="H5" s="82">
         <v>0.92439997196197499</v>
       </c>
-      <c r="J5" s="215"/>
+      <c r="J5" s="216"/>
       <c r="K5" s="80">
         <v>32</v>
       </c>
@@ -29982,7 +29982,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="215"/>
+      <c r="B6" s="216"/>
       <c r="C6" s="80">
         <v>64</v>
       </c>
@@ -30002,7 +30002,7 @@
       <c r="H6" s="82">
         <v>0.92510002851486195</v>
       </c>
-      <c r="J6" s="215"/>
+      <c r="J6" s="216"/>
       <c r="K6" s="80">
         <v>64</v>
       </c>
@@ -30024,7 +30024,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="215"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="80">
         <v>128</v>
       </c>
@@ -30044,7 +30044,7 @@
       <c r="H7" s="82">
         <v>0.92009997367858798</v>
       </c>
-      <c r="J7" s="215"/>
+      <c r="J7" s="216"/>
       <c r="K7" s="80">
         <v>128</v>
       </c>
@@ -30066,7 +30066,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="215"/>
+      <c r="B8" s="216"/>
       <c r="C8" s="80">
         <v>256</v>
       </c>
@@ -30086,7 +30086,7 @@
       <c r="H8" s="82">
         <v>0.92199999094009399</v>
       </c>
-      <c r="J8" s="215"/>
+      <c r="J8" s="216"/>
       <c r="K8" s="80">
         <v>256</v>
       </c>
@@ -30117,40 +30117,40 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="217" t="s">
+      <c r="B12" s="214" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="217"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="J12" s="217" t="s">
+      <c r="C12" s="214"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="214"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="214"/>
+      <c r="H12" s="214"/>
+      <c r="J12" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="217"/>
-      <c r="L12" s="217"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="214"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="216" t="s">
+      <c r="D13" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="216"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
-      <c r="L13" s="216" t="s">
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="L13" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="216"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
+      <c r="P13" s="215"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" s="80"/>
@@ -30187,7 +30187,7 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="215" t="s">
+      <c r="B15" s="216" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="80">
@@ -30209,7 +30209,7 @@
       <c r="H15" s="82">
         <v>0.91060000658035201</v>
       </c>
-      <c r="J15" s="215" t="s">
+      <c r="J15" s="216" t="s">
         <v>46</v>
       </c>
       <c r="K15" s="80">
@@ -30233,7 +30233,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="215"/>
+      <c r="B16" s="216"/>
       <c r="C16" s="80">
         <v>32</v>
       </c>
@@ -30253,7 +30253,7 @@
       <c r="H16" s="82">
         <v>0.91729998588562001</v>
       </c>
-      <c r="J16" s="215"/>
+      <c r="J16" s="216"/>
       <c r="K16" s="80">
         <v>32</v>
       </c>
@@ -30275,7 +30275,7 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="215"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="80">
         <v>64</v>
       </c>
@@ -30295,7 +30295,7 @@
       <c r="H17" s="82">
         <v>0.92089998722076405</v>
       </c>
-      <c r="J17" s="215"/>
+      <c r="J17" s="216"/>
       <c r="K17" s="80">
         <v>64</v>
       </c>
@@ -30317,7 +30317,7 @@
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="215"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="80">
         <v>128</v>
       </c>
@@ -30337,7 +30337,7 @@
       <c r="H18" s="82">
         <v>0.908500015735626</v>
       </c>
-      <c r="J18" s="215"/>
+      <c r="J18" s="216"/>
       <c r="K18" s="80">
         <v>128</v>
       </c>
@@ -30359,7 +30359,7 @@
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="215"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="80">
         <v>256</v>
       </c>
@@ -30379,7 +30379,7 @@
       <c r="H19" s="82">
         <v>0.91579997539520197</v>
       </c>
-      <c r="J19" s="215"/>
+      <c r="J19" s="216"/>
       <c r="K19" s="80">
         <v>256</v>
       </c>
@@ -30411,18 +30411,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="J4:J8"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="J12:P12"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="L13:P13"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="J15:J19"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="J4:J8"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:H8">
     <cfRule type="colorScale" priority="7">
@@ -30506,7 +30506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3521CC-0D9F-463C-A465-F4D5E71F1257}">
   <dimension ref="A1:Z95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="I133" sqref="I133"/>
     </sheetView>
   </sheetViews>
@@ -30531,39 +30531,39 @@
     <col min="17" max="18" width="17.140625" style="103" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" style="103" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" style="106" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" style="169" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="169" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" style="168" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="168" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="14.28515625" style="103" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="229" t="s">
+      <c r="E1" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229" t="s">
+      <c r="F1" s="221"/>
+      <c r="G1" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229" t="s">
+      <c r="H1" s="221"/>
+      <c r="I1" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229" t="s">
+      <c r="J1" s="221"/>
+      <c r="K1" s="221" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229" t="s">
+      <c r="L1" s="221"/>
+      <c r="M1" s="221" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="229"/>
+      <c r="N1" s="221"/>
       <c r="O1" s="108" t="s">
         <v>22</v>
       </c>
       <c r="T1" s="105"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
+      <c r="U1" s="165"/>
+      <c r="V1" s="165"/>
     </row>
     <row r="2" spans="1:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="124" t="s">
@@ -30624,17 +30624,17 @@
       <c r="T2" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="226">
+      <c r="A3" s="222">
         <v>1</v>
       </c>
-      <c r="B3" s="194">
+      <c r="B3" s="199">
         <v>200</v>
       </c>
-      <c r="C3" s="194">
+      <c r="C3" s="199">
         <v>64</v>
       </c>
       <c r="D3" s="121">
@@ -30654,16 +30654,16 @@
       <c r="L3" s="110"/>
       <c r="M3" s="110"/>
       <c r="N3" s="110"/>
-      <c r="O3" s="194">
+      <c r="O3" s="199">
         <v>1</v>
       </c>
-      <c r="P3" s="194" t="s">
+      <c r="P3" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="194" t="s">
+      <c r="Q3" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="194" t="s">
+      <c r="R3" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S3" s="133">
@@ -30672,13 +30672,13 @@
       <c r="T3" s="111">
         <v>6.5844907407407407E-5</v>
       </c>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
+      <c r="U3" s="167"/>
+      <c r="V3" s="167"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="227"/>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
+      <c r="A4" s="223"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
       <c r="D4" s="122">
         <v>2</v>
       </c>
@@ -30700,23 +30700,23 @@
       <c r="L4" s="107"/>
       <c r="M4" s="107"/>
       <c r="N4" s="107"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
       <c r="S4" s="134">
         <v>3.0255246162414502</v>
       </c>
       <c r="T4" s="112">
         <v>6.7766203703703714E-5</v>
       </c>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
+      <c r="U4" s="167"/>
+      <c r="V4" s="167"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="227"/>
-      <c r="B5" s="195"/>
-      <c r="C5" s="195"/>
+      <c r="A5" s="223"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="122">
         <v>3</v>
       </c>
@@ -30742,23 +30742,23 @@
       <c r="L5" s="107"/>
       <c r="M5" s="107"/>
       <c r="N5" s="107"/>
-      <c r="O5" s="195"/>
-      <c r="P5" s="195"/>
-      <c r="Q5" s="195"/>
-      <c r="R5" s="195"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
       <c r="S5" s="134">
         <v>3.01472735404968</v>
       </c>
       <c r="T5" s="112">
         <v>8.3090277777777782E-5</v>
       </c>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="227"/>
-      <c r="B6" s="195"/>
-      <c r="C6" s="195"/>
+      <c r="A6" s="223"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
       <c r="D6" s="122">
         <v>4</v>
       </c>
@@ -30788,23 +30788,23 @@
       </c>
       <c r="M6" s="128"/>
       <c r="N6" s="128"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
       <c r="S6" s="135">
         <v>2.7250862121582</v>
       </c>
       <c r="T6" s="129">
         <v>7.63425925925926E-5</v>
       </c>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="228"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
+      <c r="A7" s="224"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
       <c r="D7" s="123">
         <v>5</v>
       </c>
@@ -30838,41 +30838,41 @@
       <c r="N7" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
       <c r="S7" s="136">
         <v>2.1535682678222599</v>
       </c>
       <c r="T7" s="137">
         <v>1.1555555555555555E-4</v>
       </c>
-      <c r="U7" s="168"/>
-      <c r="V7" s="168" t="s">
+      <c r="U7" s="167"/>
+      <c r="V7" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="W7" s="168" t="s">
+      <c r="W7" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="X7" s="168" t="s">
+      <c r="X7" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="Y7" s="168" t="s">
+      <c r="Y7" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="168" t="s">
+      <c r="Z7" s="167" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="226">
+      <c r="A8" s="222">
         <v>2</v>
       </c>
-      <c r="B8" s="194">
+      <c r="B8" s="199">
         <v>200</v>
       </c>
-      <c r="C8" s="194">
+      <c r="C8" s="199">
         <v>64</v>
       </c>
       <c r="D8" s="121"/>
@@ -30906,16 +30906,16 @@
       <c r="N8" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O8" s="194">
+      <c r="O8" s="199">
         <v>1</v>
       </c>
-      <c r="P8" s="194" t="s">
+      <c r="P8" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="194" t="s">
+      <c r="Q8" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="194" t="s">
+      <c r="R8" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S8" s="139">
@@ -30924,10 +30924,10 @@
       <c r="T8" s="140">
         <v>1.1555555555555555E-4</v>
       </c>
-      <c r="U8" s="168">
+      <c r="U8" s="167">
         <v>64</v>
       </c>
-      <c r="V8" s="168">
+      <c r="V8" s="167">
         <f>S8</f>
         <v>2.1535682678222599</v>
       </c>
@@ -30949,9 +30949,9 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="227"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
       <c r="D9" s="122"/>
       <c r="E9" s="95">
         <v>128</v>
@@ -30983,20 +30983,20 @@
       <c r="N9" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="195"/>
-      <c r="P9" s="195"/>
-      <c r="Q9" s="195"/>
-      <c r="R9" s="195"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
       <c r="S9" s="95">
         <v>3.7236812114715501</v>
       </c>
       <c r="T9" s="112">
         <v>1.0601851851851853E-4</v>
       </c>
-      <c r="U9" s="168">
+      <c r="U9" s="167">
         <v>128</v>
       </c>
-      <c r="V9" s="168">
+      <c r="V9" s="167">
         <f t="shared" ref="V9:V11" si="0">S9</f>
         <v>3.7236812114715501</v>
       </c>
@@ -31018,9 +31018,9 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="227"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
       <c r="D10" s="122"/>
       <c r="E10" s="95">
         <v>256</v>
@@ -31052,20 +31052,20 @@
       <c r="N10" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="195"/>
-      <c r="P10" s="195"/>
-      <c r="Q10" s="195"/>
-      <c r="R10" s="195"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="200"/>
       <c r="S10" s="95">
         <v>3.96568727493286</v>
       </c>
       <c r="T10" s="112">
         <v>1.236574074074074E-4</v>
       </c>
-      <c r="U10" s="168">
+      <c r="U10" s="167">
         <v>256</v>
       </c>
-      <c r="V10" s="168">
+      <c r="V10" s="167">
         <f t="shared" si="0"/>
         <v>3.96568727493286</v>
       </c>
@@ -31087,9 +31087,9 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="228"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
       <c r="D11" s="123"/>
       <c r="E11" s="96">
         <v>512</v>
@@ -31121,20 +31121,20 @@
       <c r="N11" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="196"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
+      <c r="R11" s="201"/>
       <c r="S11" s="96">
         <v>3.4289927482604901</v>
       </c>
       <c r="T11" s="113">
         <v>1.0758101851851852E-4</v>
       </c>
-      <c r="U11" s="168">
+      <c r="U11" s="167">
         <v>512</v>
       </c>
-      <c r="V11" s="168">
+      <c r="V11" s="167">
         <f t="shared" si="0"/>
         <v>3.4289927482604901</v>
       </c>
@@ -31156,13 +31156,13 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="226">
+      <c r="A12" s="222">
         <v>3</v>
       </c>
-      <c r="B12" s="194">
+      <c r="B12" s="199">
         <v>200</v>
       </c>
-      <c r="C12" s="194">
+      <c r="C12" s="199">
         <v>64</v>
       </c>
       <c r="D12" s="121"/>
@@ -31196,16 +31196,16 @@
       <c r="N12" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="194">
+      <c r="O12" s="199">
         <v>1</v>
       </c>
-      <c r="P12" s="194" t="s">
+      <c r="P12" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="194" t="s">
+      <c r="Q12" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R12" s="194" t="s">
+      <c r="R12" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S12" s="94">
@@ -31214,13 +31214,13 @@
       <c r="T12" s="111">
         <v>1.1555555555555555E-4</v>
       </c>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="167"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="227"/>
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="200"/>
       <c r="D13" s="122"/>
       <c r="E13" s="109">
         <v>64</v>
@@ -31252,23 +31252,23 @@
       <c r="N13" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="195"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
       <c r="S13" s="95">
         <v>2.0964887142181299</v>
       </c>
       <c r="T13" s="112">
         <v>9.0347222222222226E-5</v>
       </c>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="167"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="227"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="195"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
       <c r="D14" s="122"/>
       <c r="E14" s="109">
         <v>64</v>
@@ -31300,23 +31300,23 @@
       <c r="N14" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O14" s="195"/>
-      <c r="P14" s="195"/>
-      <c r="Q14" s="195"/>
-      <c r="R14" s="195"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
       <c r="S14" s="95">
         <v>4.4128270149230904</v>
       </c>
       <c r="T14" s="112">
         <v>1.4108796296296295E-4</v>
       </c>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="167"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="228"/>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
+      <c r="A15" s="224"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
       <c r="D15" s="123"/>
       <c r="E15" s="142">
         <v>64</v>
@@ -31348,27 +31348,27 @@
       <c r="N15" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="196"/>
-      <c r="R15" s="196"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
+      <c r="R15" s="201"/>
       <c r="S15" s="138">
         <v>2.0601322650909402</v>
       </c>
       <c r="T15" s="137">
         <v>1.1649305555555554E-4</v>
       </c>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="167"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="226">
+      <c r="A16" s="222">
         <v>4</v>
       </c>
-      <c r="B16" s="194">
+      <c r="B16" s="199">
         <v>200</v>
       </c>
-      <c r="C16" s="194">
+      <c r="C16" s="199">
         <v>64</v>
       </c>
       <c r="D16" s="121"/>
@@ -31402,16 +31402,16 @@
       <c r="N16" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O16" s="194">
+      <c r="O16" s="199">
         <v>1</v>
       </c>
-      <c r="P16" s="194" t="s">
+      <c r="P16" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="194" t="s">
+      <c r="Q16" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R16" s="194" t="s">
+      <c r="R16" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S16" s="139">
@@ -31420,13 +31420,13 @@
       <c r="T16" s="140">
         <v>1.1649305555555554E-4</v>
       </c>
-      <c r="U16" s="168"/>
-      <c r="V16" s="168"/>
+      <c r="U16" s="167"/>
+      <c r="V16" s="167"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="227"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
       <c r="D17" s="122"/>
       <c r="E17" s="109">
         <v>64</v>
@@ -31458,23 +31458,23 @@
       <c r="N17" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O17" s="195"/>
-      <c r="P17" s="195"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="195"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
       <c r="S17" s="95">
         <v>3.8568530082702601</v>
       </c>
       <c r="T17" s="112">
         <v>1.0649305555555557E-4</v>
       </c>
-      <c r="U17" s="168"/>
-      <c r="V17" s="168"/>
+      <c r="U17" s="167"/>
+      <c r="V17" s="167"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="227"/>
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
       <c r="D18" s="122"/>
       <c r="E18" s="109">
         <v>64</v>
@@ -31506,23 +31506,23 @@
       <c r="N18" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O18" s="195"/>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="195"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="200"/>
       <c r="S18" s="95">
         <v>5.0316214561462402</v>
       </c>
       <c r="T18" s="112">
         <v>1.8060185185185185E-4</v>
       </c>
-      <c r="U18" s="168"/>
-      <c r="V18" s="168"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="167"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="228"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
+      <c r="A19" s="224"/>
+      <c r="B19" s="201"/>
+      <c r="C19" s="201"/>
       <c r="D19" s="123"/>
       <c r="E19" s="141">
         <v>64</v>
@@ -31554,27 +31554,27 @@
       <c r="N19" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="196"/>
-      <c r="P19" s="196"/>
-      <c r="Q19" s="196"/>
-      <c r="R19" s="196"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="201"/>
+      <c r="R19" s="201"/>
       <c r="S19" s="96">
         <v>2.5193953514099099</v>
       </c>
       <c r="T19" s="113">
         <v>1.5063657407407408E-4</v>
       </c>
-      <c r="U19" s="168"/>
-      <c r="V19" s="168"/>
+      <c r="U19" s="167"/>
+      <c r="V19" s="167"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="226">
+      <c r="A20" s="222">
         <v>5</v>
       </c>
-      <c r="B20" s="194">
+      <c r="B20" s="199">
         <v>200</v>
       </c>
-      <c r="C20" s="194">
+      <c r="C20" s="199">
         <v>64</v>
       </c>
       <c r="D20" s="121"/>
@@ -31608,16 +31608,16 @@
       <c r="N20" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="194">
+      <c r="O20" s="199">
         <v>1</v>
       </c>
-      <c r="P20" s="194" t="s">
+      <c r="P20" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="194" t="s">
+      <c r="Q20" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R20" s="194" t="s">
+      <c r="R20" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S20" s="139">
@@ -31626,13 +31626,13 @@
       <c r="T20" s="140">
         <v>1.1649305555555554E-4</v>
       </c>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="227"/>
-      <c r="B21" s="195"/>
-      <c r="C21" s="195"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
       <c r="D21" s="122"/>
       <c r="E21" s="109">
         <v>64</v>
@@ -31664,23 +31664,23 @@
       <c r="N21" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="195"/>
-      <c r="P21" s="195"/>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="195"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
       <c r="S21" s="95">
         <v>2.3424174785614</v>
       </c>
       <c r="T21" s="112">
         <v>9.5763888888888898E-5</v>
       </c>
-      <c r="U21" s="168"/>
-      <c r="V21" s="168"/>
+      <c r="U21" s="167"/>
+      <c r="V21" s="167"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="227"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="195"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
       <c r="D22" s="122"/>
       <c r="E22" s="109">
         <v>64</v>
@@ -31712,23 +31712,23 @@
       <c r="N22" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="195"/>
-      <c r="P22" s="195"/>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="195"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
       <c r="S22" s="95">
         <v>4.4706521034240696</v>
       </c>
       <c r="T22" s="112">
         <v>1.0355324074074074E-4</v>
       </c>
-      <c r="U22" s="168"/>
-      <c r="V22" s="168"/>
+      <c r="U22" s="167"/>
+      <c r="V22" s="167"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="228"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="196"/>
+      <c r="A23" s="224"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="201"/>
       <c r="D23" s="123"/>
       <c r="E23" s="141">
         <v>64</v>
@@ -31760,27 +31760,27 @@
       <c r="N23" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="196"/>
-      <c r="P23" s="196"/>
-      <c r="Q23" s="196"/>
-      <c r="R23" s="196"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="201"/>
+      <c r="Q23" s="201"/>
+      <c r="R23" s="201"/>
       <c r="S23" s="96">
         <v>2.9130001068115199</v>
       </c>
       <c r="T23" s="113">
         <v>1.1530092592592592E-4</v>
       </c>
-      <c r="U23" s="168"/>
-      <c r="V23" s="168"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="167"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="226">
+      <c r="A24" s="222">
         <v>6</v>
       </c>
-      <c r="B24" s="194">
+      <c r="B24" s="199">
         <v>200</v>
       </c>
-      <c r="C24" s="194">
+      <c r="C24" s="199">
         <v>64</v>
       </c>
       <c r="D24" s="121"/>
@@ -31814,16 +31814,16 @@
       <c r="N24" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="O24" s="194">
+      <c r="O24" s="199">
         <v>1</v>
       </c>
-      <c r="P24" s="194" t="s">
+      <c r="P24" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="Q24" s="194" t="s">
+      <c r="Q24" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="R24" s="194" t="s">
+      <c r="R24" s="199" t="s">
         <v>73</v>
       </c>
       <c r="S24" s="143">
@@ -31832,13 +31832,13 @@
       <c r="T24" s="144">
         <v>1.1649305555555554E-4</v>
       </c>
-      <c r="U24" s="168"/>
-      <c r="V24" s="168"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="227"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="195"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
       <c r="D25" s="122"/>
       <c r="E25" s="109">
         <v>64</v>
@@ -31870,23 +31870,23 @@
       <c r="N25" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O25" s="195"/>
-      <c r="P25" s="195"/>
-      <c r="Q25" s="195"/>
-      <c r="R25" s="195"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
       <c r="S25" s="95">
         <v>4.81990194320678</v>
       </c>
       <c r="T25" s="112">
         <v>1.0016203703703702E-4</v>
       </c>
-      <c r="U25" s="168"/>
-      <c r="V25" s="168"/>
+      <c r="U25" s="167"/>
+      <c r="V25" s="167"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="227"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
       <c r="D26" s="122"/>
       <c r="E26" s="109">
         <v>64</v>
@@ -31918,23 +31918,23 @@
       <c r="N26" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="O26" s="195"/>
-      <c r="P26" s="195"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="195"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
       <c r="S26" s="95">
         <v>2.5121779441833398</v>
       </c>
       <c r="T26" s="112">
         <v>1.6039351851851853E-4</v>
       </c>
-      <c r="U26" s="168"/>
-      <c r="V26" s="168"/>
+      <c r="U26" s="167"/>
+      <c r="V26" s="167"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="227"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
+      <c r="A27" s="223"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
       <c r="D27" s="122"/>
       <c r="E27" s="148">
         <v>64</v>
@@ -31966,35 +31966,35 @@
       <c r="N27" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="O27" s="195"/>
-      <c r="P27" s="195"/>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="195"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
       <c r="S27" s="149">
         <v>2.0093624591827299</v>
       </c>
       <c r="T27" s="150">
         <v>1.1116898148148147E-4</v>
       </c>
-      <c r="U27" s="168"/>
-      <c r="V27" s="168" t="s">
+      <c r="U27" s="167"/>
+      <c r="V27" s="167" t="s">
         <v>84</v>
       </c>
-      <c r="W27" s="168" t="s">
+      <c r="W27" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="X27" s="168" t="s">
+      <c r="X27" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="Y27" s="168" t="s">
+      <c r="Y27" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="Z27" s="168" t="s">
+      <c r="Z27" s="167" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="218">
+      <c r="A28" s="217">
         <v>7</v>
       </c>
       <c r="B28" s="185">
@@ -32052,10 +32052,10 @@
       <c r="T28" s="140">
         <v>1.1116898148148147E-4</v>
       </c>
-      <c r="U28" s="168" t="s">
-        <v>21</v>
-      </c>
-      <c r="V28" s="168">
+      <c r="U28" s="167" t="s">
+        <v>21</v>
+      </c>
+      <c r="V28" s="167">
         <f>S28</f>
         <v>2.0093624591827299</v>
       </c>
@@ -32077,7 +32077,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="219"/>
+      <c r="A29" s="218"/>
       <c r="B29" s="186"/>
       <c r="C29" s="186"/>
       <c r="D29" s="115"/>
@@ -32121,10 +32121,10 @@
       <c r="T29" s="112">
         <v>1.0069444444444443E-4</v>
       </c>
-      <c r="U29" s="168" t="s">
+      <c r="U29" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="V29" s="168">
+      <c r="V29" s="167">
         <f t="shared" ref="V29:V35" si="5">S29</f>
         <v>2.5936205387115399</v>
       </c>
@@ -32146,7 +32146,7 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="219"/>
+      <c r="A30" s="218"/>
       <c r="B30" s="186"/>
       <c r="C30" s="186"/>
       <c r="D30" s="115"/>
@@ -32190,10 +32190,10 @@
       <c r="T30" s="112">
         <v>1.0520833333333333E-4</v>
       </c>
-      <c r="U30" s="168" t="s">
+      <c r="U30" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="V30" s="168">
+      <c r="V30" s="167">
         <f t="shared" si="5"/>
         <v>3.9970164299011199</v>
       </c>
@@ -32215,7 +32215,7 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="219"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="186"/>
       <c r="C31" s="186"/>
       <c r="D31" s="115"/>
@@ -32259,10 +32259,10 @@
       <c r="T31" s="147">
         <v>1.0662037037037036E-4</v>
       </c>
-      <c r="U31" s="168" t="s">
+      <c r="U31" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="V31" s="168">
+      <c r="V31" s="167">
         <f t="shared" si="5"/>
         <v>4.03182029724121</v>
       </c>
@@ -32284,7 +32284,7 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="186"/>
       <c r="C32" s="186"/>
       <c r="D32" s="115"/>
@@ -32328,10 +32328,10 @@
       <c r="T32" s="112">
         <v>1.0550925925925925E-4</v>
       </c>
-      <c r="U32" s="168" t="s">
+      <c r="U32" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="V32" s="168">
+      <c r="V32" s="167">
         <f t="shared" si="5"/>
         <v>2.3892979621887198</v>
       </c>
@@ -32353,7 +32353,7 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
+      <c r="A33" s="218"/>
       <c r="B33" s="186"/>
       <c r="C33" s="186"/>
       <c r="D33" s="115"/>
@@ -32397,10 +32397,10 @@
       <c r="T33" s="112">
         <v>1.0315972222222225E-4</v>
       </c>
-      <c r="U33" s="168" t="s">
+      <c r="U33" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="V33" s="168">
+      <c r="V33" s="167">
         <f t="shared" si="5"/>
         <v>3.18337702751159</v>
       </c>
@@ -32422,7 +32422,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="219"/>
+      <c r="A34" s="218"/>
       <c r="B34" s="186"/>
       <c r="C34" s="186"/>
       <c r="D34" s="115"/>
@@ -32466,10 +32466,10 @@
       <c r="T34" s="112">
         <v>1.0175925925925924E-4</v>
       </c>
-      <c r="U34" s="168" t="s">
+      <c r="U34" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="V34" s="168">
+      <c r="V34" s="167">
         <f t="shared" si="5"/>
         <v>2.1768627166747998</v>
       </c>
@@ -32491,7 +32491,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="219"/>
+      <c r="A35" s="218"/>
       <c r="B35" s="186"/>
       <c r="C35" s="186"/>
       <c r="D35" s="115"/>
@@ -32535,10 +32535,10 @@
       <c r="T35" s="112">
         <v>1.2134259259259258E-4</v>
       </c>
-      <c r="U35" s="168" t="s">
+      <c r="U35" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="V35" s="168">
+      <c r="V35" s="167">
         <f t="shared" si="5"/>
         <v>3.2401325702667201</v>
       </c>
@@ -32560,9 +32560,9 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="224"/>
-      <c r="B36" s="205"/>
-      <c r="C36" s="205"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="187"/>
       <c r="D36" s="116"/>
       <c r="E36" s="96">
         <v>64</v>
@@ -32594,23 +32594,23 @@
       <c r="N36" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="205"/>
-      <c r="P36" s="205"/>
-      <c r="Q36" s="205"/>
-      <c r="R36" s="205"/>
+      <c r="O36" s="187"/>
+      <c r="P36" s="187"/>
+      <c r="Q36" s="187"/>
+      <c r="R36" s="187"/>
       <c r="S36" s="96" t="s">
         <v>83</v>
       </c>
       <c r="T36" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="U36" s="168" t="s">
+      <c r="U36" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="V36" s="170">
+      <c r="V36" s="169">
         <v>1000000000</v>
       </c>
-      <c r="W36" s="170">
+      <c r="W36" s="169">
         <v>1000000000</v>
       </c>
       <c r="X36" s="103">
@@ -32627,7 +32627,7 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="218">
+      <c r="A37" s="217">
         <v>8</v>
       </c>
       <c r="B37" s="185">
@@ -32667,16 +32667,16 @@
       <c r="N37" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="O37" s="221">
+      <c r="O37" s="225">
         <v>1</v>
       </c>
-      <c r="P37" s="221" t="s">
+      <c r="P37" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="Q37" s="221" t="s">
+      <c r="Q37" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="R37" s="221" t="s">
+      <c r="R37" s="225" t="s">
         <v>73</v>
       </c>
       <c r="S37" s="143">
@@ -32685,11 +32685,11 @@
       <c r="T37" s="144">
         <v>1.1116898148148147E-4</v>
       </c>
-      <c r="U37" s="168"/>
-      <c r="V37" s="168"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="219"/>
+      <c r="A38" s="218"/>
       <c r="B38" s="186"/>
       <c r="C38" s="186"/>
       <c r="D38" s="115"/>
@@ -32723,21 +32723,21 @@
       <c r="N38" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O38" s="222"/>
-      <c r="P38" s="222"/>
-      <c r="Q38" s="222"/>
-      <c r="R38" s="222"/>
+      <c r="O38" s="226"/>
+      <c r="P38" s="226"/>
+      <c r="Q38" s="226"/>
+      <c r="R38" s="226"/>
       <c r="S38" s="146">
         <v>2.52697324752807</v>
       </c>
       <c r="T38" s="147">
         <v>1.0784722222222222E-4</v>
       </c>
-      <c r="U38" s="168"/>
-      <c r="V38" s="168"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="219"/>
+      <c r="A39" s="218"/>
       <c r="B39" s="186"/>
       <c r="C39" s="186"/>
       <c r="D39" s="115"/>
@@ -32771,21 +32771,21 @@
       <c r="N39" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O39" s="222"/>
-      <c r="P39" s="222"/>
-      <c r="Q39" s="222"/>
-      <c r="R39" s="222"/>
+      <c r="O39" s="226"/>
+      <c r="P39" s="226"/>
+      <c r="Q39" s="226"/>
+      <c r="R39" s="226"/>
       <c r="S39" s="146">
         <v>2.7793483734130802</v>
       </c>
       <c r="T39" s="147">
         <v>1.0853009259259262E-4</v>
       </c>
-      <c r="U39" s="168"/>
-      <c r="V39" s="168"/>
+      <c r="U39" s="167"/>
+      <c r="V39" s="167"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="219"/>
+      <c r="A40" s="218"/>
       <c r="B40" s="186"/>
       <c r="C40" s="186"/>
       <c r="D40" s="115"/>
@@ -32819,21 +32819,21 @@
       <c r="N40" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="222"/>
-      <c r="P40" s="222"/>
-      <c r="Q40" s="222"/>
-      <c r="R40" s="222"/>
+      <c r="O40" s="226"/>
+      <c r="P40" s="226"/>
+      <c r="Q40" s="226"/>
+      <c r="R40" s="226"/>
       <c r="S40" s="146">
         <v>1.9515126943588199</v>
       </c>
       <c r="T40" s="147">
         <v>1.080787037037037E-4</v>
       </c>
-      <c r="U40" s="168"/>
-      <c r="V40" s="168"/>
+      <c r="U40" s="167"/>
+      <c r="V40" s="167"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="219"/>
+      <c r="A41" s="218"/>
       <c r="B41" s="186"/>
       <c r="C41" s="186"/>
       <c r="D41" s="115"/>
@@ -32867,21 +32867,21 @@
       <c r="N41" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="222"/>
-      <c r="P41" s="222"/>
-      <c r="Q41" s="222"/>
-      <c r="R41" s="222"/>
+      <c r="O41" s="226"/>
+      <c r="P41" s="226"/>
+      <c r="Q41" s="226"/>
+      <c r="R41" s="226"/>
       <c r="S41" s="146">
         <v>2.1244838237762398</v>
       </c>
       <c r="T41" s="147">
         <v>9.8460648148148138E-5</v>
       </c>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
+      <c r="U41" s="167"/>
+      <c r="V41" s="167"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="219"/>
+      <c r="A42" s="218"/>
       <c r="B42" s="186"/>
       <c r="C42" s="186"/>
       <c r="D42" s="115"/>
@@ -32915,21 +32915,21 @@
       <c r="N42" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="222"/>
-      <c r="P42" s="222"/>
-      <c r="Q42" s="222"/>
-      <c r="R42" s="222"/>
+      <c r="O42" s="226"/>
+      <c r="P42" s="226"/>
+      <c r="Q42" s="226"/>
+      <c r="R42" s="226"/>
       <c r="S42" s="153">
         <v>1.9156593084335301</v>
       </c>
       <c r="T42" s="154">
         <v>1.0201388888888889E-4</v>
       </c>
-      <c r="U42" s="168"/>
-      <c r="V42" s="168"/>
+      <c r="U42" s="167"/>
+      <c r="V42" s="167"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="219"/>
+      <c r="A43" s="218"/>
       <c r="B43" s="186"/>
       <c r="C43" s="186"/>
       <c r="D43" s="115"/>
@@ -32963,21 +32963,21 @@
       <c r="N43" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="222"/>
-      <c r="P43" s="222"/>
-      <c r="Q43" s="222"/>
-      <c r="R43" s="222"/>
+      <c r="O43" s="226"/>
+      <c r="P43" s="226"/>
+      <c r="Q43" s="226"/>
+      <c r="R43" s="226"/>
       <c r="S43" s="146">
         <v>4.3301634788513104</v>
       </c>
       <c r="T43" s="147">
         <v>1.0736111111111109E-4</v>
       </c>
-      <c r="U43" s="168"/>
-      <c r="V43" s="168"/>
+      <c r="U43" s="167"/>
+      <c r="V43" s="167"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="219"/>
+      <c r="A44" s="218"/>
       <c r="B44" s="186"/>
       <c r="C44" s="186"/>
       <c r="D44" s="115"/>
@@ -33011,23 +33011,23 @@
       <c r="N44" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O44" s="222"/>
-      <c r="P44" s="222"/>
-      <c r="Q44" s="222"/>
-      <c r="R44" s="222"/>
+      <c r="O44" s="226"/>
+      <c r="P44" s="226"/>
+      <c r="Q44" s="226"/>
+      <c r="R44" s="226"/>
       <c r="S44" s="146">
         <v>2.0626416206359801</v>
       </c>
       <c r="T44" s="147">
         <v>1.0333333333333336E-4</v>
       </c>
-      <c r="U44" s="168"/>
-      <c r="V44" s="168"/>
+      <c r="U44" s="167"/>
+      <c r="V44" s="167"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="224"/>
-      <c r="B45" s="205"/>
-      <c r="C45" s="205"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
       <c r="D45" s="116"/>
       <c r="E45" s="130">
         <v>64</v>
@@ -33059,21 +33059,21 @@
       <c r="N45" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="O45" s="225"/>
-      <c r="P45" s="225"/>
-      <c r="Q45" s="225"/>
-      <c r="R45" s="225"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="227"/>
+      <c r="Q45" s="227"/>
+      <c r="R45" s="227"/>
       <c r="S45" s="96" t="s">
         <v>83</v>
       </c>
       <c r="T45" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="U45" s="168"/>
-      <c r="V45" s="168"/>
+      <c r="U45" s="167"/>
+      <c r="V45" s="167"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="218">
+      <c r="A46" s="217">
         <v>9</v>
       </c>
       <c r="B46" s="185">
@@ -33113,16 +33113,16 @@
       <c r="N46" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O46" s="221">
+      <c r="O46" s="225">
         <v>1</v>
       </c>
-      <c r="P46" s="221" t="s">
+      <c r="P46" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="Q46" s="221" t="s">
+      <c r="Q46" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="R46" s="221" t="s">
+      <c r="R46" s="225" t="s">
         <v>73</v>
       </c>
       <c r="S46" s="139">
@@ -33131,11 +33131,11 @@
       <c r="T46" s="140">
         <v>1.0201388888888889E-4</v>
       </c>
-      <c r="U46" s="168"/>
-      <c r="V46" s="168"/>
+      <c r="U46" s="167"/>
+      <c r="V46" s="167"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="219"/>
+      <c r="A47" s="218"/>
       <c r="B47" s="186"/>
       <c r="C47" s="186"/>
       <c r="D47" s="115"/>
@@ -33169,21 +33169,21 @@
       <c r="N47" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O47" s="222"/>
-      <c r="P47" s="222"/>
-      <c r="Q47" s="222"/>
-      <c r="R47" s="222"/>
+      <c r="O47" s="226"/>
+      <c r="P47" s="226"/>
+      <c r="Q47" s="226"/>
+      <c r="R47" s="226"/>
       <c r="S47" s="146">
         <v>2.7227869033813401</v>
       </c>
       <c r="T47" s="147">
         <v>1.0409722222222222E-4</v>
       </c>
-      <c r="U47" s="168"/>
-      <c r="V47" s="168"/>
+      <c r="U47" s="167"/>
+      <c r="V47" s="167"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
+      <c r="A48" s="218"/>
       <c r="B48" s="186"/>
       <c r="C48" s="186"/>
       <c r="D48" s="115"/>
@@ -33217,21 +33217,21 @@
       <c r="N48" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="222"/>
-      <c r="P48" s="222"/>
-      <c r="Q48" s="222"/>
-      <c r="R48" s="222"/>
+      <c r="O48" s="226"/>
+      <c r="P48" s="226"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="226"/>
       <c r="S48" s="146">
         <v>3.3018929958343501</v>
       </c>
       <c r="T48" s="147">
         <v>1.0670138888888887E-4</v>
       </c>
-      <c r="U48" s="168"/>
-      <c r="V48" s="168"/>
+      <c r="U48" s="167"/>
+      <c r="V48" s="167"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="219"/>
+      <c r="A49" s="218"/>
       <c r="B49" s="186"/>
       <c r="C49" s="186"/>
       <c r="D49" s="115"/>
@@ -33265,21 +33265,21 @@
       <c r="N49" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="222"/>
-      <c r="P49" s="222"/>
-      <c r="Q49" s="222"/>
-      <c r="R49" s="222"/>
+      <c r="O49" s="226"/>
+      <c r="P49" s="226"/>
+      <c r="Q49" s="226"/>
+      <c r="R49" s="226"/>
       <c r="S49" s="146">
         <v>2.6426470279693599</v>
       </c>
       <c r="T49" s="147">
         <v>1.0993055555555555E-4</v>
       </c>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
+      <c r="U49" s="167"/>
+      <c r="V49" s="167"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="219"/>
+      <c r="A50" s="218"/>
       <c r="B50" s="186"/>
       <c r="C50" s="186"/>
       <c r="D50" s="115"/>
@@ -33313,21 +33313,21 @@
       <c r="N50" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O50" s="222"/>
-      <c r="P50" s="222"/>
-      <c r="Q50" s="222"/>
-      <c r="R50" s="222"/>
+      <c r="O50" s="226"/>
+      <c r="P50" s="226"/>
+      <c r="Q50" s="226"/>
+      <c r="R50" s="226"/>
       <c r="S50" s="146">
         <v>3.8801469802856401</v>
       </c>
       <c r="T50" s="147">
         <v>9.8368055555555549E-5</v>
       </c>
-      <c r="U50" s="168"/>
-      <c r="V50" s="168"/>
+      <c r="U50" s="167"/>
+      <c r="V50" s="167"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="219"/>
+      <c r="A51" s="218"/>
       <c r="B51" s="186"/>
       <c r="C51" s="186"/>
       <c r="D51" s="115"/>
@@ -33361,21 +33361,21 @@
       <c r="N51" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O51" s="222"/>
-      <c r="P51" s="222"/>
-      <c r="Q51" s="222"/>
-      <c r="R51" s="222"/>
+      <c r="O51" s="226"/>
+      <c r="P51" s="226"/>
+      <c r="Q51" s="226"/>
+      <c r="R51" s="226"/>
       <c r="S51" s="146">
         <v>2.63312792778015</v>
       </c>
       <c r="T51" s="147">
         <v>1.0146990740740739E-4</v>
       </c>
-      <c r="U51" s="168"/>
-      <c r="V51" s="168"/>
+      <c r="U51" s="167"/>
+      <c r="V51" s="167"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="219"/>
+      <c r="A52" s="218"/>
       <c r="B52" s="186"/>
       <c r="C52" s="186"/>
       <c r="D52" s="115"/>
@@ -33409,21 +33409,21 @@
       <c r="N52" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="222"/>
-      <c r="P52" s="222"/>
-      <c r="Q52" s="222"/>
-      <c r="R52" s="222"/>
+      <c r="O52" s="226"/>
+      <c r="P52" s="226"/>
+      <c r="Q52" s="226"/>
+      <c r="R52" s="226"/>
       <c r="S52" s="146">
         <v>2.0949845314025799</v>
       </c>
       <c r="T52" s="147">
         <v>1.080324074074074E-4</v>
       </c>
-      <c r="U52" s="168"/>
-      <c r="V52" s="168"/>
+      <c r="U52" s="167"/>
+      <c r="V52" s="167"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="219"/>
+      <c r="A53" s="218"/>
       <c r="B53" s="186"/>
       <c r="C53" s="186"/>
       <c r="D53" s="115"/>
@@ -33457,23 +33457,23 @@
       <c r="N53" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O53" s="222"/>
-      <c r="P53" s="222"/>
-      <c r="Q53" s="222"/>
-      <c r="R53" s="222"/>
+      <c r="O53" s="226"/>
+      <c r="P53" s="226"/>
+      <c r="Q53" s="226"/>
+      <c r="R53" s="226"/>
       <c r="S53" s="146">
         <v>2.6522650718688898</v>
       </c>
       <c r="T53" s="147">
         <v>1.1158564814814816E-4</v>
       </c>
-      <c r="U53" s="168"/>
-      <c r="V53" s="168"/>
+      <c r="U53" s="167"/>
+      <c r="V53" s="167"/>
     </row>
     <row r="54" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="224"/>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
+      <c r="A54" s="219"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="187"/>
       <c r="D54" s="116"/>
       <c r="E54" s="130">
         <v>64</v>
@@ -33505,21 +33505,21 @@
       <c r="N54" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="O54" s="225"/>
-      <c r="P54" s="225"/>
-      <c r="Q54" s="225"/>
-      <c r="R54" s="225"/>
+      <c r="O54" s="227"/>
+      <c r="P54" s="227"/>
+      <c r="Q54" s="227"/>
+      <c r="R54" s="227"/>
       <c r="S54" s="130">
         <v>3.4275913238525302</v>
       </c>
       <c r="T54" s="145">
         <v>1.1605324074074073E-4</v>
       </c>
-      <c r="U54" s="168"/>
-      <c r="V54" s="168"/>
+      <c r="U54" s="167"/>
+      <c r="V54" s="167"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="218">
+      <c r="A55" s="217">
         <v>10</v>
       </c>
       <c r="B55" s="185">
@@ -33559,16 +33559,16 @@
       <c r="N55" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="O55" s="221">
+      <c r="O55" s="225">
         <v>1</v>
       </c>
-      <c r="P55" s="221" t="s">
+      <c r="P55" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="Q55" s="221" t="s">
+      <c r="Q55" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="R55" s="221" t="s">
+      <c r="R55" s="225" t="s">
         <v>73</v>
       </c>
       <c r="S55" s="139">
@@ -33577,11 +33577,11 @@
       <c r="T55" s="140">
         <v>1.0201388888888889E-4</v>
       </c>
-      <c r="U55" s="168"/>
-      <c r="V55" s="168"/>
+      <c r="U55" s="167"/>
+      <c r="V55" s="167"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="219"/>
+      <c r="A56" s="218"/>
       <c r="B56" s="186"/>
       <c r="C56" s="186"/>
       <c r="D56" s="115"/>
@@ -33615,21 +33615,21 @@
       <c r="N56" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O56" s="222"/>
-      <c r="P56" s="222"/>
-      <c r="Q56" s="222"/>
-      <c r="R56" s="222"/>
+      <c r="O56" s="226"/>
+      <c r="P56" s="226"/>
+      <c r="Q56" s="226"/>
+      <c r="R56" s="226"/>
       <c r="S56" s="146">
         <v>1.9811866283416699</v>
       </c>
       <c r="T56" s="147">
         <v>1.0894675925925926E-4</v>
       </c>
-      <c r="U56" s="168"/>
-      <c r="V56" s="168"/>
+      <c r="U56" s="167"/>
+      <c r="V56" s="167"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="219"/>
+      <c r="A57" s="218"/>
       <c r="B57" s="186"/>
       <c r="C57" s="186"/>
       <c r="D57" s="115"/>
@@ -33663,21 +33663,21 @@
       <c r="N57" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="222"/>
-      <c r="P57" s="222"/>
-      <c r="Q57" s="222"/>
-      <c r="R57" s="222"/>
+      <c r="O57" s="226"/>
+      <c r="P57" s="226"/>
+      <c r="Q57" s="226"/>
+      <c r="R57" s="226"/>
       <c r="S57" s="146">
         <v>2.8434960842132502</v>
       </c>
       <c r="T57" s="147">
         <v>1.9024305555555559E-4</v>
       </c>
-      <c r="U57" s="168"/>
-      <c r="V57" s="168"/>
+      <c r="U57" s="167"/>
+      <c r="V57" s="167"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="219"/>
+      <c r="A58" s="218"/>
       <c r="B58" s="186"/>
       <c r="C58" s="186"/>
       <c r="D58" s="115"/>
@@ -33711,21 +33711,21 @@
       <c r="N58" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="222"/>
-      <c r="P58" s="222"/>
-      <c r="Q58" s="222"/>
-      <c r="R58" s="222"/>
+      <c r="O58" s="226"/>
+      <c r="P58" s="226"/>
+      <c r="Q58" s="226"/>
+      <c r="R58" s="226"/>
       <c r="S58" s="146">
         <v>3.9697618484496999</v>
       </c>
       <c r="T58" s="147">
         <v>1.1276620370370372E-4</v>
       </c>
-      <c r="U58" s="168"/>
-      <c r="V58" s="168"/>
+      <c r="U58" s="167"/>
+      <c r="V58" s="167"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="219"/>
+      <c r="A59" s="218"/>
       <c r="B59" s="186"/>
       <c r="C59" s="186"/>
       <c r="D59" s="115"/>
@@ -33759,21 +33759,21 @@
       <c r="N59" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O59" s="222"/>
-      <c r="P59" s="222"/>
-      <c r="Q59" s="222"/>
-      <c r="R59" s="222"/>
+      <c r="O59" s="226"/>
+      <c r="P59" s="226"/>
+      <c r="Q59" s="226"/>
+      <c r="R59" s="226"/>
       <c r="S59" s="146">
         <v>2.87748098373413</v>
       </c>
       <c r="T59" s="147">
         <v>1.1112268518518517E-4</v>
       </c>
-      <c r="U59" s="168"/>
-      <c r="V59" s="168"/>
+      <c r="U59" s="167"/>
+      <c r="V59" s="167"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="219"/>
+      <c r="A60" s="218"/>
       <c r="B60" s="186"/>
       <c r="C60" s="186"/>
       <c r="D60" s="115"/>
@@ -33807,21 +33807,21 @@
       <c r="N60" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O60" s="222"/>
-      <c r="P60" s="222"/>
-      <c r="Q60" s="222"/>
-      <c r="R60" s="222"/>
+      <c r="O60" s="226"/>
+      <c r="P60" s="226"/>
+      <c r="Q60" s="226"/>
+      <c r="R60" s="226"/>
       <c r="S60" s="146">
         <v>2.0078368186950599</v>
       </c>
       <c r="T60" s="147">
         <v>1.1025462962962963E-4</v>
       </c>
-      <c r="U60" s="168"/>
-      <c r="V60" s="168"/>
+      <c r="U60" s="167"/>
+      <c r="V60" s="167"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="219"/>
+      <c r="A61" s="218"/>
       <c r="B61" s="186"/>
       <c r="C61" s="186"/>
       <c r="D61" s="115"/>
@@ -33855,21 +33855,21 @@
       <c r="N61" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="222"/>
-      <c r="P61" s="222"/>
-      <c r="Q61" s="222"/>
-      <c r="R61" s="222"/>
+      <c r="O61" s="226"/>
+      <c r="P61" s="226"/>
+      <c r="Q61" s="226"/>
+      <c r="R61" s="226"/>
       <c r="S61" s="146">
         <v>2.8022406101226802</v>
       </c>
       <c r="T61" s="147">
         <v>1.1143518518518519E-4</v>
       </c>
-      <c r="U61" s="168"/>
-      <c r="V61" s="168"/>
+      <c r="U61" s="167"/>
+      <c r="V61" s="167"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="219"/>
+      <c r="A62" s="218"/>
       <c r="B62" s="186"/>
       <c r="C62" s="186"/>
       <c r="D62" s="115"/>
@@ -33903,23 +33903,23 @@
       <c r="N62" s="146" t="s">
         <v>21</v>
       </c>
-      <c r="O62" s="222"/>
-      <c r="P62" s="222"/>
-      <c r="Q62" s="222"/>
-      <c r="R62" s="222"/>
+      <c r="O62" s="226"/>
+      <c r="P62" s="226"/>
+      <c r="Q62" s="226"/>
+      <c r="R62" s="226"/>
       <c r="S62" s="146">
         <v>2.4898729324340798</v>
       </c>
       <c r="T62" s="147">
         <v>1.1315972222222222E-4</v>
       </c>
-      <c r="U62" s="168"/>
-      <c r="V62" s="168"/>
+      <c r="U62" s="167"/>
+      <c r="V62" s="167"/>
     </row>
     <row r="63" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="224"/>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
+      <c r="A63" s="219"/>
+      <c r="B63" s="187"/>
+      <c r="C63" s="187"/>
       <c r="D63" s="116"/>
       <c r="E63" s="130">
         <v>64</v>
@@ -33951,21 +33951,21 @@
       <c r="N63" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="O63" s="225"/>
-      <c r="P63" s="225"/>
-      <c r="Q63" s="225"/>
-      <c r="R63" s="225"/>
+      <c r="O63" s="227"/>
+      <c r="P63" s="227"/>
+      <c r="Q63" s="227"/>
+      <c r="R63" s="227"/>
       <c r="S63" s="130">
         <v>2.3428390026092498</v>
       </c>
       <c r="T63" s="145">
         <v>9.6620370370370393E-5</v>
       </c>
-      <c r="U63" s="168"/>
-      <c r="V63" s="168"/>
+      <c r="U63" s="167"/>
+      <c r="V63" s="167"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="218">
+      <c r="A64" s="217">
         <v>11</v>
       </c>
       <c r="B64" s="185">
@@ -34005,16 +34005,16 @@
       <c r="N64" s="143" t="s">
         <v>21</v>
       </c>
-      <c r="O64" s="221">
+      <c r="O64" s="225">
         <v>1</v>
       </c>
-      <c r="P64" s="221" t="s">
+      <c r="P64" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="Q64" s="221" t="s">
+      <c r="Q64" s="225" t="s">
         <v>73</v>
       </c>
-      <c r="R64" s="221" t="s">
+      <c r="R64" s="225" t="s">
         <v>73</v>
       </c>
       <c r="S64" s="143">
@@ -34023,11 +34023,11 @@
       <c r="T64" s="144">
         <v>1.0201388888888889E-4</v>
       </c>
-      <c r="U64" s="168"/>
-      <c r="V64" s="168"/>
+      <c r="U64" s="167"/>
+      <c r="V64" s="167"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="219"/>
+      <c r="A65" s="218"/>
       <c r="B65" s="186"/>
       <c r="C65" s="186"/>
       <c r="D65" s="115"/>
@@ -34061,21 +34061,21 @@
       <c r="N65" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="O65" s="222"/>
-      <c r="P65" s="222"/>
-      <c r="Q65" s="222"/>
-      <c r="R65" s="222"/>
+      <c r="O65" s="226"/>
+      <c r="P65" s="226"/>
+      <c r="Q65" s="226"/>
+      <c r="R65" s="226"/>
       <c r="S65" s="153">
         <v>1.7888495922088601</v>
       </c>
       <c r="T65" s="154">
         <v>1.069675925925926E-4</v>
       </c>
-      <c r="U65" s="168"/>
-      <c r="V65" s="168"/>
+      <c r="U65" s="167"/>
+      <c r="V65" s="167"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="219"/>
+      <c r="A66" s="218"/>
       <c r="B66" s="186"/>
       <c r="C66" s="186"/>
       <c r="D66" s="115"/>
@@ -34109,21 +34109,21 @@
       <c r="N66" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="O66" s="222"/>
-      <c r="P66" s="222"/>
-      <c r="Q66" s="222"/>
-      <c r="R66" s="222"/>
+      <c r="O66" s="226"/>
+      <c r="P66" s="226"/>
+      <c r="Q66" s="226"/>
+      <c r="R66" s="226"/>
       <c r="S66" s="146">
         <v>20.147039413452099</v>
       </c>
       <c r="T66" s="147">
         <v>1.2137731481481483E-4</v>
       </c>
-      <c r="U66" s="168"/>
-      <c r="V66" s="168"/>
+      <c r="U66" s="167"/>
+      <c r="V66" s="167"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="219"/>
+      <c r="A67" s="218"/>
       <c r="B67" s="186"/>
       <c r="C67" s="186"/>
       <c r="D67" s="115"/>
@@ -34157,21 +34157,21 @@
       <c r="N67" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="O67" s="222"/>
-      <c r="P67" s="222"/>
-      <c r="Q67" s="222"/>
-      <c r="R67" s="222"/>
+      <c r="O67" s="226"/>
+      <c r="P67" s="226"/>
+      <c r="Q67" s="226"/>
+      <c r="R67" s="226"/>
       <c r="S67" s="146">
         <v>3.51139116287231</v>
       </c>
       <c r="T67" s="147">
         <v>1.2979166666666667E-4</v>
       </c>
-      <c r="U67" s="168"/>
-      <c r="V67" s="168"/>
+      <c r="U67" s="167"/>
+      <c r="V67" s="167"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="219"/>
+      <c r="A68" s="218"/>
       <c r="B68" s="186"/>
       <c r="C68" s="186"/>
       <c r="D68" s="115"/>
@@ -34205,21 +34205,21 @@
       <c r="N68" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="O68" s="222"/>
-      <c r="P68" s="222"/>
-      <c r="Q68" s="222"/>
-      <c r="R68" s="222"/>
+      <c r="O68" s="226"/>
+      <c r="P68" s="226"/>
+      <c r="Q68" s="226"/>
+      <c r="R68" s="226"/>
       <c r="S68" s="146">
         <v>1.9702686071395801</v>
       </c>
       <c r="T68" s="147">
         <v>1.2067129629629631E-4</v>
       </c>
-      <c r="U68" s="168"/>
-      <c r="V68" s="168"/>
+      <c r="U68" s="167"/>
+      <c r="V68" s="167"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="219"/>
+      <c r="A69" s="218"/>
       <c r="B69" s="186"/>
       <c r="C69" s="186"/>
       <c r="D69" s="115"/>
@@ -34253,21 +34253,21 @@
       <c r="N69" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="O69" s="222"/>
-      <c r="P69" s="222"/>
-      <c r="Q69" s="222"/>
-      <c r="R69" s="222"/>
+      <c r="O69" s="226"/>
+      <c r="P69" s="226"/>
+      <c r="Q69" s="226"/>
+      <c r="R69" s="226"/>
       <c r="S69" s="146">
         <v>2.2702364921569802</v>
       </c>
       <c r="T69" s="147">
         <v>1.5513888888888888E-4</v>
       </c>
-      <c r="U69" s="168"/>
-      <c r="V69" s="168"/>
+      <c r="U69" s="167"/>
+      <c r="V69" s="167"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="219"/>
+      <c r="A70" s="218"/>
       <c r="B70" s="186"/>
       <c r="C70" s="186"/>
       <c r="D70" s="115"/>
@@ -34301,21 +34301,21 @@
       <c r="N70" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="O70" s="222"/>
-      <c r="P70" s="222"/>
-      <c r="Q70" s="222"/>
-      <c r="R70" s="222"/>
+      <c r="O70" s="226"/>
+      <c r="P70" s="226"/>
+      <c r="Q70" s="226"/>
+      <c r="R70" s="226"/>
       <c r="S70" s="146">
         <v>2.3357868194579998</v>
       </c>
       <c r="T70" s="147">
         <v>1.2481481481481482E-4</v>
       </c>
-      <c r="U70" s="168"/>
-      <c r="V70" s="168"/>
+      <c r="U70" s="167"/>
+      <c r="V70" s="167"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="219"/>
+      <c r="A71" s="218"/>
       <c r="B71" s="186"/>
       <c r="C71" s="186"/>
       <c r="D71" s="115"/>
@@ -34349,28 +34349,28 @@
       <c r="N71" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="O71" s="222"/>
-      <c r="P71" s="222"/>
-      <c r="Q71" s="222"/>
-      <c r="R71" s="222"/>
+      <c r="O71" s="226"/>
+      <c r="P71" s="226"/>
+      <c r="Q71" s="226"/>
+      <c r="R71" s="226"/>
       <c r="S71" s="146">
         <v>1.84304630756378</v>
       </c>
       <c r="T71" s="147">
         <v>1.2934027777777778E-4</v>
       </c>
-      <c r="U71" s="168"/>
-      <c r="V71" s="168"/>
+      <c r="U71" s="167"/>
+      <c r="V71" s="167"/>
     </row>
     <row r="72" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="220"/>
-      <c r="B72" s="187"/>
-      <c r="C72" s="187"/>
+      <c r="B72" s="194"/>
+      <c r="C72" s="194"/>
       <c r="D72" s="120"/>
       <c r="E72" s="131">
         <v>64</v>
       </c>
-      <c r="F72" s="157" t="s">
+      <c r="F72" s="156" t="s">
         <v>21</v>
       </c>
       <c r="G72" s="131">
@@ -34394,24 +34394,24 @@
       <c r="M72" s="131">
         <v>512</v>
       </c>
-      <c r="N72" s="157" t="s">
+      <c r="N72" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="O72" s="223"/>
-      <c r="P72" s="223"/>
-      <c r="Q72" s="223"/>
-      <c r="R72" s="223"/>
+      <c r="O72" s="228"/>
+      <c r="P72" s="228"/>
+      <c r="Q72" s="228"/>
+      <c r="R72" s="228"/>
       <c r="S72" s="131">
         <v>3.7827923297882</v>
       </c>
-      <c r="T72" s="158">
+      <c r="T72" s="157">
         <v>1.321990740740741E-4</v>
       </c>
-      <c r="U72" s="168"/>
-      <c r="V72" s="168"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="167"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="218">
+      <c r="A73" s="217">
         <v>12</v>
       </c>
       <c r="B73" s="185">
@@ -34469,11 +34469,11 @@
       <c r="T73" s="140">
         <v>1.099537037037037E-4</v>
       </c>
-      <c r="U73" s="168"/>
-      <c r="V73" s="168"/>
+      <c r="U73" s="167"/>
+      <c r="V73" s="167"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="219"/>
+      <c r="A74" s="218"/>
       <c r="B74" s="186"/>
       <c r="C74" s="186"/>
       <c r="D74" s="115"/>
@@ -34499,11 +34499,11 @@
       <c r="T74" s="112">
         <v>1.0335648148148147E-4</v>
       </c>
-      <c r="U74" s="168"/>
-      <c r="V74" s="168"/>
+      <c r="U74" s="167"/>
+      <c r="V74" s="167"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="219"/>
+      <c r="A75" s="218"/>
       <c r="B75" s="186"/>
       <c r="C75" s="186"/>
       <c r="D75" s="115"/>
@@ -34529,11 +34529,11 @@
       <c r="T75" s="147">
         <v>1.069675925925926E-4</v>
       </c>
-      <c r="U75" s="168"/>
-      <c r="V75" s="168"/>
+      <c r="U75" s="167"/>
+      <c r="V75" s="167"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="219"/>
+      <c r="A76" s="218"/>
       <c r="B76" s="186"/>
       <c r="C76" s="186"/>
       <c r="D76" s="115"/>
@@ -34559,11 +34559,11 @@
       <c r="T76" s="112">
         <v>1.0988425925925926E-4</v>
       </c>
-      <c r="U76" s="168"/>
-      <c r="V76" s="168"/>
+      <c r="U76" s="167"/>
+      <c r="V76" s="167"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="219"/>
+      <c r="A77" s="218"/>
       <c r="B77" s="186"/>
       <c r="C77" s="186"/>
       <c r="D77" s="115"/>
@@ -34589,11 +34589,11 @@
       <c r="T77" s="112">
         <v>1.1164351851851852E-4</v>
       </c>
-      <c r="U77" s="168"/>
-      <c r="V77" s="168"/>
+      <c r="U77" s="167"/>
+      <c r="V77" s="167"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="219"/>
+      <c r="A78" s="218"/>
       <c r="B78" s="186"/>
       <c r="C78" s="186"/>
       <c r="D78" s="115"/>
@@ -34619,11 +34619,11 @@
       <c r="T78" s="112">
         <v>1.1262731481481481E-4</v>
       </c>
-      <c r="U78" s="168"/>
-      <c r="V78" s="168"/>
+      <c r="U78" s="167"/>
+      <c r="V78" s="167"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="219"/>
+      <c r="A79" s="218"/>
       <c r="B79" s="186"/>
       <c r="C79" s="186"/>
       <c r="D79" s="115"/>
@@ -34649,41 +34649,41 @@
       <c r="T79" s="112">
         <v>1.4314814814814813E-4</v>
       </c>
-      <c r="U79" s="168"/>
-      <c r="V79" s="168"/>
+      <c r="U79" s="167"/>
+      <c r="V79" s="167"/>
     </row>
     <row r="80" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="220"/>
-      <c r="B80" s="187"/>
-      <c r="C80" s="187"/>
+      <c r="B80" s="194"/>
+      <c r="C80" s="194"/>
       <c r="D80" s="120"/>
-      <c r="E80" s="187"/>
-      <c r="F80" s="187"/>
-      <c r="G80" s="187"/>
-      <c r="H80" s="187"/>
-      <c r="I80" s="187"/>
-      <c r="J80" s="187"/>
-      <c r="K80" s="187"/>
-      <c r="L80" s="187"/>
-      <c r="M80" s="187"/>
-      <c r="N80" s="187"/>
-      <c r="O80" s="187"/>
+      <c r="E80" s="194"/>
+      <c r="F80" s="194"/>
+      <c r="G80" s="194"/>
+      <c r="H80" s="194"/>
+      <c r="I80" s="194"/>
+      <c r="J80" s="194"/>
+      <c r="K80" s="194"/>
+      <c r="L80" s="194"/>
+      <c r="M80" s="194"/>
+      <c r="N80" s="194"/>
+      <c r="O80" s="194"/>
       <c r="P80" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="Q80" s="187"/>
-      <c r="R80" s="187"/>
+      <c r="Q80" s="194"/>
+      <c r="R80" s="194"/>
       <c r="S80" s="127">
         <v>8.3444309234619105</v>
       </c>
       <c r="T80" s="129">
         <v>2.5129629629629628E-4</v>
       </c>
-      <c r="U80" s="168"/>
-      <c r="V80" s="168"/>
+      <c r="U80" s="167"/>
+      <c r="V80" s="167"/>
     </row>
     <row r="81" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="218">
+      <c r="A81" s="217">
         <v>12</v>
       </c>
       <c r="B81" s="185">
@@ -34736,12 +34736,12 @@
         <v>30</v>
       </c>
       <c r="S81" s="110"/>
-      <c r="T81" s="159"/>
-      <c r="U81" s="168"/>
-      <c r="V81" s="168"/>
+      <c r="T81" s="158"/>
+      <c r="U81" s="167"/>
+      <c r="V81" s="167"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="219"/>
+      <c r="A82" s="218"/>
       <c r="B82" s="186"/>
       <c r="C82" s="186"/>
       <c r="D82" s="115"/>
@@ -34763,17 +34763,17 @@
       <c r="R82" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="S82" s="165">
+      <c r="S82" s="164">
         <v>-51.12890625</v>
       </c>
-      <c r="T82" s="162">
+      <c r="T82" s="161">
         <v>1.123263888888889E-4</v>
       </c>
-      <c r="U82" s="168"/>
-      <c r="V82" s="168"/>
+      <c r="U82" s="167"/>
+      <c r="V82" s="167"/>
     </row>
     <row r="83" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="219"/>
+      <c r="A83" s="218"/>
       <c r="B83" s="186"/>
       <c r="C83" s="186"/>
       <c r="D83" s="115"/>
@@ -34795,17 +34795,17 @@
       <c r="R83" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="S83" s="165">
+      <c r="S83" s="164">
         <v>-336.67926025390602</v>
       </c>
-      <c r="T83" s="162">
+      <c r="T83" s="161">
         <v>1.225347222222222E-4</v>
       </c>
-      <c r="U83" s="168"/>
-      <c r="V83" s="168"/>
+      <c r="U83" s="167"/>
+      <c r="V83" s="167"/>
     </row>
     <row r="84" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="219"/>
+      <c r="A84" s="218"/>
       <c r="B84" s="186"/>
       <c r="C84" s="186"/>
       <c r="D84" s="115"/>
@@ -34827,17 +34827,17 @@
       <c r="R84" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="S84" s="161">
+      <c r="S84" s="160">
         <v>2.7511637199495398E-6</v>
       </c>
-      <c r="T84" s="162">
+      <c r="T84" s="161">
         <v>1.124537037037037E-4</v>
       </c>
-      <c r="U84" s="168"/>
-      <c r="V84" s="168"/>
+      <c r="U84" s="167"/>
+      <c r="V84" s="167"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="219"/>
+      <c r="A85" s="218"/>
       <c r="B85" s="186"/>
       <c r="C85" s="186"/>
       <c r="D85" s="115"/>
@@ -34860,12 +34860,12 @@
         <v>58</v>
       </c>
       <c r="S85" s="107"/>
-      <c r="T85" s="160"/>
-      <c r="U85" s="168"/>
-      <c r="V85" s="168"/>
+      <c r="T85" s="159"/>
+      <c r="U85" s="167"/>
+      <c r="V85" s="167"/>
     </row>
     <row r="86" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="219"/>
+      <c r="A86" s="218"/>
       <c r="B86" s="186"/>
       <c r="C86" s="186"/>
       <c r="D86" s="115"/>
@@ -34893,11 +34893,11 @@
       <c r="T86" s="112">
         <v>1.1052083333333333E-4</v>
       </c>
-      <c r="U86" s="168"/>
-      <c r="V86" s="168"/>
+      <c r="U86" s="167"/>
+      <c r="V86" s="167"/>
     </row>
     <row r="87" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="219"/>
+      <c r="A87" s="218"/>
       <c r="B87" s="186"/>
       <c r="C87" s="186"/>
       <c r="D87" s="115"/>
@@ -34925,11 +34925,11 @@
       <c r="T87" s="112">
         <v>1.099537037037037E-4</v>
       </c>
-      <c r="U87" s="168"/>
-      <c r="V87" s="168"/>
+      <c r="U87" s="167"/>
+      <c r="V87" s="167"/>
     </row>
     <row r="88" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="219"/>
+      <c r="A88" s="218"/>
       <c r="B88" s="186"/>
       <c r="C88" s="186"/>
       <c r="D88" s="115"/>
@@ -34957,11 +34957,11 @@
       <c r="T88" s="112">
         <v>1.2748842592592594E-4</v>
       </c>
-      <c r="U88" s="168"/>
-      <c r="V88" s="168"/>
+      <c r="U88" s="167"/>
+      <c r="V88" s="167"/>
     </row>
     <row r="89" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="219"/>
+      <c r="A89" s="218"/>
       <c r="B89" s="186"/>
       <c r="C89" s="186"/>
       <c r="D89" s="115"/>
@@ -34989,11 +34989,11 @@
       <c r="T89" s="154">
         <v>1.0859953703703703E-4</v>
       </c>
-      <c r="U89" s="168"/>
-      <c r="V89" s="168"/>
+      <c r="U89" s="167"/>
+      <c r="V89" s="167"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="219"/>
+      <c r="A90" s="218"/>
       <c r="B90" s="186"/>
       <c r="C90" s="186"/>
       <c r="D90" s="115"/>
@@ -35015,17 +35015,17 @@
       <c r="R90" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S90" s="165">
+      <c r="S90" s="164">
         <v>-1</v>
       </c>
-      <c r="T90" s="162">
+      <c r="T90" s="161">
         <v>1.2517361111111111E-4</v>
       </c>
-      <c r="U90" s="168"/>
-      <c r="V90" s="168"/>
+      <c r="U90" s="167"/>
+      <c r="V90" s="167"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="219"/>
+      <c r="A91" s="218"/>
       <c r="B91" s="186"/>
       <c r="C91" s="186"/>
       <c r="D91" s="115"/>
@@ -35048,12 +35048,12 @@
         <v>64</v>
       </c>
       <c r="S91" s="107"/>
-      <c r="T91" s="160"/>
-      <c r="U91" s="168"/>
-      <c r="V91" s="168"/>
+      <c r="T91" s="159"/>
+      <c r="U91" s="167"/>
+      <c r="V91" s="167"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="219"/>
+      <c r="A92" s="218"/>
       <c r="B92" s="186"/>
       <c r="C92" s="186"/>
       <c r="D92" s="115"/>
@@ -35081,11 +35081,11 @@
       <c r="T92" s="112">
         <v>1.3116898148148148E-4</v>
       </c>
-      <c r="U92" s="168"/>
-      <c r="V92" s="168"/>
+      <c r="U92" s="167"/>
+      <c r="V92" s="167"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="219"/>
+      <c r="A93" s="218"/>
       <c r="B93" s="186"/>
       <c r="C93" s="186"/>
       <c r="D93" s="115"/>
@@ -35107,13 +35107,13 @@
       <c r="R93" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="S93" s="161"/>
-      <c r="T93" s="162"/>
-      <c r="U93" s="168"/>
-      <c r="V93" s="168"/>
+      <c r="S93" s="160"/>
+      <c r="T93" s="161"/>
+      <c r="U93" s="167"/>
+      <c r="V93" s="167"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="219"/>
+      <c r="A94" s="218"/>
       <c r="B94" s="186"/>
       <c r="C94" s="186"/>
       <c r="D94" s="115"/>
@@ -35135,72 +35135,104 @@
       <c r="R94" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="S94" s="161"/>
-      <c r="T94" s="162"/>
-      <c r="U94" s="168"/>
-      <c r="V94" s="168"/>
+      <c r="S94" s="160"/>
+      <c r="T94" s="161"/>
+      <c r="U94" s="167"/>
+      <c r="V94" s="167"/>
     </row>
     <row r="95" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="224"/>
-      <c r="B95" s="205"/>
-      <c r="C95" s="205"/>
+      <c r="A95" s="219"/>
+      <c r="B95" s="187"/>
+      <c r="C95" s="187"/>
       <c r="D95" s="116"/>
-      <c r="E95" s="205"/>
-      <c r="F95" s="205"/>
-      <c r="G95" s="205"/>
-      <c r="H95" s="205"/>
-      <c r="I95" s="205"/>
-      <c r="J95" s="205"/>
-      <c r="K95" s="205"/>
-      <c r="L95" s="205"/>
-      <c r="M95" s="205"/>
-      <c r="N95" s="205"/>
-      <c r="O95" s="205"/>
-      <c r="P95" s="205"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="187"/>
+      <c r="G95" s="187"/>
+      <c r="H95" s="187"/>
+      <c r="I95" s="187"/>
+      <c r="J95" s="187"/>
+      <c r="K95" s="187"/>
+      <c r="L95" s="187"/>
+      <c r="M95" s="187"/>
+      <c r="N95" s="187"/>
+      <c r="O95" s="187"/>
+      <c r="P95" s="187"/>
       <c r="Q95" s="96" t="s">
         <v>68</v>
       </c>
       <c r="R95" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="S95" s="163"/>
-      <c r="T95" s="164"/>
-      <c r="U95" s="168"/>
-      <c r="V95" s="168"/>
+      <c r="S95" s="162"/>
+      <c r="T95" s="163"/>
+      <c r="U95" s="167"/>
+      <c r="V95" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="B81:B95"/>
-    <mergeCell ref="A81:A95"/>
-    <mergeCell ref="K81:K95"/>
-    <mergeCell ref="J81:J95"/>
-    <mergeCell ref="I81:I95"/>
-    <mergeCell ref="H81:H95"/>
-    <mergeCell ref="G81:G95"/>
-    <mergeCell ref="P81:P95"/>
-    <mergeCell ref="O81:O95"/>
-    <mergeCell ref="N81:N95"/>
-    <mergeCell ref="M81:M95"/>
-    <mergeCell ref="L81:L95"/>
-    <mergeCell ref="O73:O80"/>
-    <mergeCell ref="Q73:Q80"/>
-    <mergeCell ref="R73:R80"/>
-    <mergeCell ref="A73:A80"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="C73:C80"/>
-    <mergeCell ref="E73:E80"/>
-    <mergeCell ref="F73:F80"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="H73:H80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="J73:J80"/>
-    <mergeCell ref="K73:K80"/>
-    <mergeCell ref="L73:L80"/>
-    <mergeCell ref="M73:M80"/>
-    <mergeCell ref="N73:N80"/>
-    <mergeCell ref="F81:F95"/>
-    <mergeCell ref="E81:E95"/>
-    <mergeCell ref="C81:C95"/>
+    <mergeCell ref="A64:A72"/>
+    <mergeCell ref="B64:B72"/>
+    <mergeCell ref="C64:C72"/>
+    <mergeCell ref="O64:O72"/>
+    <mergeCell ref="P64:P72"/>
+    <mergeCell ref="Q64:Q72"/>
+    <mergeCell ref="R64:R72"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="B55:B63"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="O55:O63"/>
+    <mergeCell ref="P55:P63"/>
+    <mergeCell ref="A46:A54"/>
+    <mergeCell ref="B46:B54"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="O46:O54"/>
+    <mergeCell ref="P46:P54"/>
+    <mergeCell ref="Q46:Q54"/>
+    <mergeCell ref="R46:R54"/>
+    <mergeCell ref="Q55:Q63"/>
+    <mergeCell ref="R55:R63"/>
+    <mergeCell ref="Q28:Q36"/>
+    <mergeCell ref="R28:R36"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="B37:B45"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="O37:O45"/>
+    <mergeCell ref="P37:P45"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="O28:O36"/>
+    <mergeCell ref="P28:P36"/>
+    <mergeCell ref="Q37:Q45"/>
+    <mergeCell ref="R37:R45"/>
+    <mergeCell ref="Q20:Q23"/>
+    <mergeCell ref="R20:R23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="O20:O23"/>
+    <mergeCell ref="P20:P23"/>
+    <mergeCell ref="Q12:Q15"/>
+    <mergeCell ref="R12:R15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="Q16:Q19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -35220,69 +35252,37 @@
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
-    <mergeCell ref="Q12:Q15"/>
-    <mergeCell ref="R12:R15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="Q16:Q19"/>
-    <mergeCell ref="R16:R19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="Q20:Q23"/>
-    <mergeCell ref="R20:R23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="O20:O23"/>
-    <mergeCell ref="P20:P23"/>
-    <mergeCell ref="Q28:Q36"/>
-    <mergeCell ref="R28:R36"/>
-    <mergeCell ref="A37:A45"/>
-    <mergeCell ref="B37:B45"/>
-    <mergeCell ref="C37:C45"/>
-    <mergeCell ref="O37:O45"/>
-    <mergeCell ref="P37:P45"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="O28:O36"/>
-    <mergeCell ref="P28:P36"/>
-    <mergeCell ref="Q37:Q45"/>
-    <mergeCell ref="R37:R45"/>
-    <mergeCell ref="A46:A54"/>
-    <mergeCell ref="B46:B54"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="O46:O54"/>
-    <mergeCell ref="P46:P54"/>
-    <mergeCell ref="Q46:Q54"/>
-    <mergeCell ref="R46:R54"/>
-    <mergeCell ref="Q55:Q63"/>
-    <mergeCell ref="R55:R63"/>
-    <mergeCell ref="A64:A72"/>
-    <mergeCell ref="B64:B72"/>
-    <mergeCell ref="C64:C72"/>
-    <mergeCell ref="O64:O72"/>
-    <mergeCell ref="P64:P72"/>
-    <mergeCell ref="Q64:Q72"/>
-    <mergeCell ref="R64:R72"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="B55:B63"/>
-    <mergeCell ref="C55:C63"/>
-    <mergeCell ref="O55:O63"/>
-    <mergeCell ref="P55:P63"/>
+    <mergeCell ref="O73:O80"/>
+    <mergeCell ref="Q73:Q80"/>
+    <mergeCell ref="R73:R80"/>
+    <mergeCell ref="A73:A80"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="C73:C80"/>
+    <mergeCell ref="E73:E80"/>
+    <mergeCell ref="F73:F80"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="J73:J80"/>
+    <mergeCell ref="K73:K80"/>
+    <mergeCell ref="L73:L80"/>
+    <mergeCell ref="M73:M80"/>
+    <mergeCell ref="N73:N80"/>
+    <mergeCell ref="B81:B95"/>
+    <mergeCell ref="A81:A95"/>
+    <mergeCell ref="K81:K95"/>
+    <mergeCell ref="J81:J95"/>
+    <mergeCell ref="I81:I95"/>
+    <mergeCell ref="H81:H95"/>
+    <mergeCell ref="G81:G95"/>
+    <mergeCell ref="P81:P95"/>
+    <mergeCell ref="O81:O95"/>
+    <mergeCell ref="N81:N95"/>
+    <mergeCell ref="M81:M95"/>
+    <mergeCell ref="L81:L95"/>
+    <mergeCell ref="F81:F95"/>
+    <mergeCell ref="E81:E95"/>
+    <mergeCell ref="C81:C95"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
